--- a/src/assets/template/disbursement-template.xlsx
+++ b/src/assets/template/disbursement-template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Practice\NFGI\src\assets\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AbhinavPandey\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3BDCE2-21E3-41AE-A05A-F28AF3C1F9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C77817-18C2-433D-9930-C1A5B159AAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4C4C0623-694F-4BD1-BD7D-346FF2C0CE84}"/>
   </bookViews>
@@ -448,7 +448,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -554,14 +554,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="7e7b11f4-f136-433a-ae27-5b7057a77e57" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008B02D15825F3B9448D0EC7899A8AB0FD" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="76d0a11b0865898e94d60f899162b25d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7e7b11f4-f136-433a-ae27-5b7057a77e57" xmlns:ns4="27bba83f-6ae7-47c8-b9ca-06fda1d18f5e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87fda86a1ccdd6891de83b9b7438a915" ns3:_="" ns4:_="">
     <xsd:import namespace="7e7b11f4-f136-433a-ae27-5b7057a77e57"/>
@@ -788,6 +780,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="7e7b11f4-f136-433a-ae27-5b7057a77e57" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -798,23 +798,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAF2C0D-9033-40CB-9424-F2C3DB4E4E4E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="7e7b11f4-f136-433a-ae27-5b7057a77e57"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="27bba83f-6ae7-47c8-b9ca-06fda1d18f5e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71701880-739C-45F8-B97A-4352DD1A49F9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -833,6 +816,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAF2C0D-9033-40CB-9424-F2C3DB4E4E4E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="7e7b11f4-f136-433a-ae27-5b7057a77e57"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="27bba83f-6ae7-47c8-b9ca-06fda1d18f5e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D8FA3B1-15A4-45E1-8391-09EE49E18087}">
   <ds:schemaRefs>

--- a/src/assets/template/disbursement-template.xlsx
+++ b/src/assets/template/disbursement-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AbhinavPandey\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\NFGI\src\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C77817-18C2-433D-9930-C1A5B159AAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3184B4-E313-4CBD-89CA-C1EE0D623883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4C4C0623-694F-4BD1-BD7D-346FF2C0CE84}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4C4C0623-694F-4BD1-BD7D-346FF2C0CE84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,13 +47,13 @@
     <t>Sr_No</t>
   </si>
   <si>
-    <t>Membership_ID</t>
-  </si>
-  <si>
     <t>Loan_Amount</t>
   </si>
   <si>
     <t>Loan_Start_Date</t>
+  </si>
+  <si>
+    <t>Membership_Name</t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -465,13 +465,13 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -781,20 +781,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="7e7b11f4-f136-433a-ae27-5b7057a77e57" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="7e7b11f4-f136-433a-ae27-5b7057a77e57" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -817,6 +817,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D8FA3B1-15A4-45E1-8391-09EE49E18087}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAF2C0D-9033-40CB-9424-F2C3DB4E4E4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="7e7b11f4-f136-433a-ae27-5b7057a77e57"/>
@@ -831,12 +839,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D8FA3B1-15A4-45E1-8391-09EE49E18087}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/assets/template/disbursement-template.xlsx
+++ b/src/assets/template/disbursement-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\NFGI\src\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3184B4-E313-4CBD-89CA-C1EE0D623883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F1FE86-2445-4D4C-BE53-B7ACBD888C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4C4C0623-694F-4BD1-BD7D-346FF2C0CE84}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Installment</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Membership_Name</t>
+  </si>
+  <si>
+    <t>Membership_Id</t>
   </si>
 </sst>
 </file>
@@ -445,106 +448,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3528CD0-B88D-41F3-8E62-D9E95297F401}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D8" s="2"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D9" s="2"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="4">
-        <f>SUM(C2:C9)</f>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4">
+        <f>SUM(D2:D9)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4">
-        <f>SUM(E2:E9)</f>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4">
+        <f>SUM(F2:F9)</f>
         <v>0</v>
       </c>
     </row>
@@ -554,6 +570,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008B02D15825F3B9448D0EC7899A8AB0FD" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="76d0a11b0865898e94d60f899162b25d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7e7b11f4-f136-433a-ae27-5b7057a77e57" xmlns:ns4="27bba83f-6ae7-47c8-b9ca-06fda1d18f5e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87fda86a1ccdd6891de83b9b7438a915" ns3:_="" ns4:_="">
     <xsd:import namespace="7e7b11f4-f136-433a-ae27-5b7057a77e57"/>
@@ -780,15 +805,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -798,6 +814,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D8FA3B1-15A4-45E1-8391-09EE49E18087}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71701880-739C-45F8-B97A-4352DD1A49F9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -816,14 +840,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D8FA3B1-15A4-45E1-8391-09EE49E18087}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAF2C0D-9033-40CB-9424-F2C3DB4E4E4E}">
   <ds:schemaRefs>

--- a/src/assets/template/disbursement-template.xlsx
+++ b/src/assets/template/disbursement-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\NFGI\src\assets\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Practice\export_project\NFGI_FE\src\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F1FE86-2445-4D4C-BE53-B7ACBD888C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46FEEE7-2E6E-4701-932B-C9D4FC194431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4C4C0623-694F-4BD1-BD7D-346FF2C0CE84}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4C4C0623-694F-4BD1-BD7D-346FF2C0CE84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -451,14 +451,14 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" customWidth="1"/>
     <col min="4" max="4" width="17.88671875" customWidth="1"/>
     <col min="5" max="5" width="19.21875" customWidth="1"/>
     <col min="6" max="6" width="16.21875" customWidth="1"/>
@@ -570,15 +570,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008B02D15825F3B9448D0EC7899A8AB0FD" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="76d0a11b0865898e94d60f899162b25d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7e7b11f4-f136-433a-ae27-5b7057a77e57" xmlns:ns4="27bba83f-6ae7-47c8-b9ca-06fda1d18f5e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87fda86a1ccdd6891de83b9b7438a915" ns3:_="" ns4:_="">
     <xsd:import namespace="7e7b11f4-f136-433a-ae27-5b7057a77e57"/>
@@ -805,6 +796,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -814,14 +814,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D8FA3B1-15A4-45E1-8391-09EE49E18087}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71701880-739C-45F8-B97A-4352DD1A49F9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -840,6 +832,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D8FA3B1-15A4-45E1-8391-09EE49E18087}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAF2C0D-9033-40CB-9424-F2C3DB4E4E4E}">
   <ds:schemaRefs>

--- a/src/assets/template/disbursement-template.xlsx
+++ b/src/assets/template/disbursement-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Practice\export_project\NFGI_FE\src\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46FEEE7-2E6E-4701-932B-C9D4FC194431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453C8EBD-047B-4C63-ADA8-A8A1CCC39A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4C4C0623-694F-4BD1-BD7D-346FF2C0CE84}"/>
   </bookViews>
@@ -100,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -112,6 +112,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -448,16 +451,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3528CD0-B88D-41F3-8E62-D9E95297F401}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F1142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
     <col min="3" max="3" width="24.5546875" customWidth="1"/>
     <col min="4" max="4" width="17.88671875" customWidth="1"/>
     <col min="5" max="5" width="19.21875" customWidth="1"/>
@@ -486,7 +489,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+      <c r="B2" s="5"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
@@ -494,7 +497,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="B3" s="5"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
@@ -502,7 +505,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
@@ -510,7 +513,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
@@ -518,7 +521,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
@@ -526,7 +529,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="3"/>
@@ -534,7 +537,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
@@ -542,7 +545,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
@@ -552,17 +555,4535 @@
       <c r="A10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4">
         <f>SUM(D2:D9)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="3"/>
       <c r="F10" s="4">
         <f>SUM(F2:F9)</f>
         <v>0</v>
       </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="5"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="5"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="5"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="5"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="5"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="5"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="5"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="5"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="5"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="5"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="5"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="5"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="5"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="5"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="5"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="5"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="5"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="5"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="5"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="5"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="5"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="5"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="5"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="5"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="5"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="5"/>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="5"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="5"/>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="5"/>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="5"/>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="5"/>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="5"/>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="5"/>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="5"/>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="5"/>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B46" s="5"/>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B47" s="5"/>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B48" s="5"/>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B49" s="5"/>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B50" s="5"/>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B51" s="5"/>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B52" s="5"/>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B53" s="5"/>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B54" s="5"/>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B55" s="5"/>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B56" s="5"/>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B57" s="5"/>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B58" s="5"/>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B59" s="5"/>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B60" s="5"/>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B61" s="5"/>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B62" s="5"/>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B63" s="5"/>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B64" s="5"/>
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B65" s="5"/>
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B66" s="5"/>
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B67" s="5"/>
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B68" s="5"/>
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B69" s="5"/>
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B70" s="5"/>
+      <c r="E70" s="3"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B71" s="5"/>
+      <c r="E71" s="3"/>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B72" s="5"/>
+      <c r="E72" s="3"/>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B73" s="5"/>
+      <c r="E73" s="3"/>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B74" s="5"/>
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B75" s="5"/>
+      <c r="E75" s="3"/>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B76" s="5"/>
+      <c r="E76" s="3"/>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B77" s="5"/>
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B78" s="5"/>
+      <c r="E78" s="3"/>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B79" s="5"/>
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B80" s="5"/>
+      <c r="E80" s="3"/>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B81" s="5"/>
+      <c r="E81" s="3"/>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B82" s="5"/>
+      <c r="E82" s="3"/>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B83" s="5"/>
+      <c r="E83" s="3"/>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B84" s="5"/>
+      <c r="E84" s="3"/>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B85" s="5"/>
+      <c r="E85" s="3"/>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B86" s="5"/>
+      <c r="E86" s="3"/>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B87" s="5"/>
+      <c r="E87" s="3"/>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B88" s="5"/>
+      <c r="E88" s="3"/>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B89" s="5"/>
+      <c r="E89" s="3"/>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B90" s="5"/>
+      <c r="E90" s="3"/>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B91" s="5"/>
+      <c r="E91" s="3"/>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B92" s="5"/>
+      <c r="E92" s="3"/>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B93" s="5"/>
+      <c r="E93" s="3"/>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B94" s="5"/>
+      <c r="E94" s="3"/>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B95" s="5"/>
+      <c r="E95" s="3"/>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B96" s="5"/>
+      <c r="E96" s="3"/>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B97" s="5"/>
+      <c r="E97" s="3"/>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B98" s="5"/>
+      <c r="E98" s="3"/>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B99" s="5"/>
+      <c r="E99" s="3"/>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B100" s="5"/>
+      <c r="E100" s="3"/>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B101" s="5"/>
+      <c r="E101" s="3"/>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B102" s="5"/>
+      <c r="E102" s="3"/>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B103" s="5"/>
+      <c r="E103" s="3"/>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B104" s="5"/>
+      <c r="E104" s="3"/>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B105" s="5"/>
+      <c r="E105" s="3"/>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B106" s="5"/>
+      <c r="E106" s="3"/>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B107" s="5"/>
+      <c r="E107" s="3"/>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B108" s="5"/>
+      <c r="E108" s="3"/>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B109" s="5"/>
+      <c r="E109" s="3"/>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B110" s="5"/>
+      <c r="E110" s="3"/>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B111" s="5"/>
+      <c r="E111" s="3"/>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B112" s="5"/>
+      <c r="E112" s="3"/>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B113" s="5"/>
+      <c r="E113" s="3"/>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B114" s="5"/>
+      <c r="E114" s="3"/>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B115" s="5"/>
+      <c r="E115" s="3"/>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B116" s="5"/>
+      <c r="E116" s="3"/>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B117" s="5"/>
+      <c r="E117" s="3"/>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B118" s="5"/>
+      <c r="E118" s="3"/>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B119" s="5"/>
+      <c r="E119" s="3"/>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B120" s="5"/>
+      <c r="E120" s="3"/>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B121" s="5"/>
+      <c r="E121" s="3"/>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B122" s="5"/>
+      <c r="E122" s="3"/>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B123" s="5"/>
+      <c r="E123" s="3"/>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B124" s="5"/>
+      <c r="E124" s="3"/>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B125" s="5"/>
+      <c r="E125" s="3"/>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B126" s="5"/>
+      <c r="E126" s="3"/>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B127" s="5"/>
+      <c r="E127" s="3"/>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B128" s="5"/>
+      <c r="E128" s="3"/>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B129" s="5"/>
+      <c r="E129" s="3"/>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B130" s="5"/>
+      <c r="E130" s="3"/>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B131" s="5"/>
+      <c r="E131" s="3"/>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B132" s="5"/>
+      <c r="E132" s="3"/>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B133" s="5"/>
+      <c r="E133" s="3"/>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B134" s="5"/>
+      <c r="E134" s="3"/>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B135" s="5"/>
+      <c r="E135" s="3"/>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B136" s="5"/>
+      <c r="E136" s="3"/>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B137" s="5"/>
+      <c r="E137" s="3"/>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B138" s="5"/>
+      <c r="E138" s="3"/>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B139" s="5"/>
+      <c r="E139" s="3"/>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B140" s="5"/>
+      <c r="E140" s="3"/>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B141" s="5"/>
+      <c r="E141" s="3"/>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B142" s="5"/>
+      <c r="E142" s="3"/>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B143" s="5"/>
+      <c r="E143" s="3"/>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B144" s="5"/>
+      <c r="E144" s="3"/>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B145" s="5"/>
+      <c r="E145" s="3"/>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B146" s="5"/>
+      <c r="E146" s="3"/>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B147" s="5"/>
+      <c r="E147" s="3"/>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B148" s="5"/>
+      <c r="E148" s="3"/>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B149" s="5"/>
+      <c r="E149" s="3"/>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B150" s="5"/>
+      <c r="E150" s="3"/>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B151" s="5"/>
+      <c r="E151" s="3"/>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B152" s="5"/>
+      <c r="E152" s="3"/>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B153" s="5"/>
+      <c r="E153" s="3"/>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B154" s="5"/>
+      <c r="E154" s="3"/>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B155" s="5"/>
+      <c r="E155" s="3"/>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B156" s="5"/>
+      <c r="E156" s="3"/>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B157" s="5"/>
+      <c r="E157" s="3"/>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B158" s="5"/>
+      <c r="E158" s="3"/>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B159" s="5"/>
+      <c r="E159" s="3"/>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B160" s="5"/>
+      <c r="E160" s="3"/>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B161" s="5"/>
+      <c r="E161" s="3"/>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B162" s="5"/>
+      <c r="E162" s="3"/>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B163" s="5"/>
+      <c r="E163" s="3"/>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B164" s="5"/>
+      <c r="E164" s="3"/>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B165" s="5"/>
+      <c r="E165" s="3"/>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B166" s="5"/>
+      <c r="E166" s="3"/>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B167" s="5"/>
+      <c r="E167" s="3"/>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B168" s="5"/>
+      <c r="E168" s="3"/>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B169" s="5"/>
+      <c r="E169" s="3"/>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B170" s="5"/>
+      <c r="E170" s="3"/>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B171" s="5"/>
+      <c r="E171" s="3"/>
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B172" s="5"/>
+      <c r="E172" s="3"/>
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B173" s="5"/>
+      <c r="E173" s="3"/>
+    </row>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B174" s="5"/>
+      <c r="E174" s="3"/>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B175" s="5"/>
+      <c r="E175" s="3"/>
+    </row>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B176" s="5"/>
+      <c r="E176" s="3"/>
+    </row>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B177" s="5"/>
+      <c r="E177" s="3"/>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B178" s="5"/>
+      <c r="E178" s="3"/>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B179" s="5"/>
+      <c r="E179" s="3"/>
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B180" s="5"/>
+      <c r="E180" s="3"/>
+    </row>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B181" s="5"/>
+      <c r="E181" s="3"/>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B182" s="5"/>
+      <c r="E182" s="3"/>
+    </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B183" s="5"/>
+      <c r="E183" s="3"/>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B184" s="5"/>
+      <c r="E184" s="3"/>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B185" s="5"/>
+      <c r="E185" s="3"/>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B186" s="5"/>
+      <c r="E186" s="3"/>
+    </row>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B187" s="5"/>
+      <c r="E187" s="3"/>
+    </row>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B188" s="5"/>
+      <c r="E188" s="3"/>
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B189" s="5"/>
+      <c r="E189" s="3"/>
+    </row>
+    <row r="190" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B190" s="5"/>
+      <c r="E190" s="3"/>
+    </row>
+    <row r="191" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B191" s="5"/>
+      <c r="E191" s="3"/>
+    </row>
+    <row r="192" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B192" s="5"/>
+      <c r="E192" s="3"/>
+    </row>
+    <row r="193" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B193" s="5"/>
+      <c r="E193" s="3"/>
+    </row>
+    <row r="194" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B194" s="5"/>
+      <c r="E194" s="3"/>
+    </row>
+    <row r="195" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B195" s="5"/>
+      <c r="E195" s="3"/>
+    </row>
+    <row r="196" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B196" s="5"/>
+      <c r="E196" s="3"/>
+    </row>
+    <row r="197" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B197" s="5"/>
+      <c r="E197" s="3"/>
+    </row>
+    <row r="198" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B198" s="5"/>
+      <c r="E198" s="3"/>
+    </row>
+    <row r="199" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B199" s="5"/>
+      <c r="E199" s="3"/>
+    </row>
+    <row r="200" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B200" s="5"/>
+      <c r="E200" s="3"/>
+    </row>
+    <row r="201" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B201" s="5"/>
+      <c r="E201" s="3"/>
+    </row>
+    <row r="202" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B202" s="5"/>
+      <c r="E202" s="3"/>
+    </row>
+    <row r="203" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B203" s="5"/>
+      <c r="E203" s="3"/>
+    </row>
+    <row r="204" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B204" s="5"/>
+      <c r="E204" s="3"/>
+    </row>
+    <row r="205" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B205" s="5"/>
+      <c r="E205" s="3"/>
+    </row>
+    <row r="206" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B206" s="5"/>
+      <c r="E206" s="3"/>
+    </row>
+    <row r="207" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B207" s="5"/>
+      <c r="E207" s="3"/>
+    </row>
+    <row r="208" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B208" s="5"/>
+      <c r="E208" s="3"/>
+    </row>
+    <row r="209" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B209" s="5"/>
+      <c r="E209" s="3"/>
+    </row>
+    <row r="210" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B210" s="5"/>
+      <c r="E210" s="3"/>
+    </row>
+    <row r="211" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B211" s="5"/>
+      <c r="E211" s="3"/>
+    </row>
+    <row r="212" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B212" s="5"/>
+      <c r="E212" s="3"/>
+    </row>
+    <row r="213" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B213" s="5"/>
+      <c r="E213" s="3"/>
+    </row>
+    <row r="214" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B214" s="5"/>
+      <c r="E214" s="3"/>
+    </row>
+    <row r="215" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B215" s="5"/>
+      <c r="E215" s="3"/>
+    </row>
+    <row r="216" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B216" s="5"/>
+      <c r="E216" s="3"/>
+    </row>
+    <row r="217" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B217" s="5"/>
+      <c r="E217" s="3"/>
+    </row>
+    <row r="218" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B218" s="5"/>
+      <c r="E218" s="3"/>
+    </row>
+    <row r="219" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B219" s="5"/>
+      <c r="E219" s="3"/>
+    </row>
+    <row r="220" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B220" s="5"/>
+      <c r="E220" s="3"/>
+    </row>
+    <row r="221" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B221" s="5"/>
+      <c r="E221" s="3"/>
+    </row>
+    <row r="222" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B222" s="5"/>
+      <c r="E222" s="3"/>
+    </row>
+    <row r="223" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B223" s="5"/>
+      <c r="E223" s="3"/>
+    </row>
+    <row r="224" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B224" s="5"/>
+      <c r="E224" s="3"/>
+    </row>
+    <row r="225" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B225" s="5"/>
+      <c r="E225" s="3"/>
+    </row>
+    <row r="226" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B226" s="5"/>
+      <c r="E226" s="3"/>
+    </row>
+    <row r="227" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B227" s="5"/>
+      <c r="E227" s="3"/>
+    </row>
+    <row r="228" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B228" s="5"/>
+      <c r="E228" s="3"/>
+    </row>
+    <row r="229" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B229" s="5"/>
+      <c r="E229" s="3"/>
+    </row>
+    <row r="230" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B230" s="5"/>
+      <c r="E230" s="3"/>
+    </row>
+    <row r="231" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B231" s="5"/>
+      <c r="E231" s="3"/>
+    </row>
+    <row r="232" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B232" s="5"/>
+      <c r="E232" s="3"/>
+    </row>
+    <row r="233" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B233" s="5"/>
+      <c r="E233" s="3"/>
+    </row>
+    <row r="234" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B234" s="5"/>
+      <c r="E234" s="3"/>
+    </row>
+    <row r="235" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B235" s="5"/>
+      <c r="E235" s="3"/>
+    </row>
+    <row r="236" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B236" s="5"/>
+      <c r="E236" s="3"/>
+    </row>
+    <row r="237" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B237" s="5"/>
+      <c r="E237" s="3"/>
+    </row>
+    <row r="238" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B238" s="5"/>
+      <c r="E238" s="3"/>
+    </row>
+    <row r="239" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B239" s="5"/>
+      <c r="E239" s="3"/>
+    </row>
+    <row r="240" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B240" s="5"/>
+      <c r="E240" s="3"/>
+    </row>
+    <row r="241" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B241" s="5"/>
+      <c r="E241" s="3"/>
+    </row>
+    <row r="242" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B242" s="5"/>
+      <c r="E242" s="3"/>
+    </row>
+    <row r="243" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B243" s="5"/>
+      <c r="E243" s="3"/>
+    </row>
+    <row r="244" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B244" s="5"/>
+      <c r="E244" s="3"/>
+    </row>
+    <row r="245" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B245" s="5"/>
+      <c r="E245" s="3"/>
+    </row>
+    <row r="246" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B246" s="5"/>
+      <c r="E246" s="3"/>
+    </row>
+    <row r="247" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B247" s="5"/>
+      <c r="E247" s="3"/>
+    </row>
+    <row r="248" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B248" s="5"/>
+      <c r="E248" s="3"/>
+    </row>
+    <row r="249" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B249" s="5"/>
+      <c r="E249" s="3"/>
+    </row>
+    <row r="250" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B250" s="5"/>
+      <c r="E250" s="3"/>
+    </row>
+    <row r="251" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B251" s="5"/>
+      <c r="E251" s="3"/>
+    </row>
+    <row r="252" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B252" s="5"/>
+      <c r="E252" s="3"/>
+    </row>
+    <row r="253" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B253" s="5"/>
+      <c r="E253" s="3"/>
+    </row>
+    <row r="254" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B254" s="5"/>
+      <c r="E254" s="3"/>
+    </row>
+    <row r="255" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B255" s="5"/>
+      <c r="E255" s="3"/>
+    </row>
+    <row r="256" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B256" s="5"/>
+      <c r="E256" s="3"/>
+    </row>
+    <row r="257" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B257" s="5"/>
+      <c r="E257" s="3"/>
+    </row>
+    <row r="258" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B258" s="5"/>
+      <c r="E258" s="3"/>
+    </row>
+    <row r="259" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B259" s="5"/>
+      <c r="E259" s="3"/>
+    </row>
+    <row r="260" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B260" s="5"/>
+      <c r="E260" s="3"/>
+    </row>
+    <row r="261" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B261" s="5"/>
+      <c r="E261" s="3"/>
+    </row>
+    <row r="262" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B262" s="5"/>
+      <c r="E262" s="3"/>
+    </row>
+    <row r="263" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B263" s="5"/>
+      <c r="E263" s="3"/>
+    </row>
+    <row r="264" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B264" s="5"/>
+      <c r="E264" s="3"/>
+    </row>
+    <row r="265" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B265" s="5"/>
+      <c r="E265" s="3"/>
+    </row>
+    <row r="266" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B266" s="5"/>
+      <c r="E266" s="3"/>
+    </row>
+    <row r="267" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B267" s="5"/>
+      <c r="E267" s="3"/>
+    </row>
+    <row r="268" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B268" s="5"/>
+      <c r="E268" s="3"/>
+    </row>
+    <row r="269" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B269" s="5"/>
+      <c r="E269" s="3"/>
+    </row>
+    <row r="270" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B270" s="5"/>
+      <c r="E270" s="3"/>
+    </row>
+    <row r="271" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B271" s="5"/>
+      <c r="E271" s="3"/>
+    </row>
+    <row r="272" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B272" s="5"/>
+      <c r="E272" s="3"/>
+    </row>
+    <row r="273" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B273" s="5"/>
+      <c r="E273" s="3"/>
+    </row>
+    <row r="274" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B274" s="5"/>
+      <c r="E274" s="3"/>
+    </row>
+    <row r="275" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B275" s="5"/>
+      <c r="E275" s="3"/>
+    </row>
+    <row r="276" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B276" s="5"/>
+      <c r="E276" s="3"/>
+    </row>
+    <row r="277" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B277" s="5"/>
+      <c r="E277" s="3"/>
+    </row>
+    <row r="278" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B278" s="5"/>
+      <c r="E278" s="3"/>
+    </row>
+    <row r="279" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B279" s="5"/>
+      <c r="E279" s="3"/>
+    </row>
+    <row r="280" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B280" s="5"/>
+      <c r="E280" s="3"/>
+    </row>
+    <row r="281" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B281" s="5"/>
+      <c r="E281" s="3"/>
+    </row>
+    <row r="282" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B282" s="5"/>
+      <c r="E282" s="3"/>
+    </row>
+    <row r="283" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B283" s="5"/>
+      <c r="E283" s="3"/>
+    </row>
+    <row r="284" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B284" s="5"/>
+      <c r="E284" s="3"/>
+    </row>
+    <row r="285" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B285" s="5"/>
+      <c r="E285" s="3"/>
+    </row>
+    <row r="286" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B286" s="5"/>
+      <c r="E286" s="3"/>
+    </row>
+    <row r="287" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B287" s="5"/>
+      <c r="E287" s="3"/>
+    </row>
+    <row r="288" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B288" s="5"/>
+      <c r="E288" s="3"/>
+    </row>
+    <row r="289" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B289" s="5"/>
+      <c r="E289" s="3"/>
+    </row>
+    <row r="290" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B290" s="5"/>
+      <c r="E290" s="3"/>
+    </row>
+    <row r="291" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B291" s="5"/>
+      <c r="E291" s="3"/>
+    </row>
+    <row r="292" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B292" s="5"/>
+      <c r="E292" s="3"/>
+    </row>
+    <row r="293" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B293" s="5"/>
+      <c r="E293" s="3"/>
+    </row>
+    <row r="294" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B294" s="5"/>
+      <c r="E294" s="3"/>
+    </row>
+    <row r="295" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B295" s="5"/>
+      <c r="E295" s="3"/>
+    </row>
+    <row r="296" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B296" s="5"/>
+      <c r="E296" s="3"/>
+    </row>
+    <row r="297" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B297" s="5"/>
+      <c r="E297" s="3"/>
+    </row>
+    <row r="298" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B298" s="5"/>
+      <c r="E298" s="3"/>
+    </row>
+    <row r="299" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B299" s="5"/>
+      <c r="E299" s="3"/>
+    </row>
+    <row r="300" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B300" s="5"/>
+      <c r="E300" s="3"/>
+    </row>
+    <row r="301" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B301" s="5"/>
+      <c r="E301" s="3"/>
+    </row>
+    <row r="302" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B302" s="5"/>
+      <c r="E302" s="3"/>
+    </row>
+    <row r="303" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B303" s="5"/>
+      <c r="E303" s="3"/>
+    </row>
+    <row r="304" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B304" s="5"/>
+      <c r="E304" s="3"/>
+    </row>
+    <row r="305" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B305" s="5"/>
+      <c r="E305" s="3"/>
+    </row>
+    <row r="306" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B306" s="5"/>
+      <c r="E306" s="3"/>
+    </row>
+    <row r="307" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B307" s="5"/>
+      <c r="E307" s="3"/>
+    </row>
+    <row r="308" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B308" s="5"/>
+      <c r="E308" s="3"/>
+    </row>
+    <row r="309" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B309" s="5"/>
+      <c r="E309" s="3"/>
+    </row>
+    <row r="310" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B310" s="5"/>
+      <c r="E310" s="3"/>
+    </row>
+    <row r="311" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B311" s="5"/>
+      <c r="E311" s="3"/>
+    </row>
+    <row r="312" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B312" s="5"/>
+      <c r="E312" s="3"/>
+    </row>
+    <row r="313" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B313" s="5"/>
+      <c r="E313" s="3"/>
+    </row>
+    <row r="314" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B314" s="5"/>
+      <c r="E314" s="3"/>
+    </row>
+    <row r="315" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B315" s="5"/>
+      <c r="E315" s="3"/>
+    </row>
+    <row r="316" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B316" s="5"/>
+      <c r="E316" s="3"/>
+    </row>
+    <row r="317" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B317" s="5"/>
+      <c r="E317" s="3"/>
+    </row>
+    <row r="318" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B318" s="5"/>
+      <c r="E318" s="3"/>
+    </row>
+    <row r="319" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B319" s="5"/>
+      <c r="E319" s="3"/>
+    </row>
+    <row r="320" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B320" s="5"/>
+      <c r="E320" s="3"/>
+    </row>
+    <row r="321" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B321" s="5"/>
+      <c r="E321" s="3"/>
+    </row>
+    <row r="322" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B322" s="5"/>
+      <c r="E322" s="3"/>
+    </row>
+    <row r="323" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B323" s="5"/>
+      <c r="E323" s="3"/>
+    </row>
+    <row r="324" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B324" s="5"/>
+      <c r="E324" s="3"/>
+    </row>
+    <row r="325" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B325" s="5"/>
+      <c r="E325" s="3"/>
+    </row>
+    <row r="326" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B326" s="5"/>
+      <c r="E326" s="3"/>
+    </row>
+    <row r="327" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B327" s="5"/>
+      <c r="E327" s="3"/>
+    </row>
+    <row r="328" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B328" s="5"/>
+      <c r="E328" s="3"/>
+    </row>
+    <row r="329" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B329" s="5"/>
+      <c r="E329" s="3"/>
+    </row>
+    <row r="330" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B330" s="5"/>
+      <c r="E330" s="3"/>
+    </row>
+    <row r="331" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B331" s="5"/>
+      <c r="E331" s="3"/>
+    </row>
+    <row r="332" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B332" s="5"/>
+      <c r="E332" s="3"/>
+    </row>
+    <row r="333" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B333" s="5"/>
+      <c r="E333" s="3"/>
+    </row>
+    <row r="334" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B334" s="5"/>
+      <c r="E334" s="3"/>
+    </row>
+    <row r="335" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B335" s="5"/>
+      <c r="E335" s="3"/>
+    </row>
+    <row r="336" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B336" s="5"/>
+      <c r="E336" s="3"/>
+    </row>
+    <row r="337" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B337" s="5"/>
+      <c r="E337" s="3"/>
+    </row>
+    <row r="338" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B338" s="5"/>
+      <c r="E338" s="3"/>
+    </row>
+    <row r="339" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B339" s="5"/>
+      <c r="E339" s="3"/>
+    </row>
+    <row r="340" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B340" s="5"/>
+      <c r="E340" s="3"/>
+    </row>
+    <row r="341" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B341" s="5"/>
+      <c r="E341" s="3"/>
+    </row>
+    <row r="342" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B342" s="5"/>
+      <c r="E342" s="3"/>
+    </row>
+    <row r="343" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B343" s="5"/>
+      <c r="E343" s="3"/>
+    </row>
+    <row r="344" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B344" s="5"/>
+      <c r="E344" s="3"/>
+    </row>
+    <row r="345" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B345" s="5"/>
+      <c r="E345" s="3"/>
+    </row>
+    <row r="346" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B346" s="5"/>
+      <c r="E346" s="3"/>
+    </row>
+    <row r="347" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B347" s="5"/>
+      <c r="E347" s="3"/>
+    </row>
+    <row r="348" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B348" s="5"/>
+      <c r="E348" s="3"/>
+    </row>
+    <row r="349" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B349" s="5"/>
+      <c r="E349" s="3"/>
+    </row>
+    <row r="350" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B350" s="5"/>
+      <c r="E350" s="3"/>
+    </row>
+    <row r="351" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B351" s="5"/>
+      <c r="E351" s="3"/>
+    </row>
+    <row r="352" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B352" s="5"/>
+      <c r="E352" s="3"/>
+    </row>
+    <row r="353" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B353" s="5"/>
+      <c r="E353" s="3"/>
+    </row>
+    <row r="354" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B354" s="5"/>
+      <c r="E354" s="3"/>
+    </row>
+    <row r="355" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B355" s="5"/>
+      <c r="E355" s="3"/>
+    </row>
+    <row r="356" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B356" s="5"/>
+      <c r="E356" s="3"/>
+    </row>
+    <row r="357" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B357" s="5"/>
+      <c r="E357" s="3"/>
+    </row>
+    <row r="358" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B358" s="5"/>
+      <c r="E358" s="3"/>
+    </row>
+    <row r="359" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B359" s="5"/>
+      <c r="E359" s="3"/>
+    </row>
+    <row r="360" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B360" s="5"/>
+      <c r="E360" s="3"/>
+    </row>
+    <row r="361" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B361" s="5"/>
+      <c r="E361" s="3"/>
+    </row>
+    <row r="362" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B362" s="5"/>
+      <c r="E362" s="3"/>
+    </row>
+    <row r="363" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B363" s="5"/>
+      <c r="E363" s="3"/>
+    </row>
+    <row r="364" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B364" s="5"/>
+      <c r="E364" s="3"/>
+    </row>
+    <row r="365" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B365" s="5"/>
+      <c r="E365" s="3"/>
+    </row>
+    <row r="366" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B366" s="5"/>
+      <c r="E366" s="3"/>
+    </row>
+    <row r="367" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B367" s="5"/>
+      <c r="E367" s="3"/>
+    </row>
+    <row r="368" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B368" s="5"/>
+      <c r="E368" s="3"/>
+    </row>
+    <row r="369" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B369" s="5"/>
+      <c r="E369" s="3"/>
+    </row>
+    <row r="370" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B370" s="5"/>
+      <c r="E370" s="3"/>
+    </row>
+    <row r="371" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B371" s="5"/>
+      <c r="E371" s="3"/>
+    </row>
+    <row r="372" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B372" s="5"/>
+      <c r="E372" s="3"/>
+    </row>
+    <row r="373" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B373" s="5"/>
+      <c r="E373" s="3"/>
+    </row>
+    <row r="374" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B374" s="5"/>
+      <c r="E374" s="3"/>
+    </row>
+    <row r="375" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B375" s="5"/>
+      <c r="E375" s="3"/>
+    </row>
+    <row r="376" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B376" s="5"/>
+      <c r="E376" s="3"/>
+    </row>
+    <row r="377" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B377" s="5"/>
+      <c r="E377" s="3"/>
+    </row>
+    <row r="378" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B378" s="5"/>
+      <c r="E378" s="3"/>
+    </row>
+    <row r="379" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B379" s="5"/>
+      <c r="E379" s="3"/>
+    </row>
+    <row r="380" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B380" s="5"/>
+      <c r="E380" s="3"/>
+    </row>
+    <row r="381" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B381" s="5"/>
+      <c r="E381" s="3"/>
+    </row>
+    <row r="382" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B382" s="5"/>
+      <c r="E382" s="3"/>
+    </row>
+    <row r="383" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B383" s="5"/>
+      <c r="E383" s="3"/>
+    </row>
+    <row r="384" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B384" s="5"/>
+      <c r="E384" s="3"/>
+    </row>
+    <row r="385" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B385" s="5"/>
+      <c r="E385" s="3"/>
+    </row>
+    <row r="386" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B386" s="5"/>
+      <c r="E386" s="3"/>
+    </row>
+    <row r="387" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B387" s="5"/>
+      <c r="E387" s="3"/>
+    </row>
+    <row r="388" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B388" s="5"/>
+      <c r="E388" s="3"/>
+    </row>
+    <row r="389" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B389" s="5"/>
+      <c r="E389" s="3"/>
+    </row>
+    <row r="390" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B390" s="5"/>
+      <c r="E390" s="3"/>
+    </row>
+    <row r="391" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B391" s="5"/>
+      <c r="E391" s="3"/>
+    </row>
+    <row r="392" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B392" s="5"/>
+      <c r="E392" s="3"/>
+    </row>
+    <row r="393" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B393" s="5"/>
+      <c r="E393" s="3"/>
+    </row>
+    <row r="394" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B394" s="5"/>
+      <c r="E394" s="3"/>
+    </row>
+    <row r="395" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B395" s="5"/>
+      <c r="E395" s="3"/>
+    </row>
+    <row r="396" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B396" s="5"/>
+      <c r="E396" s="3"/>
+    </row>
+    <row r="397" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B397" s="5"/>
+      <c r="E397" s="3"/>
+    </row>
+    <row r="398" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B398" s="5"/>
+      <c r="E398" s="3"/>
+    </row>
+    <row r="399" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B399" s="5"/>
+      <c r="E399" s="3"/>
+    </row>
+    <row r="400" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B400" s="5"/>
+      <c r="E400" s="3"/>
+    </row>
+    <row r="401" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B401" s="5"/>
+      <c r="E401" s="3"/>
+    </row>
+    <row r="402" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B402" s="5"/>
+      <c r="E402" s="3"/>
+    </row>
+    <row r="403" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B403" s="5"/>
+      <c r="E403" s="3"/>
+    </row>
+    <row r="404" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B404" s="5"/>
+      <c r="E404" s="3"/>
+    </row>
+    <row r="405" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B405" s="5"/>
+      <c r="E405" s="3"/>
+    </row>
+    <row r="406" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B406" s="5"/>
+      <c r="E406" s="3"/>
+    </row>
+    <row r="407" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B407" s="5"/>
+      <c r="E407" s="3"/>
+    </row>
+    <row r="408" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B408" s="5"/>
+      <c r="E408" s="3"/>
+    </row>
+    <row r="409" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B409" s="5"/>
+      <c r="E409" s="3"/>
+    </row>
+    <row r="410" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B410" s="5"/>
+      <c r="E410" s="3"/>
+    </row>
+    <row r="411" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B411" s="5"/>
+      <c r="E411" s="3"/>
+    </row>
+    <row r="412" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B412" s="5"/>
+      <c r="E412" s="3"/>
+    </row>
+    <row r="413" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B413" s="5"/>
+      <c r="E413" s="3"/>
+    </row>
+    <row r="414" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B414" s="5"/>
+      <c r="E414" s="3"/>
+    </row>
+    <row r="415" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B415" s="5"/>
+      <c r="E415" s="3"/>
+    </row>
+    <row r="416" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B416" s="5"/>
+      <c r="E416" s="3"/>
+    </row>
+    <row r="417" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B417" s="5"/>
+      <c r="E417" s="3"/>
+    </row>
+    <row r="418" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B418" s="5"/>
+      <c r="E418" s="3"/>
+    </row>
+    <row r="419" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B419" s="5"/>
+      <c r="E419" s="3"/>
+    </row>
+    <row r="420" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B420" s="5"/>
+      <c r="E420" s="3"/>
+    </row>
+    <row r="421" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B421" s="5"/>
+      <c r="E421" s="3"/>
+    </row>
+    <row r="422" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B422" s="5"/>
+      <c r="E422" s="3"/>
+    </row>
+    <row r="423" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B423" s="5"/>
+      <c r="E423" s="3"/>
+    </row>
+    <row r="424" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B424" s="5"/>
+      <c r="E424" s="3"/>
+    </row>
+    <row r="425" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B425" s="5"/>
+      <c r="E425" s="3"/>
+    </row>
+    <row r="426" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B426" s="5"/>
+      <c r="E426" s="3"/>
+    </row>
+    <row r="427" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B427" s="5"/>
+      <c r="E427" s="3"/>
+    </row>
+    <row r="428" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B428" s="5"/>
+      <c r="E428" s="3"/>
+    </row>
+    <row r="429" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B429" s="5"/>
+      <c r="E429" s="3"/>
+    </row>
+    <row r="430" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B430" s="5"/>
+      <c r="E430" s="3"/>
+    </row>
+    <row r="431" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B431" s="5"/>
+      <c r="E431" s="3"/>
+    </row>
+    <row r="432" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B432" s="5"/>
+      <c r="E432" s="3"/>
+    </row>
+    <row r="433" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B433" s="5"/>
+      <c r="E433" s="3"/>
+    </row>
+    <row r="434" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B434" s="5"/>
+      <c r="E434" s="3"/>
+    </row>
+    <row r="435" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B435" s="5"/>
+      <c r="E435" s="3"/>
+    </row>
+    <row r="436" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B436" s="5"/>
+      <c r="E436" s="3"/>
+    </row>
+    <row r="437" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B437" s="5"/>
+      <c r="E437" s="3"/>
+    </row>
+    <row r="438" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B438" s="5"/>
+      <c r="E438" s="3"/>
+    </row>
+    <row r="439" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B439" s="5"/>
+      <c r="E439" s="3"/>
+    </row>
+    <row r="440" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B440" s="5"/>
+      <c r="E440" s="3"/>
+    </row>
+    <row r="441" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B441" s="5"/>
+      <c r="E441" s="3"/>
+    </row>
+    <row r="442" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B442" s="5"/>
+      <c r="E442" s="3"/>
+    </row>
+    <row r="443" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B443" s="5"/>
+      <c r="E443" s="3"/>
+    </row>
+    <row r="444" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B444" s="5"/>
+      <c r="E444" s="3"/>
+    </row>
+    <row r="445" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B445" s="5"/>
+      <c r="E445" s="3"/>
+    </row>
+    <row r="446" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B446" s="5"/>
+      <c r="E446" s="3"/>
+    </row>
+    <row r="447" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B447" s="5"/>
+      <c r="E447" s="3"/>
+    </row>
+    <row r="448" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B448" s="5"/>
+      <c r="E448" s="3"/>
+    </row>
+    <row r="449" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B449" s="5"/>
+      <c r="E449" s="3"/>
+    </row>
+    <row r="450" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B450" s="5"/>
+      <c r="E450" s="3"/>
+    </row>
+    <row r="451" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B451" s="5"/>
+      <c r="E451" s="3"/>
+    </row>
+    <row r="452" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B452" s="5"/>
+      <c r="E452" s="3"/>
+    </row>
+    <row r="453" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B453" s="5"/>
+      <c r="E453" s="3"/>
+    </row>
+    <row r="454" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B454" s="5"/>
+      <c r="E454" s="3"/>
+    </row>
+    <row r="455" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B455" s="5"/>
+      <c r="E455" s="3"/>
+    </row>
+    <row r="456" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B456" s="5"/>
+      <c r="E456" s="3"/>
+    </row>
+    <row r="457" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B457" s="5"/>
+      <c r="E457" s="3"/>
+    </row>
+    <row r="458" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B458" s="5"/>
+      <c r="E458" s="3"/>
+    </row>
+    <row r="459" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B459" s="5"/>
+      <c r="E459" s="3"/>
+    </row>
+    <row r="460" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B460" s="5"/>
+      <c r="E460" s="3"/>
+    </row>
+    <row r="461" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B461" s="5"/>
+      <c r="E461" s="3"/>
+    </row>
+    <row r="462" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B462" s="5"/>
+      <c r="E462" s="3"/>
+    </row>
+    <row r="463" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B463" s="5"/>
+      <c r="E463" s="3"/>
+    </row>
+    <row r="464" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B464" s="5"/>
+      <c r="E464" s="3"/>
+    </row>
+    <row r="465" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B465" s="5"/>
+      <c r="E465" s="3"/>
+    </row>
+    <row r="466" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B466" s="5"/>
+      <c r="E466" s="3"/>
+    </row>
+    <row r="467" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B467" s="5"/>
+      <c r="E467" s="3"/>
+    </row>
+    <row r="468" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B468" s="5"/>
+      <c r="E468" s="3"/>
+    </row>
+    <row r="469" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B469" s="5"/>
+      <c r="E469" s="3"/>
+    </row>
+    <row r="470" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B470" s="5"/>
+      <c r="E470" s="3"/>
+    </row>
+    <row r="471" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B471" s="5"/>
+      <c r="E471" s="3"/>
+    </row>
+    <row r="472" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B472" s="5"/>
+      <c r="E472" s="3"/>
+    </row>
+    <row r="473" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B473" s="5"/>
+      <c r="E473" s="3"/>
+    </row>
+    <row r="474" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B474" s="5"/>
+      <c r="E474" s="3"/>
+    </row>
+    <row r="475" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B475" s="5"/>
+      <c r="E475" s="3"/>
+    </row>
+    <row r="476" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B476" s="5"/>
+      <c r="E476" s="3"/>
+    </row>
+    <row r="477" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B477" s="5"/>
+      <c r="E477" s="3"/>
+    </row>
+    <row r="478" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B478" s="5"/>
+      <c r="E478" s="3"/>
+    </row>
+    <row r="479" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B479" s="5"/>
+      <c r="E479" s="3"/>
+    </row>
+    <row r="480" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B480" s="5"/>
+      <c r="E480" s="3"/>
+    </row>
+    <row r="481" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B481" s="5"/>
+      <c r="E481" s="3"/>
+    </row>
+    <row r="482" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B482" s="5"/>
+      <c r="E482" s="3"/>
+    </row>
+    <row r="483" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B483" s="5"/>
+      <c r="E483" s="3"/>
+    </row>
+    <row r="484" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B484" s="5"/>
+      <c r="E484" s="3"/>
+    </row>
+    <row r="485" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B485" s="5"/>
+      <c r="E485" s="3"/>
+    </row>
+    <row r="486" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B486" s="5"/>
+      <c r="E486" s="3"/>
+    </row>
+    <row r="487" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B487" s="5"/>
+      <c r="E487" s="3"/>
+    </row>
+    <row r="488" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B488" s="5"/>
+      <c r="E488" s="3"/>
+    </row>
+    <row r="489" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B489" s="5"/>
+      <c r="E489" s="3"/>
+    </row>
+    <row r="490" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B490" s="5"/>
+      <c r="E490" s="3"/>
+    </row>
+    <row r="491" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B491" s="5"/>
+      <c r="E491" s="3"/>
+    </row>
+    <row r="492" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B492" s="5"/>
+      <c r="E492" s="3"/>
+    </row>
+    <row r="493" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B493" s="5"/>
+      <c r="E493" s="3"/>
+    </row>
+    <row r="494" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B494" s="5"/>
+      <c r="E494" s="3"/>
+    </row>
+    <row r="495" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B495" s="5"/>
+      <c r="E495" s="3"/>
+    </row>
+    <row r="496" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B496" s="5"/>
+      <c r="E496" s="3"/>
+    </row>
+    <row r="497" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B497" s="5"/>
+      <c r="E497" s="3"/>
+    </row>
+    <row r="498" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B498" s="5"/>
+      <c r="E498" s="3"/>
+    </row>
+    <row r="499" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B499" s="5"/>
+      <c r="E499" s="3"/>
+    </row>
+    <row r="500" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B500" s="5"/>
+      <c r="E500" s="3"/>
+    </row>
+    <row r="501" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B501" s="5"/>
+      <c r="E501" s="3"/>
+    </row>
+    <row r="502" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B502" s="5"/>
+      <c r="E502" s="3"/>
+    </row>
+    <row r="503" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B503" s="5"/>
+      <c r="E503" s="3"/>
+    </row>
+    <row r="504" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B504" s="5"/>
+      <c r="E504" s="3"/>
+    </row>
+    <row r="505" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B505" s="5"/>
+      <c r="E505" s="3"/>
+    </row>
+    <row r="506" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B506" s="5"/>
+      <c r="E506" s="3"/>
+    </row>
+    <row r="507" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B507" s="5"/>
+      <c r="E507" s="3"/>
+    </row>
+    <row r="508" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B508" s="5"/>
+      <c r="E508" s="3"/>
+    </row>
+    <row r="509" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B509" s="5"/>
+      <c r="E509" s="3"/>
+    </row>
+    <row r="510" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B510" s="5"/>
+      <c r="E510" s="3"/>
+    </row>
+    <row r="511" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B511" s="5"/>
+      <c r="E511" s="3"/>
+    </row>
+    <row r="512" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B512" s="5"/>
+      <c r="E512" s="3"/>
+    </row>
+    <row r="513" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B513" s="5"/>
+      <c r="E513" s="3"/>
+    </row>
+    <row r="514" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B514" s="5"/>
+      <c r="E514" s="3"/>
+    </row>
+    <row r="515" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B515" s="5"/>
+      <c r="E515" s="3"/>
+    </row>
+    <row r="516" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B516" s="5"/>
+      <c r="E516" s="3"/>
+    </row>
+    <row r="517" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B517" s="5"/>
+      <c r="E517" s="3"/>
+    </row>
+    <row r="518" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B518" s="5"/>
+      <c r="E518" s="3"/>
+    </row>
+    <row r="519" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B519" s="5"/>
+      <c r="E519" s="3"/>
+    </row>
+    <row r="520" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B520" s="5"/>
+      <c r="E520" s="3"/>
+    </row>
+    <row r="521" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B521" s="5"/>
+      <c r="E521" s="3"/>
+    </row>
+    <row r="522" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B522" s="5"/>
+      <c r="E522" s="3"/>
+    </row>
+    <row r="523" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B523" s="5"/>
+      <c r="E523" s="3"/>
+    </row>
+    <row r="524" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B524" s="5"/>
+      <c r="E524" s="3"/>
+    </row>
+    <row r="525" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B525" s="5"/>
+      <c r="E525" s="3"/>
+    </row>
+    <row r="526" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B526" s="5"/>
+      <c r="E526" s="3"/>
+    </row>
+    <row r="527" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B527" s="5"/>
+      <c r="E527" s="3"/>
+    </row>
+    <row r="528" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B528" s="5"/>
+      <c r="E528" s="3"/>
+    </row>
+    <row r="529" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B529" s="5"/>
+      <c r="E529" s="3"/>
+    </row>
+    <row r="530" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B530" s="5"/>
+      <c r="E530" s="3"/>
+    </row>
+    <row r="531" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B531" s="5"/>
+      <c r="E531" s="3"/>
+    </row>
+    <row r="532" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B532" s="5"/>
+      <c r="E532" s="3"/>
+    </row>
+    <row r="533" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B533" s="5"/>
+      <c r="E533" s="3"/>
+    </row>
+    <row r="534" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B534" s="5"/>
+      <c r="E534" s="3"/>
+    </row>
+    <row r="535" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B535" s="5"/>
+      <c r="E535" s="3"/>
+    </row>
+    <row r="536" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B536" s="5"/>
+      <c r="E536" s="3"/>
+    </row>
+    <row r="537" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B537" s="5"/>
+      <c r="E537" s="3"/>
+    </row>
+    <row r="538" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B538" s="5"/>
+      <c r="E538" s="3"/>
+    </row>
+    <row r="539" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B539" s="5"/>
+      <c r="E539" s="3"/>
+    </row>
+    <row r="540" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B540" s="5"/>
+      <c r="E540" s="3"/>
+    </row>
+    <row r="541" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B541" s="5"/>
+      <c r="E541" s="3"/>
+    </row>
+    <row r="542" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B542" s="5"/>
+      <c r="E542" s="3"/>
+    </row>
+    <row r="543" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B543" s="5"/>
+      <c r="E543" s="3"/>
+    </row>
+    <row r="544" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B544" s="5"/>
+      <c r="E544" s="3"/>
+    </row>
+    <row r="545" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B545" s="5"/>
+      <c r="E545" s="3"/>
+    </row>
+    <row r="546" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B546" s="5"/>
+      <c r="E546" s="3"/>
+    </row>
+    <row r="547" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B547" s="5"/>
+      <c r="E547" s="3"/>
+    </row>
+    <row r="548" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B548" s="5"/>
+      <c r="E548" s="3"/>
+    </row>
+    <row r="549" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B549" s="5"/>
+      <c r="E549" s="3"/>
+    </row>
+    <row r="550" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B550" s="5"/>
+      <c r="E550" s="3"/>
+    </row>
+    <row r="551" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B551" s="5"/>
+      <c r="E551" s="3"/>
+    </row>
+    <row r="552" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B552" s="5"/>
+      <c r="E552" s="3"/>
+    </row>
+    <row r="553" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B553" s="5"/>
+      <c r="E553" s="3"/>
+    </row>
+    <row r="554" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B554" s="5"/>
+      <c r="E554" s="3"/>
+    </row>
+    <row r="555" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B555" s="5"/>
+      <c r="E555" s="3"/>
+    </row>
+    <row r="556" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B556" s="5"/>
+      <c r="E556" s="3"/>
+    </row>
+    <row r="557" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B557" s="5"/>
+      <c r="E557" s="3"/>
+    </row>
+    <row r="558" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B558" s="5"/>
+      <c r="E558" s="3"/>
+    </row>
+    <row r="559" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B559" s="5"/>
+      <c r="E559" s="3"/>
+    </row>
+    <row r="560" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B560" s="5"/>
+      <c r="E560" s="3"/>
+    </row>
+    <row r="561" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B561" s="5"/>
+      <c r="E561" s="3"/>
+    </row>
+    <row r="562" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B562" s="5"/>
+      <c r="E562" s="3"/>
+    </row>
+    <row r="563" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B563" s="5"/>
+      <c r="E563" s="3"/>
+    </row>
+    <row r="564" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B564" s="5"/>
+      <c r="E564" s="3"/>
+    </row>
+    <row r="565" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B565" s="5"/>
+      <c r="E565" s="3"/>
+    </row>
+    <row r="566" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B566" s="5"/>
+      <c r="E566" s="3"/>
+    </row>
+    <row r="567" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B567" s="5"/>
+      <c r="E567" s="3"/>
+    </row>
+    <row r="568" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B568" s="5"/>
+      <c r="E568" s="3"/>
+    </row>
+    <row r="569" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B569" s="5"/>
+      <c r="E569" s="3"/>
+    </row>
+    <row r="570" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B570" s="5"/>
+      <c r="E570" s="3"/>
+    </row>
+    <row r="571" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B571" s="5"/>
+      <c r="E571" s="3"/>
+    </row>
+    <row r="572" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B572" s="5"/>
+      <c r="E572" s="3"/>
+    </row>
+    <row r="573" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B573" s="5"/>
+      <c r="E573" s="3"/>
+    </row>
+    <row r="574" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B574" s="5"/>
+      <c r="E574" s="3"/>
+    </row>
+    <row r="575" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B575" s="5"/>
+      <c r="E575" s="3"/>
+    </row>
+    <row r="576" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B576" s="5"/>
+      <c r="E576" s="3"/>
+    </row>
+    <row r="577" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B577" s="5"/>
+      <c r="E577" s="3"/>
+    </row>
+    <row r="578" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B578" s="5"/>
+      <c r="E578" s="3"/>
+    </row>
+    <row r="579" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B579" s="5"/>
+      <c r="E579" s="3"/>
+    </row>
+    <row r="580" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B580" s="5"/>
+      <c r="E580" s="3"/>
+    </row>
+    <row r="581" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B581" s="5"/>
+      <c r="E581" s="3"/>
+    </row>
+    <row r="582" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B582" s="5"/>
+      <c r="E582" s="3"/>
+    </row>
+    <row r="583" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B583" s="5"/>
+      <c r="E583" s="3"/>
+    </row>
+    <row r="584" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B584" s="5"/>
+      <c r="E584" s="3"/>
+    </row>
+    <row r="585" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B585" s="5"/>
+      <c r="E585" s="3"/>
+    </row>
+    <row r="586" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B586" s="5"/>
+      <c r="E586" s="3"/>
+    </row>
+    <row r="587" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B587" s="5"/>
+      <c r="E587" s="3"/>
+    </row>
+    <row r="588" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B588" s="5"/>
+      <c r="E588" s="3"/>
+    </row>
+    <row r="589" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B589" s="5"/>
+      <c r="E589" s="3"/>
+    </row>
+    <row r="590" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B590" s="5"/>
+      <c r="E590" s="3"/>
+    </row>
+    <row r="591" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B591" s="5"/>
+      <c r="E591" s="3"/>
+    </row>
+    <row r="592" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B592" s="5"/>
+      <c r="E592" s="3"/>
+    </row>
+    <row r="593" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B593" s="5"/>
+      <c r="E593" s="3"/>
+    </row>
+    <row r="594" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B594" s="5"/>
+      <c r="E594" s="3"/>
+    </row>
+    <row r="595" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B595" s="5"/>
+      <c r="E595" s="3"/>
+    </row>
+    <row r="596" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B596" s="5"/>
+      <c r="E596" s="3"/>
+    </row>
+    <row r="597" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B597" s="5"/>
+      <c r="E597" s="3"/>
+    </row>
+    <row r="598" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B598" s="5"/>
+      <c r="E598" s="3"/>
+    </row>
+    <row r="599" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B599" s="5"/>
+      <c r="E599" s="3"/>
+    </row>
+    <row r="600" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B600" s="5"/>
+      <c r="E600" s="3"/>
+    </row>
+    <row r="601" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B601" s="5"/>
+      <c r="E601" s="3"/>
+    </row>
+    <row r="602" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B602" s="5"/>
+      <c r="E602" s="3"/>
+    </row>
+    <row r="603" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B603" s="5"/>
+      <c r="E603" s="3"/>
+    </row>
+    <row r="604" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B604" s="5"/>
+      <c r="E604" s="3"/>
+    </row>
+    <row r="605" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B605" s="5"/>
+      <c r="E605" s="3"/>
+    </row>
+    <row r="606" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B606" s="5"/>
+      <c r="E606" s="3"/>
+    </row>
+    <row r="607" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B607" s="5"/>
+      <c r="E607" s="3"/>
+    </row>
+    <row r="608" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B608" s="5"/>
+      <c r="E608" s="3"/>
+    </row>
+    <row r="609" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B609" s="5"/>
+      <c r="E609" s="3"/>
+    </row>
+    <row r="610" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B610" s="5"/>
+      <c r="E610" s="3"/>
+    </row>
+    <row r="611" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B611" s="5"/>
+      <c r="E611" s="3"/>
+    </row>
+    <row r="612" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B612" s="5"/>
+      <c r="E612" s="3"/>
+    </row>
+    <row r="613" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B613" s="5"/>
+      <c r="E613" s="3"/>
+    </row>
+    <row r="614" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B614" s="5"/>
+      <c r="E614" s="3"/>
+    </row>
+    <row r="615" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B615" s="5"/>
+      <c r="E615" s="3"/>
+    </row>
+    <row r="616" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B616" s="5"/>
+      <c r="E616" s="3"/>
+    </row>
+    <row r="617" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B617" s="5"/>
+      <c r="E617" s="3"/>
+    </row>
+    <row r="618" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B618" s="5"/>
+      <c r="E618" s="3"/>
+    </row>
+    <row r="619" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B619" s="5"/>
+      <c r="E619" s="3"/>
+    </row>
+    <row r="620" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B620" s="5"/>
+      <c r="E620" s="3"/>
+    </row>
+    <row r="621" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B621" s="5"/>
+      <c r="E621" s="3"/>
+    </row>
+    <row r="622" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B622" s="5"/>
+      <c r="E622" s="3"/>
+    </row>
+    <row r="623" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B623" s="5"/>
+      <c r="E623" s="3"/>
+    </row>
+    <row r="624" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B624" s="5"/>
+      <c r="E624" s="3"/>
+    </row>
+    <row r="625" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B625" s="5"/>
+      <c r="E625" s="3"/>
+    </row>
+    <row r="626" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B626" s="5"/>
+      <c r="E626" s="3"/>
+    </row>
+    <row r="627" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B627" s="5"/>
+      <c r="E627" s="3"/>
+    </row>
+    <row r="628" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B628" s="5"/>
+      <c r="E628" s="3"/>
+    </row>
+    <row r="629" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B629" s="5"/>
+      <c r="E629" s="3"/>
+    </row>
+    <row r="630" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B630" s="5"/>
+      <c r="E630" s="3"/>
+    </row>
+    <row r="631" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B631" s="5"/>
+      <c r="E631" s="3"/>
+    </row>
+    <row r="632" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B632" s="5"/>
+      <c r="E632" s="3"/>
+    </row>
+    <row r="633" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B633" s="5"/>
+      <c r="E633" s="3"/>
+    </row>
+    <row r="634" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B634" s="5"/>
+      <c r="E634" s="3"/>
+    </row>
+    <row r="635" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B635" s="5"/>
+      <c r="E635" s="3"/>
+    </row>
+    <row r="636" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B636" s="5"/>
+      <c r="E636" s="3"/>
+    </row>
+    <row r="637" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B637" s="5"/>
+      <c r="E637" s="3"/>
+    </row>
+    <row r="638" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B638" s="5"/>
+      <c r="E638" s="3"/>
+    </row>
+    <row r="639" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B639" s="5"/>
+      <c r="E639" s="3"/>
+    </row>
+    <row r="640" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B640" s="5"/>
+      <c r="E640" s="3"/>
+    </row>
+    <row r="641" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B641" s="5"/>
+      <c r="E641" s="3"/>
+    </row>
+    <row r="642" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B642" s="5"/>
+      <c r="E642" s="3"/>
+    </row>
+    <row r="643" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B643" s="5"/>
+      <c r="E643" s="3"/>
+    </row>
+    <row r="644" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B644" s="5"/>
+      <c r="E644" s="3"/>
+    </row>
+    <row r="645" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B645" s="5"/>
+      <c r="E645" s="3"/>
+    </row>
+    <row r="646" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B646" s="5"/>
+      <c r="E646" s="3"/>
+    </row>
+    <row r="647" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B647" s="5"/>
+      <c r="E647" s="3"/>
+    </row>
+    <row r="648" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B648" s="5"/>
+      <c r="E648" s="3"/>
+    </row>
+    <row r="649" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B649" s="5"/>
+      <c r="E649" s="3"/>
+    </row>
+    <row r="650" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B650" s="5"/>
+      <c r="E650" s="3"/>
+    </row>
+    <row r="651" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B651" s="5"/>
+      <c r="E651" s="3"/>
+    </row>
+    <row r="652" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B652" s="5"/>
+      <c r="E652" s="3"/>
+    </row>
+    <row r="653" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B653" s="5"/>
+      <c r="E653" s="3"/>
+    </row>
+    <row r="654" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B654" s="5"/>
+      <c r="E654" s="3"/>
+    </row>
+    <row r="655" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B655" s="5"/>
+      <c r="E655" s="3"/>
+    </row>
+    <row r="656" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B656" s="5"/>
+      <c r="E656" s="3"/>
+    </row>
+    <row r="657" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B657" s="5"/>
+      <c r="E657" s="3"/>
+    </row>
+    <row r="658" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B658" s="5"/>
+      <c r="E658" s="3"/>
+    </row>
+    <row r="659" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B659" s="5"/>
+      <c r="E659" s="3"/>
+    </row>
+    <row r="660" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B660" s="5"/>
+      <c r="E660" s="3"/>
+    </row>
+    <row r="661" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B661" s="5"/>
+      <c r="E661" s="3"/>
+    </row>
+    <row r="662" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B662" s="5"/>
+      <c r="E662" s="3"/>
+    </row>
+    <row r="663" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B663" s="5"/>
+      <c r="E663" s="3"/>
+    </row>
+    <row r="664" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B664" s="5"/>
+      <c r="E664" s="3"/>
+    </row>
+    <row r="665" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B665" s="5"/>
+      <c r="E665" s="3"/>
+    </row>
+    <row r="666" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B666" s="5"/>
+      <c r="E666" s="3"/>
+    </row>
+    <row r="667" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B667" s="5"/>
+      <c r="E667" s="3"/>
+    </row>
+    <row r="668" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B668" s="5"/>
+      <c r="E668" s="3"/>
+    </row>
+    <row r="669" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B669" s="5"/>
+      <c r="E669" s="3"/>
+    </row>
+    <row r="670" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B670" s="5"/>
+      <c r="E670" s="3"/>
+    </row>
+    <row r="671" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B671" s="5"/>
+      <c r="E671" s="3"/>
+    </row>
+    <row r="672" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B672" s="5"/>
+      <c r="E672" s="3"/>
+    </row>
+    <row r="673" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B673" s="5"/>
+      <c r="E673" s="3"/>
+    </row>
+    <row r="674" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B674" s="5"/>
+      <c r="E674" s="3"/>
+    </row>
+    <row r="675" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B675" s="5"/>
+      <c r="E675" s="3"/>
+    </row>
+    <row r="676" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B676" s="5"/>
+      <c r="E676" s="3"/>
+    </row>
+    <row r="677" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B677" s="5"/>
+      <c r="E677" s="3"/>
+    </row>
+    <row r="678" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B678" s="5"/>
+      <c r="E678" s="3"/>
+    </row>
+    <row r="679" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B679" s="5"/>
+      <c r="E679" s="3"/>
+    </row>
+    <row r="680" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B680" s="5"/>
+      <c r="E680" s="3"/>
+    </row>
+    <row r="681" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B681" s="5"/>
+      <c r="E681" s="3"/>
+    </row>
+    <row r="682" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B682" s="5"/>
+      <c r="E682" s="3"/>
+    </row>
+    <row r="683" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B683" s="5"/>
+      <c r="E683" s="3"/>
+    </row>
+    <row r="684" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B684" s="5"/>
+      <c r="E684" s="3"/>
+    </row>
+    <row r="685" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B685" s="5"/>
+      <c r="E685" s="3"/>
+    </row>
+    <row r="686" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B686" s="5"/>
+      <c r="E686" s="3"/>
+    </row>
+    <row r="687" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B687" s="5"/>
+      <c r="E687" s="3"/>
+    </row>
+    <row r="688" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B688" s="5"/>
+      <c r="E688" s="3"/>
+    </row>
+    <row r="689" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B689" s="5"/>
+      <c r="E689" s="3"/>
+    </row>
+    <row r="690" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B690" s="5"/>
+      <c r="E690" s="3"/>
+    </row>
+    <row r="691" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B691" s="5"/>
+      <c r="E691" s="3"/>
+    </row>
+    <row r="692" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B692" s="5"/>
+      <c r="E692" s="3"/>
+    </row>
+    <row r="693" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B693" s="5"/>
+      <c r="E693" s="3"/>
+    </row>
+    <row r="694" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B694" s="5"/>
+      <c r="E694" s="3"/>
+    </row>
+    <row r="695" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B695" s="5"/>
+      <c r="E695" s="3"/>
+    </row>
+    <row r="696" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B696" s="5"/>
+      <c r="E696" s="3"/>
+    </row>
+    <row r="697" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B697" s="5"/>
+      <c r="E697" s="3"/>
+    </row>
+    <row r="698" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B698" s="5"/>
+      <c r="E698" s="3"/>
+    </row>
+    <row r="699" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B699" s="5"/>
+      <c r="E699" s="3"/>
+    </row>
+    <row r="700" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B700" s="5"/>
+      <c r="E700" s="3"/>
+    </row>
+    <row r="701" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B701" s="5"/>
+      <c r="E701" s="3"/>
+    </row>
+    <row r="702" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B702" s="5"/>
+      <c r="E702" s="3"/>
+    </row>
+    <row r="703" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B703" s="5"/>
+      <c r="E703" s="3"/>
+    </row>
+    <row r="704" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B704" s="5"/>
+      <c r="E704" s="3"/>
+    </row>
+    <row r="705" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B705" s="5"/>
+      <c r="E705" s="3"/>
+    </row>
+    <row r="706" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B706" s="5"/>
+      <c r="E706" s="3"/>
+    </row>
+    <row r="707" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B707" s="5"/>
+      <c r="E707" s="3"/>
+    </row>
+    <row r="708" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B708" s="5"/>
+      <c r="E708" s="3"/>
+    </row>
+    <row r="709" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B709" s="5"/>
+      <c r="E709" s="3"/>
+    </row>
+    <row r="710" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B710" s="5"/>
+      <c r="E710" s="3"/>
+    </row>
+    <row r="711" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B711" s="5"/>
+      <c r="E711" s="3"/>
+    </row>
+    <row r="712" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B712" s="5"/>
+      <c r="E712" s="3"/>
+    </row>
+    <row r="713" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B713" s="5"/>
+      <c r="E713" s="3"/>
+    </row>
+    <row r="714" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B714" s="5"/>
+      <c r="E714" s="3"/>
+    </row>
+    <row r="715" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B715" s="5"/>
+      <c r="E715" s="3"/>
+    </row>
+    <row r="716" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B716" s="5"/>
+      <c r="E716" s="3"/>
+    </row>
+    <row r="717" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B717" s="5"/>
+      <c r="E717" s="3"/>
+    </row>
+    <row r="718" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B718" s="5"/>
+      <c r="E718" s="3"/>
+    </row>
+    <row r="719" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B719" s="5"/>
+      <c r="E719" s="3"/>
+    </row>
+    <row r="720" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B720" s="5"/>
+      <c r="E720" s="3"/>
+    </row>
+    <row r="721" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B721" s="5"/>
+      <c r="E721" s="3"/>
+    </row>
+    <row r="722" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B722" s="5"/>
+      <c r="E722" s="3"/>
+    </row>
+    <row r="723" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B723" s="5"/>
+      <c r="E723" s="3"/>
+    </row>
+    <row r="724" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B724" s="5"/>
+      <c r="E724" s="3"/>
+    </row>
+    <row r="725" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B725" s="5"/>
+      <c r="E725" s="3"/>
+    </row>
+    <row r="726" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B726" s="5"/>
+      <c r="E726" s="3"/>
+    </row>
+    <row r="727" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B727" s="5"/>
+      <c r="E727" s="3"/>
+    </row>
+    <row r="728" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B728" s="5"/>
+      <c r="E728" s="3"/>
+    </row>
+    <row r="729" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B729" s="5"/>
+      <c r="E729" s="3"/>
+    </row>
+    <row r="730" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B730" s="5"/>
+      <c r="E730" s="3"/>
+    </row>
+    <row r="731" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B731" s="5"/>
+      <c r="E731" s="3"/>
+    </row>
+    <row r="732" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B732" s="5"/>
+      <c r="E732" s="3"/>
+    </row>
+    <row r="733" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B733" s="5"/>
+      <c r="E733" s="3"/>
+    </row>
+    <row r="734" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B734" s="5"/>
+      <c r="E734" s="3"/>
+    </row>
+    <row r="735" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B735" s="5"/>
+      <c r="E735" s="3"/>
+    </row>
+    <row r="736" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B736" s="5"/>
+      <c r="E736" s="3"/>
+    </row>
+    <row r="737" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B737" s="5"/>
+      <c r="E737" s="3"/>
+    </row>
+    <row r="738" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B738" s="5"/>
+      <c r="E738" s="3"/>
+    </row>
+    <row r="739" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B739" s="5"/>
+      <c r="E739" s="3"/>
+    </row>
+    <row r="740" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B740" s="5"/>
+      <c r="E740" s="3"/>
+    </row>
+    <row r="741" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B741" s="5"/>
+      <c r="E741" s="3"/>
+    </row>
+    <row r="742" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B742" s="5"/>
+      <c r="E742" s="3"/>
+    </row>
+    <row r="743" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B743" s="5"/>
+      <c r="E743" s="3"/>
+    </row>
+    <row r="744" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B744" s="5"/>
+      <c r="E744" s="3"/>
+    </row>
+    <row r="745" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B745" s="5"/>
+      <c r="E745" s="3"/>
+    </row>
+    <row r="746" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B746" s="5"/>
+      <c r="E746" s="3"/>
+    </row>
+    <row r="747" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B747" s="5"/>
+      <c r="E747" s="3"/>
+    </row>
+    <row r="748" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B748" s="5"/>
+      <c r="E748" s="3"/>
+    </row>
+    <row r="749" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B749" s="5"/>
+      <c r="E749" s="3"/>
+    </row>
+    <row r="750" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B750" s="5"/>
+      <c r="E750" s="3"/>
+    </row>
+    <row r="751" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B751" s="5"/>
+      <c r="E751" s="3"/>
+    </row>
+    <row r="752" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B752" s="5"/>
+      <c r="E752" s="3"/>
+    </row>
+    <row r="753" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B753" s="5"/>
+      <c r="E753" s="3"/>
+    </row>
+    <row r="754" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B754" s="5"/>
+      <c r="E754" s="3"/>
+    </row>
+    <row r="755" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B755" s="5"/>
+      <c r="E755" s="3"/>
+    </row>
+    <row r="756" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B756" s="5"/>
+      <c r="E756" s="3"/>
+    </row>
+    <row r="757" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B757" s="5"/>
+      <c r="E757" s="3"/>
+    </row>
+    <row r="758" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B758" s="5"/>
+      <c r="E758" s="3"/>
+    </row>
+    <row r="759" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B759" s="5"/>
+      <c r="E759" s="3"/>
+    </row>
+    <row r="760" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B760" s="5"/>
+      <c r="E760" s="3"/>
+    </row>
+    <row r="761" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B761" s="5"/>
+      <c r="E761" s="3"/>
+    </row>
+    <row r="762" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B762" s="5"/>
+      <c r="E762" s="3"/>
+    </row>
+    <row r="763" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B763" s="5"/>
+      <c r="E763" s="3"/>
+    </row>
+    <row r="764" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B764" s="5"/>
+      <c r="E764" s="3"/>
+    </row>
+    <row r="765" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B765" s="5"/>
+      <c r="E765" s="3"/>
+    </row>
+    <row r="766" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B766" s="5"/>
+      <c r="E766" s="3"/>
+    </row>
+    <row r="767" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B767" s="5"/>
+      <c r="E767" s="3"/>
+    </row>
+    <row r="768" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B768" s="5"/>
+      <c r="E768" s="3"/>
+    </row>
+    <row r="769" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B769" s="5"/>
+      <c r="E769" s="3"/>
+    </row>
+    <row r="770" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B770" s="5"/>
+      <c r="E770" s="3"/>
+    </row>
+    <row r="771" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B771" s="5"/>
+      <c r="E771" s="3"/>
+    </row>
+    <row r="772" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B772" s="5"/>
+      <c r="E772" s="3"/>
+    </row>
+    <row r="773" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B773" s="5"/>
+      <c r="E773" s="3"/>
+    </row>
+    <row r="774" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B774" s="5"/>
+      <c r="E774" s="3"/>
+    </row>
+    <row r="775" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B775" s="5"/>
+      <c r="E775" s="3"/>
+    </row>
+    <row r="776" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B776" s="5"/>
+      <c r="E776" s="3"/>
+    </row>
+    <row r="777" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B777" s="5"/>
+      <c r="E777" s="3"/>
+    </row>
+    <row r="778" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B778" s="5"/>
+      <c r="E778" s="3"/>
+    </row>
+    <row r="779" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B779" s="5"/>
+      <c r="E779" s="3"/>
+    </row>
+    <row r="780" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B780" s="5"/>
+      <c r="E780" s="3"/>
+    </row>
+    <row r="781" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B781" s="5"/>
+      <c r="E781" s="3"/>
+    </row>
+    <row r="782" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B782" s="5"/>
+      <c r="E782" s="3"/>
+    </row>
+    <row r="783" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B783" s="5"/>
+      <c r="E783" s="3"/>
+    </row>
+    <row r="784" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B784" s="5"/>
+      <c r="E784" s="3"/>
+    </row>
+    <row r="785" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B785" s="5"/>
+      <c r="E785" s="3"/>
+    </row>
+    <row r="786" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B786" s="5"/>
+      <c r="E786" s="3"/>
+    </row>
+    <row r="787" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B787" s="5"/>
+      <c r="E787" s="3"/>
+    </row>
+    <row r="788" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B788" s="5"/>
+      <c r="E788" s="3"/>
+    </row>
+    <row r="789" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B789" s="5"/>
+      <c r="E789" s="3"/>
+    </row>
+    <row r="790" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B790" s="5"/>
+      <c r="E790" s="3"/>
+    </row>
+    <row r="791" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B791" s="5"/>
+      <c r="E791" s="3"/>
+    </row>
+    <row r="792" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B792" s="5"/>
+      <c r="E792" s="3"/>
+    </row>
+    <row r="793" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B793" s="5"/>
+      <c r="E793" s="3"/>
+    </row>
+    <row r="794" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B794" s="5"/>
+      <c r="E794" s="3"/>
+    </row>
+    <row r="795" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B795" s="5"/>
+      <c r="E795" s="3"/>
+    </row>
+    <row r="796" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B796" s="5"/>
+      <c r="E796" s="3"/>
+    </row>
+    <row r="797" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B797" s="5"/>
+      <c r="E797" s="3"/>
+    </row>
+    <row r="798" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B798" s="5"/>
+      <c r="E798" s="3"/>
+    </row>
+    <row r="799" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B799" s="5"/>
+      <c r="E799" s="3"/>
+    </row>
+    <row r="800" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B800" s="5"/>
+      <c r="E800" s="3"/>
+    </row>
+    <row r="801" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B801" s="5"/>
+      <c r="E801" s="3"/>
+    </row>
+    <row r="802" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B802" s="5"/>
+      <c r="E802" s="3"/>
+    </row>
+    <row r="803" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B803" s="5"/>
+      <c r="E803" s="3"/>
+    </row>
+    <row r="804" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B804" s="5"/>
+      <c r="E804" s="3"/>
+    </row>
+    <row r="805" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B805" s="5"/>
+      <c r="E805" s="3"/>
+    </row>
+    <row r="806" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B806" s="5"/>
+      <c r="E806" s="3"/>
+    </row>
+    <row r="807" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B807" s="5"/>
+      <c r="E807" s="3"/>
+    </row>
+    <row r="808" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B808" s="5"/>
+      <c r="E808" s="3"/>
+    </row>
+    <row r="809" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B809" s="5"/>
+      <c r="E809" s="3"/>
+    </row>
+    <row r="810" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B810" s="5"/>
+      <c r="E810" s="3"/>
+    </row>
+    <row r="811" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B811" s="5"/>
+      <c r="E811" s="3"/>
+    </row>
+    <row r="812" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B812" s="5"/>
+      <c r="E812" s="3"/>
+    </row>
+    <row r="813" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B813" s="5"/>
+      <c r="E813" s="3"/>
+    </row>
+    <row r="814" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B814" s="5"/>
+      <c r="E814" s="3"/>
+    </row>
+    <row r="815" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B815" s="5"/>
+      <c r="E815" s="3"/>
+    </row>
+    <row r="816" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B816" s="5"/>
+      <c r="E816" s="3"/>
+    </row>
+    <row r="817" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B817" s="5"/>
+      <c r="E817" s="3"/>
+    </row>
+    <row r="818" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B818" s="5"/>
+      <c r="E818" s="3"/>
+    </row>
+    <row r="819" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B819" s="5"/>
+      <c r="E819" s="3"/>
+    </row>
+    <row r="820" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B820" s="5"/>
+      <c r="E820" s="3"/>
+    </row>
+    <row r="821" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B821" s="5"/>
+      <c r="E821" s="3"/>
+    </row>
+    <row r="822" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B822" s="5"/>
+      <c r="E822" s="3"/>
+    </row>
+    <row r="823" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B823" s="5"/>
+      <c r="E823" s="3"/>
+    </row>
+    <row r="824" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B824" s="5"/>
+      <c r="E824" s="3"/>
+    </row>
+    <row r="825" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B825" s="5"/>
+      <c r="E825" s="3"/>
+    </row>
+    <row r="826" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B826" s="5"/>
+      <c r="E826" s="3"/>
+    </row>
+    <row r="827" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B827" s="5"/>
+      <c r="E827" s="3"/>
+    </row>
+    <row r="828" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B828" s="5"/>
+      <c r="E828" s="3"/>
+    </row>
+    <row r="829" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B829" s="5"/>
+      <c r="E829" s="3"/>
+    </row>
+    <row r="830" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B830" s="5"/>
+      <c r="E830" s="3"/>
+    </row>
+    <row r="831" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B831" s="5"/>
+      <c r="E831" s="3"/>
+    </row>
+    <row r="832" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B832" s="5"/>
+      <c r="E832" s="3"/>
+    </row>
+    <row r="833" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B833" s="5"/>
+      <c r="E833" s="3"/>
+    </row>
+    <row r="834" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B834" s="5"/>
+      <c r="E834" s="3"/>
+    </row>
+    <row r="835" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B835" s="5"/>
+      <c r="E835" s="3"/>
+    </row>
+    <row r="836" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B836" s="5"/>
+      <c r="E836" s="3"/>
+    </row>
+    <row r="837" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B837" s="5"/>
+      <c r="E837" s="3"/>
+    </row>
+    <row r="838" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B838" s="5"/>
+      <c r="E838" s="3"/>
+    </row>
+    <row r="839" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B839" s="5"/>
+      <c r="E839" s="3"/>
+    </row>
+    <row r="840" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B840" s="5"/>
+      <c r="E840" s="3"/>
+    </row>
+    <row r="841" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B841" s="5"/>
+      <c r="E841" s="3"/>
+    </row>
+    <row r="842" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B842" s="5"/>
+      <c r="E842" s="3"/>
+    </row>
+    <row r="843" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B843" s="5"/>
+      <c r="E843" s="3"/>
+    </row>
+    <row r="844" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B844" s="5"/>
+      <c r="E844" s="3"/>
+    </row>
+    <row r="845" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B845" s="5"/>
+      <c r="E845" s="3"/>
+    </row>
+    <row r="846" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B846" s="5"/>
+      <c r="E846" s="3"/>
+    </row>
+    <row r="847" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B847" s="5"/>
+      <c r="E847" s="3"/>
+    </row>
+    <row r="848" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B848" s="5"/>
+      <c r="E848" s="3"/>
+    </row>
+    <row r="849" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B849" s="5"/>
+      <c r="E849" s="3"/>
+    </row>
+    <row r="850" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B850" s="5"/>
+      <c r="E850" s="3"/>
+    </row>
+    <row r="851" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B851" s="5"/>
+      <c r="E851" s="3"/>
+    </row>
+    <row r="852" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B852" s="5"/>
+      <c r="E852" s="3"/>
+    </row>
+    <row r="853" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B853" s="5"/>
+      <c r="E853" s="3"/>
+    </row>
+    <row r="854" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B854" s="5"/>
+      <c r="E854" s="3"/>
+    </row>
+    <row r="855" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B855" s="5"/>
+      <c r="E855" s="3"/>
+    </row>
+    <row r="856" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B856" s="5"/>
+      <c r="E856" s="3"/>
+    </row>
+    <row r="857" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B857" s="5"/>
+      <c r="E857" s="3"/>
+    </row>
+    <row r="858" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B858" s="5"/>
+      <c r="E858" s="3"/>
+    </row>
+    <row r="859" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B859" s="5"/>
+      <c r="E859" s="3"/>
+    </row>
+    <row r="860" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B860" s="5"/>
+      <c r="E860" s="3"/>
+    </row>
+    <row r="861" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B861" s="5"/>
+      <c r="E861" s="3"/>
+    </row>
+    <row r="862" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B862" s="5"/>
+      <c r="E862" s="3"/>
+    </row>
+    <row r="863" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B863" s="5"/>
+      <c r="E863" s="3"/>
+    </row>
+    <row r="864" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B864" s="5"/>
+      <c r="E864" s="3"/>
+    </row>
+    <row r="865" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B865" s="5"/>
+      <c r="E865" s="3"/>
+    </row>
+    <row r="866" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B866" s="5"/>
+      <c r="E866" s="3"/>
+    </row>
+    <row r="867" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B867" s="5"/>
+      <c r="E867" s="3"/>
+    </row>
+    <row r="868" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B868" s="5"/>
+      <c r="E868" s="3"/>
+    </row>
+    <row r="869" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B869" s="5"/>
+      <c r="E869" s="3"/>
+    </row>
+    <row r="870" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B870" s="5"/>
+      <c r="E870" s="3"/>
+    </row>
+    <row r="871" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B871" s="5"/>
+      <c r="E871" s="3"/>
+    </row>
+    <row r="872" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B872" s="5"/>
+      <c r="E872" s="3"/>
+    </row>
+    <row r="873" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B873" s="5"/>
+      <c r="E873" s="3"/>
+    </row>
+    <row r="874" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B874" s="5"/>
+      <c r="E874" s="3"/>
+    </row>
+    <row r="875" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B875" s="5"/>
+      <c r="E875" s="3"/>
+    </row>
+    <row r="876" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B876" s="5"/>
+      <c r="E876" s="3"/>
+    </row>
+    <row r="877" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B877" s="5"/>
+      <c r="E877" s="3"/>
+    </row>
+    <row r="878" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B878" s="5"/>
+      <c r="E878" s="3"/>
+    </row>
+    <row r="879" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B879" s="5"/>
+      <c r="E879" s="3"/>
+    </row>
+    <row r="880" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B880" s="5"/>
+      <c r="E880" s="3"/>
+    </row>
+    <row r="881" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B881" s="5"/>
+      <c r="E881" s="3"/>
+    </row>
+    <row r="882" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B882" s="5"/>
+      <c r="E882" s="3"/>
+    </row>
+    <row r="883" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B883" s="5"/>
+      <c r="E883" s="3"/>
+    </row>
+    <row r="884" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B884" s="5"/>
+      <c r="E884" s="3"/>
+    </row>
+    <row r="885" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B885" s="5"/>
+      <c r="E885" s="3"/>
+    </row>
+    <row r="886" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B886" s="5"/>
+      <c r="E886" s="3"/>
+    </row>
+    <row r="887" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B887" s="5"/>
+      <c r="E887" s="3"/>
+    </row>
+    <row r="888" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B888" s="5"/>
+      <c r="E888" s="3"/>
+    </row>
+    <row r="889" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B889" s="5"/>
+      <c r="E889" s="3"/>
+    </row>
+    <row r="890" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B890" s="5"/>
+      <c r="E890" s="3"/>
+    </row>
+    <row r="891" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B891" s="5"/>
+      <c r="E891" s="3"/>
+    </row>
+    <row r="892" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B892" s="5"/>
+      <c r="E892" s="3"/>
+    </row>
+    <row r="893" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B893" s="5"/>
+      <c r="E893" s="3"/>
+    </row>
+    <row r="894" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B894" s="5"/>
+      <c r="E894" s="3"/>
+    </row>
+    <row r="895" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B895" s="5"/>
+      <c r="E895" s="3"/>
+    </row>
+    <row r="896" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B896" s="5"/>
+      <c r="E896" s="3"/>
+    </row>
+    <row r="897" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B897" s="5"/>
+      <c r="E897" s="3"/>
+    </row>
+    <row r="898" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B898" s="5"/>
+      <c r="E898" s="3"/>
+    </row>
+    <row r="899" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B899" s="5"/>
+      <c r="E899" s="3"/>
+    </row>
+    <row r="900" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B900" s="5"/>
+      <c r="E900" s="3"/>
+    </row>
+    <row r="901" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B901" s="5"/>
+      <c r="E901" s="3"/>
+    </row>
+    <row r="902" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B902" s="5"/>
+      <c r="E902" s="3"/>
+    </row>
+    <row r="903" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B903" s="5"/>
+      <c r="E903" s="3"/>
+    </row>
+    <row r="904" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B904" s="5"/>
+      <c r="E904" s="3"/>
+    </row>
+    <row r="905" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B905" s="5"/>
+      <c r="E905" s="3"/>
+    </row>
+    <row r="906" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B906" s="5"/>
+      <c r="E906" s="3"/>
+    </row>
+    <row r="907" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B907" s="5"/>
+      <c r="E907" s="3"/>
+    </row>
+    <row r="908" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B908" s="5"/>
+      <c r="E908" s="3"/>
+    </row>
+    <row r="909" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B909" s="5"/>
+      <c r="E909" s="3"/>
+    </row>
+    <row r="910" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B910" s="5"/>
+      <c r="E910" s="3"/>
+    </row>
+    <row r="911" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B911" s="5"/>
+      <c r="E911" s="3"/>
+    </row>
+    <row r="912" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B912" s="5"/>
+      <c r="E912" s="3"/>
+    </row>
+    <row r="913" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B913" s="5"/>
+      <c r="E913" s="3"/>
+    </row>
+    <row r="914" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B914" s="5"/>
+      <c r="E914" s="3"/>
+    </row>
+    <row r="915" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B915" s="5"/>
+      <c r="E915" s="3"/>
+    </row>
+    <row r="916" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B916" s="5"/>
+      <c r="E916" s="3"/>
+    </row>
+    <row r="917" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B917" s="5"/>
+      <c r="E917" s="3"/>
+    </row>
+    <row r="918" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B918" s="5"/>
+      <c r="E918" s="3"/>
+    </row>
+    <row r="919" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B919" s="5"/>
+      <c r="E919" s="3"/>
+    </row>
+    <row r="920" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B920" s="5"/>
+      <c r="E920" s="3"/>
+    </row>
+    <row r="921" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B921" s="5"/>
+      <c r="E921" s="3"/>
+    </row>
+    <row r="922" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B922" s="5"/>
+      <c r="E922" s="3"/>
+    </row>
+    <row r="923" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B923" s="5"/>
+      <c r="E923" s="3"/>
+    </row>
+    <row r="924" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B924" s="5"/>
+      <c r="E924" s="3"/>
+    </row>
+    <row r="925" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B925" s="5"/>
+      <c r="E925" s="3"/>
+    </row>
+    <row r="926" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B926" s="5"/>
+      <c r="E926" s="3"/>
+    </row>
+    <row r="927" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B927" s="5"/>
+      <c r="E927" s="3"/>
+    </row>
+    <row r="928" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B928" s="5"/>
+      <c r="E928" s="3"/>
+    </row>
+    <row r="929" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B929" s="5"/>
+      <c r="E929" s="3"/>
+    </row>
+    <row r="930" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B930" s="5"/>
+      <c r="E930" s="3"/>
+    </row>
+    <row r="931" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B931" s="5"/>
+      <c r="E931" s="3"/>
+    </row>
+    <row r="932" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B932" s="5"/>
+      <c r="E932" s="3"/>
+    </row>
+    <row r="933" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B933" s="5"/>
+      <c r="E933" s="3"/>
+    </row>
+    <row r="934" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B934" s="5"/>
+      <c r="E934" s="3"/>
+    </row>
+    <row r="935" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B935" s="5"/>
+      <c r="E935" s="3"/>
+    </row>
+    <row r="936" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B936" s="5"/>
+      <c r="E936" s="3"/>
+    </row>
+    <row r="937" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B937" s="5"/>
+      <c r="E937" s="3"/>
+    </row>
+    <row r="938" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B938" s="5"/>
+      <c r="E938" s="3"/>
+    </row>
+    <row r="939" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B939" s="5"/>
+      <c r="E939" s="3"/>
+    </row>
+    <row r="940" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B940" s="5"/>
+      <c r="E940" s="3"/>
+    </row>
+    <row r="941" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B941" s="5"/>
+      <c r="E941" s="3"/>
+    </row>
+    <row r="942" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B942" s="5"/>
+      <c r="E942" s="3"/>
+    </row>
+    <row r="943" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B943" s="5"/>
+      <c r="E943" s="3"/>
+    </row>
+    <row r="944" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B944" s="5"/>
+      <c r="E944" s="3"/>
+    </row>
+    <row r="945" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B945" s="5"/>
+      <c r="E945" s="3"/>
+    </row>
+    <row r="946" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B946" s="5"/>
+      <c r="E946" s="3"/>
+    </row>
+    <row r="947" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B947" s="5"/>
+      <c r="E947" s="3"/>
+    </row>
+    <row r="948" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B948" s="5"/>
+      <c r="E948" s="3"/>
+    </row>
+    <row r="949" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B949" s="5"/>
+      <c r="E949" s="3"/>
+    </row>
+    <row r="950" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B950" s="5"/>
+      <c r="E950" s="3"/>
+    </row>
+    <row r="951" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B951" s="5"/>
+      <c r="E951" s="3"/>
+    </row>
+    <row r="952" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B952" s="5"/>
+      <c r="E952" s="3"/>
+    </row>
+    <row r="953" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B953" s="5"/>
+      <c r="E953" s="3"/>
+    </row>
+    <row r="954" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B954" s="5"/>
+      <c r="E954" s="3"/>
+    </row>
+    <row r="955" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B955" s="5"/>
+      <c r="E955" s="3"/>
+    </row>
+    <row r="956" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B956" s="5"/>
+      <c r="E956" s="3"/>
+    </row>
+    <row r="957" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B957" s="5"/>
+      <c r="E957" s="3"/>
+    </row>
+    <row r="958" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B958" s="5"/>
+      <c r="E958" s="3"/>
+    </row>
+    <row r="959" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B959" s="5"/>
+      <c r="E959" s="3"/>
+    </row>
+    <row r="960" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B960" s="5"/>
+      <c r="E960" s="3"/>
+    </row>
+    <row r="961" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B961" s="5"/>
+      <c r="E961" s="3"/>
+    </row>
+    <row r="962" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B962" s="5"/>
+      <c r="E962" s="3"/>
+    </row>
+    <row r="963" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B963" s="5"/>
+      <c r="E963" s="3"/>
+    </row>
+    <row r="964" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B964" s="5"/>
+      <c r="E964" s="3"/>
+    </row>
+    <row r="965" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B965" s="5"/>
+      <c r="E965" s="3"/>
+    </row>
+    <row r="966" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B966" s="5"/>
+      <c r="E966" s="3"/>
+    </row>
+    <row r="967" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B967" s="5"/>
+      <c r="E967" s="3"/>
+    </row>
+    <row r="968" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B968" s="5"/>
+      <c r="E968" s="3"/>
+    </row>
+    <row r="969" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B969" s="5"/>
+      <c r="E969" s="3"/>
+    </row>
+    <row r="970" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B970" s="5"/>
+      <c r="E970" s="3"/>
+    </row>
+    <row r="971" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B971" s="5"/>
+      <c r="E971" s="3"/>
+    </row>
+    <row r="972" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B972" s="5"/>
+      <c r="E972" s="3"/>
+    </row>
+    <row r="973" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B973" s="5"/>
+      <c r="E973" s="3"/>
+    </row>
+    <row r="974" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B974" s="5"/>
+      <c r="E974" s="3"/>
+    </row>
+    <row r="975" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B975" s="5"/>
+      <c r="E975" s="3"/>
+    </row>
+    <row r="976" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B976" s="5"/>
+      <c r="E976" s="3"/>
+    </row>
+    <row r="977" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B977" s="5"/>
+      <c r="E977" s="3"/>
+    </row>
+    <row r="978" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B978" s="5"/>
+      <c r="E978" s="3"/>
+    </row>
+    <row r="979" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B979" s="5"/>
+      <c r="E979" s="3"/>
+    </row>
+    <row r="980" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B980" s="5"/>
+      <c r="E980" s="3"/>
+    </row>
+    <row r="981" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B981" s="5"/>
+      <c r="E981" s="3"/>
+    </row>
+    <row r="982" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B982" s="5"/>
+      <c r="E982" s="3"/>
+    </row>
+    <row r="983" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B983" s="5"/>
+      <c r="E983" s="3"/>
+    </row>
+    <row r="984" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B984" s="5"/>
+      <c r="E984" s="3"/>
+    </row>
+    <row r="985" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B985" s="5"/>
+      <c r="E985" s="3"/>
+    </row>
+    <row r="986" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B986" s="5"/>
+      <c r="E986" s="3"/>
+    </row>
+    <row r="987" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B987" s="5"/>
+      <c r="E987" s="3"/>
+    </row>
+    <row r="988" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B988" s="5"/>
+      <c r="E988" s="3"/>
+    </row>
+    <row r="989" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B989" s="5"/>
+      <c r="E989" s="3"/>
+    </row>
+    <row r="990" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B990" s="5"/>
+      <c r="E990" s="3"/>
+    </row>
+    <row r="991" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B991" s="5"/>
+      <c r="E991" s="3"/>
+    </row>
+    <row r="992" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B992" s="5"/>
+      <c r="E992" s="3"/>
+    </row>
+    <row r="993" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B993" s="5"/>
+      <c r="E993" s="3"/>
+    </row>
+    <row r="994" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B994" s="5"/>
+      <c r="E994" s="3"/>
+    </row>
+    <row r="995" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B995" s="5"/>
+      <c r="E995" s="3"/>
+    </row>
+    <row r="996" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B996" s="5"/>
+      <c r="E996" s="3"/>
+    </row>
+    <row r="997" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B997" s="5"/>
+      <c r="E997" s="3"/>
+    </row>
+    <row r="998" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B998" s="5"/>
+      <c r="E998" s="3"/>
+    </row>
+    <row r="999" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B999" s="5"/>
+      <c r="E999" s="3"/>
+    </row>
+    <row r="1000" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1000" s="5"/>
+      <c r="E1000" s="3"/>
+    </row>
+    <row r="1001" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1001" s="5"/>
+      <c r="E1001" s="3"/>
+    </row>
+    <row r="1002" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1002" s="5"/>
+      <c r="E1002" s="3"/>
+    </row>
+    <row r="1003" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1003" s="5"/>
+      <c r="E1003" s="3"/>
+    </row>
+    <row r="1004" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1004" s="5"/>
+      <c r="E1004" s="3"/>
+    </row>
+    <row r="1005" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1005" s="5"/>
+      <c r="E1005" s="3"/>
+    </row>
+    <row r="1006" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1006" s="5"/>
+      <c r="E1006" s="3"/>
+    </row>
+    <row r="1007" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1007" s="5"/>
+      <c r="E1007" s="3"/>
+    </row>
+    <row r="1008" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1008" s="5"/>
+      <c r="E1008" s="3"/>
+    </row>
+    <row r="1009" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1009" s="5"/>
+      <c r="E1009" s="3"/>
+    </row>
+    <row r="1010" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1010" s="5"/>
+      <c r="E1010" s="3"/>
+    </row>
+    <row r="1011" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1011" s="5"/>
+      <c r="E1011" s="3"/>
+    </row>
+    <row r="1012" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1012" s="5"/>
+      <c r="E1012" s="3"/>
+    </row>
+    <row r="1013" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1013" s="5"/>
+      <c r="E1013" s="3"/>
+    </row>
+    <row r="1014" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1014" s="5"/>
+      <c r="E1014" s="3"/>
+    </row>
+    <row r="1015" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1015" s="5"/>
+      <c r="E1015" s="3"/>
+    </row>
+    <row r="1016" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1016" s="5"/>
+      <c r="E1016" s="3"/>
+    </row>
+    <row r="1017" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1017" s="5"/>
+      <c r="E1017" s="3"/>
+    </row>
+    <row r="1018" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1018" s="5"/>
+      <c r="E1018" s="3"/>
+    </row>
+    <row r="1019" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1019" s="5"/>
+      <c r="E1019" s="3"/>
+    </row>
+    <row r="1020" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1020" s="5"/>
+      <c r="E1020" s="3"/>
+    </row>
+    <row r="1021" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1021" s="5"/>
+      <c r="E1021" s="3"/>
+    </row>
+    <row r="1022" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1022" s="5"/>
+      <c r="E1022" s="3"/>
+    </row>
+    <row r="1023" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1023" s="5"/>
+      <c r="E1023" s="3"/>
+    </row>
+    <row r="1024" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1024" s="5"/>
+      <c r="E1024" s="3"/>
+    </row>
+    <row r="1025" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1025" s="5"/>
+      <c r="E1025" s="3"/>
+    </row>
+    <row r="1026" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1026" s="5"/>
+      <c r="E1026" s="3"/>
+    </row>
+    <row r="1027" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1027" s="5"/>
+      <c r="E1027" s="3"/>
+    </row>
+    <row r="1028" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1028" s="5"/>
+      <c r="E1028" s="3"/>
+    </row>
+    <row r="1029" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1029" s="5"/>
+      <c r="E1029" s="3"/>
+    </row>
+    <row r="1030" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1030" s="5"/>
+      <c r="E1030" s="3"/>
+    </row>
+    <row r="1031" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1031" s="5"/>
+      <c r="E1031" s="3"/>
+    </row>
+    <row r="1032" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1032" s="5"/>
+      <c r="E1032" s="3"/>
+    </row>
+    <row r="1033" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1033" s="5"/>
+      <c r="E1033" s="3"/>
+    </row>
+    <row r="1034" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1034" s="5"/>
+      <c r="E1034" s="3"/>
+    </row>
+    <row r="1035" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1035" s="5"/>
+      <c r="E1035" s="3"/>
+    </row>
+    <row r="1036" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1036" s="5"/>
+      <c r="E1036" s="3"/>
+    </row>
+    <row r="1037" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1037" s="5"/>
+      <c r="E1037" s="3"/>
+    </row>
+    <row r="1038" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1038" s="5"/>
+      <c r="E1038" s="3"/>
+    </row>
+    <row r="1039" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1039" s="5"/>
+      <c r="E1039" s="3"/>
+    </row>
+    <row r="1040" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1040" s="5"/>
+      <c r="E1040" s="3"/>
+    </row>
+    <row r="1041" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1041" s="5"/>
+      <c r="E1041" s="3"/>
+    </row>
+    <row r="1042" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1042" s="5"/>
+      <c r="E1042" s="3"/>
+    </row>
+    <row r="1043" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1043" s="5"/>
+      <c r="E1043" s="3"/>
+    </row>
+    <row r="1044" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1044" s="5"/>
+      <c r="E1044" s="3"/>
+    </row>
+    <row r="1045" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1045" s="5"/>
+      <c r="E1045" s="3"/>
+    </row>
+    <row r="1046" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1046" s="5"/>
+      <c r="E1046" s="3"/>
+    </row>
+    <row r="1047" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1047" s="5"/>
+      <c r="E1047" s="3"/>
+    </row>
+    <row r="1048" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1048" s="5"/>
+      <c r="E1048" s="3"/>
+    </row>
+    <row r="1049" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1049" s="5"/>
+      <c r="E1049" s="3"/>
+    </row>
+    <row r="1050" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1050" s="5"/>
+      <c r="E1050" s="3"/>
+    </row>
+    <row r="1051" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1051" s="5"/>
+      <c r="E1051" s="3"/>
+    </row>
+    <row r="1052" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1052" s="5"/>
+      <c r="E1052" s="3"/>
+    </row>
+    <row r="1053" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1053" s="5"/>
+      <c r="E1053" s="3"/>
+    </row>
+    <row r="1054" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1054" s="5"/>
+      <c r="E1054" s="3"/>
+    </row>
+    <row r="1055" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1055" s="5"/>
+      <c r="E1055" s="3"/>
+    </row>
+    <row r="1056" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1056" s="5"/>
+      <c r="E1056" s="3"/>
+    </row>
+    <row r="1057" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1057" s="5"/>
+      <c r="E1057" s="3"/>
+    </row>
+    <row r="1058" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1058" s="5"/>
+      <c r="E1058" s="3"/>
+    </row>
+    <row r="1059" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1059" s="5"/>
+      <c r="E1059" s="3"/>
+    </row>
+    <row r="1060" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1060" s="5"/>
+      <c r="E1060" s="3"/>
+    </row>
+    <row r="1061" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1061" s="5"/>
+      <c r="E1061" s="3"/>
+    </row>
+    <row r="1062" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1062" s="5"/>
+      <c r="E1062" s="3"/>
+    </row>
+    <row r="1063" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1063" s="5"/>
+      <c r="E1063" s="3"/>
+    </row>
+    <row r="1064" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1064" s="5"/>
+      <c r="E1064" s="3"/>
+    </row>
+    <row r="1065" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1065" s="5"/>
+      <c r="E1065" s="3"/>
+    </row>
+    <row r="1066" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1066" s="5"/>
+      <c r="E1066" s="3"/>
+    </row>
+    <row r="1067" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1067" s="5"/>
+      <c r="E1067" s="3"/>
+    </row>
+    <row r="1068" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1068" s="5"/>
+      <c r="E1068" s="3"/>
+    </row>
+    <row r="1069" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1069" s="5"/>
+      <c r="E1069" s="3"/>
+    </row>
+    <row r="1070" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1070" s="5"/>
+      <c r="E1070" s="3"/>
+    </row>
+    <row r="1071" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1071" s="5"/>
+      <c r="E1071" s="3"/>
+    </row>
+    <row r="1072" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1072" s="5"/>
+      <c r="E1072" s="3"/>
+    </row>
+    <row r="1073" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1073" s="5"/>
+      <c r="E1073" s="3"/>
+    </row>
+    <row r="1074" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1074" s="5"/>
+      <c r="E1074" s="3"/>
+    </row>
+    <row r="1075" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1075" s="5"/>
+      <c r="E1075" s="3"/>
+    </row>
+    <row r="1076" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1076" s="5"/>
+      <c r="E1076" s="3"/>
+    </row>
+    <row r="1077" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1077" s="5"/>
+      <c r="E1077" s="3"/>
+    </row>
+    <row r="1078" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1078" s="5"/>
+      <c r="E1078" s="3"/>
+    </row>
+    <row r="1079" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1079" s="5"/>
+      <c r="E1079" s="3"/>
+    </row>
+    <row r="1080" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1080" s="5"/>
+      <c r="E1080" s="3"/>
+    </row>
+    <row r="1081" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1081" s="5"/>
+      <c r="E1081" s="3"/>
+    </row>
+    <row r="1082" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1082" s="5"/>
+      <c r="E1082" s="3"/>
+    </row>
+    <row r="1083" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1083" s="5"/>
+      <c r="E1083" s="3"/>
+    </row>
+    <row r="1084" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1084" s="5"/>
+      <c r="E1084" s="3"/>
+    </row>
+    <row r="1085" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1085" s="5"/>
+      <c r="E1085" s="3"/>
+    </row>
+    <row r="1086" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1086" s="5"/>
+      <c r="E1086" s="3"/>
+    </row>
+    <row r="1087" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1087" s="5"/>
+      <c r="E1087" s="3"/>
+    </row>
+    <row r="1088" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1088" s="5"/>
+      <c r="E1088" s="3"/>
+    </row>
+    <row r="1089" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1089" s="5"/>
+      <c r="E1089" s="3"/>
+    </row>
+    <row r="1090" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1090" s="5"/>
+      <c r="E1090" s="3"/>
+    </row>
+    <row r="1091" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1091" s="5"/>
+      <c r="E1091" s="3"/>
+    </row>
+    <row r="1092" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1092" s="5"/>
+      <c r="E1092" s="3"/>
+    </row>
+    <row r="1093" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1093" s="5"/>
+      <c r="E1093" s="3"/>
+    </row>
+    <row r="1094" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1094" s="5"/>
+      <c r="E1094" s="3"/>
+    </row>
+    <row r="1095" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1095" s="5"/>
+      <c r="E1095" s="3"/>
+    </row>
+    <row r="1096" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1096" s="5"/>
+      <c r="E1096" s="3"/>
+    </row>
+    <row r="1097" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1097" s="5"/>
+      <c r="E1097" s="3"/>
+    </row>
+    <row r="1098" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1098" s="5"/>
+      <c r="E1098" s="3"/>
+    </row>
+    <row r="1099" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1099" s="5"/>
+      <c r="E1099" s="3"/>
+    </row>
+    <row r="1100" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1100" s="5"/>
+      <c r="E1100" s="3"/>
+    </row>
+    <row r="1101" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1101" s="5"/>
+      <c r="E1101" s="3"/>
+    </row>
+    <row r="1102" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1102" s="5"/>
+      <c r="E1102" s="3"/>
+    </row>
+    <row r="1103" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1103" s="5"/>
+      <c r="E1103" s="3"/>
+    </row>
+    <row r="1104" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1104" s="5"/>
+      <c r="E1104" s="3"/>
+    </row>
+    <row r="1105" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1105" s="5"/>
+      <c r="E1105" s="3"/>
+    </row>
+    <row r="1106" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1106" s="5"/>
+      <c r="E1106" s="3"/>
+    </row>
+    <row r="1107" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1107" s="5"/>
+      <c r="E1107" s="3"/>
+    </row>
+    <row r="1108" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1108" s="5"/>
+      <c r="E1108" s="3"/>
+    </row>
+    <row r="1109" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1109" s="5"/>
+      <c r="E1109" s="3"/>
+    </row>
+    <row r="1110" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1110" s="5"/>
+      <c r="E1110" s="3"/>
+    </row>
+    <row r="1111" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1111" s="5"/>
+      <c r="E1111" s="3"/>
+    </row>
+    <row r="1112" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1112" s="5"/>
+      <c r="E1112" s="3"/>
+    </row>
+    <row r="1113" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1113" s="5"/>
+      <c r="E1113" s="3"/>
+    </row>
+    <row r="1114" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1114" s="5"/>
+      <c r="E1114" s="3"/>
+    </row>
+    <row r="1115" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1115" s="5"/>
+      <c r="E1115" s="3"/>
+    </row>
+    <row r="1116" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1116" s="5"/>
+      <c r="E1116" s="3"/>
+    </row>
+    <row r="1117" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1117" s="5"/>
+      <c r="E1117" s="3"/>
+    </row>
+    <row r="1118" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1118" s="5"/>
+      <c r="E1118" s="3"/>
+    </row>
+    <row r="1119" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1119" s="5"/>
+      <c r="E1119" s="3"/>
+    </row>
+    <row r="1120" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1120" s="5"/>
+      <c r="E1120" s="3"/>
+    </row>
+    <row r="1121" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1121" s="5"/>
+      <c r="E1121" s="3"/>
+    </row>
+    <row r="1122" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1122" s="5"/>
+      <c r="E1122" s="3"/>
+    </row>
+    <row r="1123" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1123" s="5"/>
+      <c r="E1123" s="3"/>
+    </row>
+    <row r="1124" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1124" s="5"/>
+      <c r="E1124" s="3"/>
+    </row>
+    <row r="1125" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1125" s="5"/>
+      <c r="E1125" s="3"/>
+    </row>
+    <row r="1126" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1126" s="5"/>
+      <c r="E1126" s="3"/>
+    </row>
+    <row r="1127" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1127" s="5"/>
+      <c r="E1127" s="3"/>
+    </row>
+    <row r="1128" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1128" s="5"/>
+      <c r="E1128" s="3"/>
+    </row>
+    <row r="1129" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1129" s="5"/>
+      <c r="E1129" s="3"/>
+    </row>
+    <row r="1130" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1130" s="5"/>
+      <c r="E1130" s="3"/>
+    </row>
+    <row r="1131" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1131" s="5"/>
+      <c r="E1131" s="3"/>
+    </row>
+    <row r="1132" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1132" s="5"/>
+      <c r="E1132" s="3"/>
+    </row>
+    <row r="1133" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1133" s="5"/>
+    </row>
+    <row r="1134" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1134" s="5"/>
+    </row>
+    <row r="1135" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1135" s="5"/>
+    </row>
+    <row r="1136" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1136" s="5"/>
+    </row>
+    <row r="1137" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B1137" s="5"/>
+    </row>
+    <row r="1138" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B1138" s="5"/>
+    </row>
+    <row r="1139" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B1139" s="5"/>
+    </row>
+    <row r="1140" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B1140" s="5"/>
+    </row>
+    <row r="1141" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B1141" s="5"/>
+    </row>
+    <row r="1142" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B1142" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/assets/template/disbursement-template.xlsx
+++ b/src/assets/template/disbursement-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Practice\export_project\NFGI_FE\src\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453C8EBD-047B-4C63-ADA8-A8A1CCC39A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD98D131-97C2-4119-B8C9-D5EC381B0141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4C4C0623-694F-4BD1-BD7D-346FF2C0CE84}"/>
   </bookViews>
@@ -100,15 +100,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -454,7 +451,7 @@
   <dimension ref="A1:F1142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2:E1132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -489,4601 +486,4601 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="5"/>
+      <c r="B2" s="4"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
+      <c r="E2" s="4"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="5"/>
+      <c r="B3" s="4"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
+      <c r="E3" s="4"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="5"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="5"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="3"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="B6" s="5"/>
+      <c r="B6" s="4"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="5"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="3"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="5"/>
+      <c r="B8" s="4"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="3"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
-      <c r="B9" s="5"/>
+      <c r="B9" s="4"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="3"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4">
+      <c r="B10" s="4"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3">
         <f>SUM(D2:D9)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4">
+      <c r="E10" s="4"/>
+      <c r="F10" s="3">
         <f>SUM(F2:F9)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="5"/>
-      <c r="E11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="5"/>
-      <c r="E12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="5"/>
-      <c r="E13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="5"/>
-      <c r="E14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="5"/>
-      <c r="E15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="5"/>
-      <c r="E16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="5"/>
-      <c r="E17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="5"/>
-      <c r="E18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="5"/>
-      <c r="E19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="5"/>
-      <c r="E20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="E20" s="4"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="5"/>
-      <c r="E21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="5"/>
-      <c r="E22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="E22" s="4"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="5"/>
-      <c r="E23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="E23" s="4"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="5"/>
-      <c r="E24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="E24" s="4"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="5"/>
-      <c r="E25" s="3"/>
+      <c r="B25" s="4"/>
+      <c r="E25" s="4"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="5"/>
-      <c r="E26" s="3"/>
+      <c r="B26" s="4"/>
+      <c r="E26" s="4"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="5"/>
-      <c r="E27" s="3"/>
+      <c r="B27" s="4"/>
+      <c r="E27" s="4"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="5"/>
-      <c r="E28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="E28" s="4"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="5"/>
-      <c r="E29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="E29" s="4"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="5"/>
-      <c r="E30" s="3"/>
+      <c r="B30" s="4"/>
+      <c r="E30" s="4"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="5"/>
-      <c r="E31" s="3"/>
+      <c r="B31" s="4"/>
+      <c r="E31" s="4"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="5"/>
-      <c r="E32" s="3"/>
+      <c r="B32" s="4"/>
+      <c r="E32" s="4"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="5"/>
-      <c r="E33" s="3"/>
+      <c r="B33" s="4"/>
+      <c r="E33" s="4"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="5"/>
-      <c r="E34" s="3"/>
+      <c r="B34" s="4"/>
+      <c r="E34" s="4"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="5"/>
-      <c r="E35" s="3"/>
+      <c r="B35" s="4"/>
+      <c r="E35" s="4"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="5"/>
-      <c r="E36" s="3"/>
+      <c r="B36" s="4"/>
+      <c r="E36" s="4"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="5"/>
-      <c r="E37" s="3"/>
+      <c r="B37" s="4"/>
+      <c r="E37" s="4"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="5"/>
-      <c r="E38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="E38" s="4"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="5"/>
-      <c r="E39" s="3"/>
+      <c r="B39" s="4"/>
+      <c r="E39" s="4"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="5"/>
-      <c r="E40" s="3"/>
+      <c r="B40" s="4"/>
+      <c r="E40" s="4"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="5"/>
-      <c r="E41" s="3"/>
+      <c r="B41" s="4"/>
+      <c r="E41" s="4"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="5"/>
-      <c r="E42" s="3"/>
+      <c r="B42" s="4"/>
+      <c r="E42" s="4"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="5"/>
-      <c r="E43" s="3"/>
+      <c r="B43" s="4"/>
+      <c r="E43" s="4"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="5"/>
-      <c r="E44" s="3"/>
+      <c r="B44" s="4"/>
+      <c r="E44" s="4"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B45" s="5"/>
-      <c r="E45" s="3"/>
+      <c r="B45" s="4"/>
+      <c r="E45" s="4"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B46" s="5"/>
-      <c r="E46" s="3"/>
+      <c r="B46" s="4"/>
+      <c r="E46" s="4"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B47" s="5"/>
-      <c r="E47" s="3"/>
+      <c r="B47" s="4"/>
+      <c r="E47" s="4"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B48" s="5"/>
-      <c r="E48" s="3"/>
+      <c r="B48" s="4"/>
+      <c r="E48" s="4"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="5"/>
-      <c r="E49" s="3"/>
+      <c r="B49" s="4"/>
+      <c r="E49" s="4"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B50" s="5"/>
-      <c r="E50" s="3"/>
+      <c r="B50" s="4"/>
+      <c r="E50" s="4"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B51" s="5"/>
-      <c r="E51" s="3"/>
+      <c r="B51" s="4"/>
+      <c r="E51" s="4"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B52" s="5"/>
-      <c r="E52" s="3"/>
+      <c r="B52" s="4"/>
+      <c r="E52" s="4"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B53" s="5"/>
-      <c r="E53" s="3"/>
+      <c r="B53" s="4"/>
+      <c r="E53" s="4"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B54" s="5"/>
-      <c r="E54" s="3"/>
+      <c r="B54" s="4"/>
+      <c r="E54" s="4"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B55" s="5"/>
-      <c r="E55" s="3"/>
+      <c r="B55" s="4"/>
+      <c r="E55" s="4"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B56" s="5"/>
-      <c r="E56" s="3"/>
+      <c r="B56" s="4"/>
+      <c r="E56" s="4"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B57" s="5"/>
-      <c r="E57" s="3"/>
+      <c r="B57" s="4"/>
+      <c r="E57" s="4"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B58" s="5"/>
-      <c r="E58" s="3"/>
+      <c r="B58" s="4"/>
+      <c r="E58" s="4"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B59" s="5"/>
-      <c r="E59" s="3"/>
+      <c r="B59" s="4"/>
+      <c r="E59" s="4"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B60" s="5"/>
-      <c r="E60" s="3"/>
+      <c r="B60" s="4"/>
+      <c r="E60" s="4"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B61" s="5"/>
-      <c r="E61" s="3"/>
+      <c r="B61" s="4"/>
+      <c r="E61" s="4"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B62" s="5"/>
-      <c r="E62" s="3"/>
+      <c r="B62" s="4"/>
+      <c r="E62" s="4"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B63" s="5"/>
-      <c r="E63" s="3"/>
+      <c r="B63" s="4"/>
+      <c r="E63" s="4"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B64" s="5"/>
-      <c r="E64" s="3"/>
+      <c r="B64" s="4"/>
+      <c r="E64" s="4"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B65" s="5"/>
-      <c r="E65" s="3"/>
+      <c r="B65" s="4"/>
+      <c r="E65" s="4"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B66" s="5"/>
-      <c r="E66" s="3"/>
+      <c r="B66" s="4"/>
+      <c r="E66" s="4"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B67" s="5"/>
-      <c r="E67" s="3"/>
+      <c r="B67" s="4"/>
+      <c r="E67" s="4"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B68" s="5"/>
-      <c r="E68" s="3"/>
+      <c r="B68" s="4"/>
+      <c r="E68" s="4"/>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B69" s="5"/>
-      <c r="E69" s="3"/>
+      <c r="B69" s="4"/>
+      <c r="E69" s="4"/>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B70" s="5"/>
-      <c r="E70" s="3"/>
+      <c r="B70" s="4"/>
+      <c r="E70" s="4"/>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B71" s="5"/>
-      <c r="E71" s="3"/>
+      <c r="B71" s="4"/>
+      <c r="E71" s="4"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B72" s="5"/>
-      <c r="E72" s="3"/>
+      <c r="B72" s="4"/>
+      <c r="E72" s="4"/>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B73" s="5"/>
-      <c r="E73" s="3"/>
+      <c r="B73" s="4"/>
+      <c r="E73" s="4"/>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B74" s="5"/>
-      <c r="E74" s="3"/>
+      <c r="B74" s="4"/>
+      <c r="E74" s="4"/>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B75" s="5"/>
-      <c r="E75" s="3"/>
+      <c r="B75" s="4"/>
+      <c r="E75" s="4"/>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B76" s="5"/>
-      <c r="E76" s="3"/>
+      <c r="B76" s="4"/>
+      <c r="E76" s="4"/>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B77" s="5"/>
-      <c r="E77" s="3"/>
+      <c r="B77" s="4"/>
+      <c r="E77" s="4"/>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B78" s="5"/>
-      <c r="E78" s="3"/>
+      <c r="B78" s="4"/>
+      <c r="E78" s="4"/>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B79" s="5"/>
-      <c r="E79" s="3"/>
+      <c r="B79" s="4"/>
+      <c r="E79" s="4"/>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B80" s="5"/>
-      <c r="E80" s="3"/>
+      <c r="B80" s="4"/>
+      <c r="E80" s="4"/>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B81" s="5"/>
-      <c r="E81" s="3"/>
+      <c r="B81" s="4"/>
+      <c r="E81" s="4"/>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B82" s="5"/>
-      <c r="E82" s="3"/>
+      <c r="B82" s="4"/>
+      <c r="E82" s="4"/>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B83" s="5"/>
-      <c r="E83" s="3"/>
+      <c r="B83" s="4"/>
+      <c r="E83" s="4"/>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B84" s="5"/>
-      <c r="E84" s="3"/>
+      <c r="B84" s="4"/>
+      <c r="E84" s="4"/>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B85" s="5"/>
-      <c r="E85" s="3"/>
+      <c r="B85" s="4"/>
+      <c r="E85" s="4"/>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B86" s="5"/>
-      <c r="E86" s="3"/>
+      <c r="B86" s="4"/>
+      <c r="E86" s="4"/>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B87" s="5"/>
-      <c r="E87" s="3"/>
+      <c r="B87" s="4"/>
+      <c r="E87" s="4"/>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B88" s="5"/>
-      <c r="E88" s="3"/>
+      <c r="B88" s="4"/>
+      <c r="E88" s="4"/>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B89" s="5"/>
-      <c r="E89" s="3"/>
+      <c r="B89" s="4"/>
+      <c r="E89" s="4"/>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B90" s="5"/>
-      <c r="E90" s="3"/>
+      <c r="B90" s="4"/>
+      <c r="E90" s="4"/>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B91" s="5"/>
-      <c r="E91" s="3"/>
+      <c r="B91" s="4"/>
+      <c r="E91" s="4"/>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B92" s="5"/>
-      <c r="E92" s="3"/>
+      <c r="B92" s="4"/>
+      <c r="E92" s="4"/>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B93" s="5"/>
-      <c r="E93" s="3"/>
+      <c r="B93" s="4"/>
+      <c r="E93" s="4"/>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B94" s="5"/>
-      <c r="E94" s="3"/>
+      <c r="B94" s="4"/>
+      <c r="E94" s="4"/>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B95" s="5"/>
-      <c r="E95" s="3"/>
+      <c r="B95" s="4"/>
+      <c r="E95" s="4"/>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B96" s="5"/>
-      <c r="E96" s="3"/>
+      <c r="B96" s="4"/>
+      <c r="E96" s="4"/>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B97" s="5"/>
-      <c r="E97" s="3"/>
+      <c r="B97" s="4"/>
+      <c r="E97" s="4"/>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B98" s="5"/>
-      <c r="E98" s="3"/>
+      <c r="B98" s="4"/>
+      <c r="E98" s="4"/>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B99" s="5"/>
-      <c r="E99" s="3"/>
+      <c r="B99" s="4"/>
+      <c r="E99" s="4"/>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B100" s="5"/>
-      <c r="E100" s="3"/>
+      <c r="B100" s="4"/>
+      <c r="E100" s="4"/>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B101" s="5"/>
-      <c r="E101" s="3"/>
+      <c r="B101" s="4"/>
+      <c r="E101" s="4"/>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B102" s="5"/>
-      <c r="E102" s="3"/>
+      <c r="B102" s="4"/>
+      <c r="E102" s="4"/>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B103" s="5"/>
-      <c r="E103" s="3"/>
+      <c r="B103" s="4"/>
+      <c r="E103" s="4"/>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B104" s="5"/>
-      <c r="E104" s="3"/>
+      <c r="B104" s="4"/>
+      <c r="E104" s="4"/>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B105" s="5"/>
-      <c r="E105" s="3"/>
+      <c r="B105" s="4"/>
+      <c r="E105" s="4"/>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B106" s="5"/>
-      <c r="E106" s="3"/>
+      <c r="B106" s="4"/>
+      <c r="E106" s="4"/>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B107" s="5"/>
-      <c r="E107" s="3"/>
+      <c r="B107" s="4"/>
+      <c r="E107" s="4"/>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B108" s="5"/>
-      <c r="E108" s="3"/>
+      <c r="B108" s="4"/>
+      <c r="E108" s="4"/>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B109" s="5"/>
-      <c r="E109" s="3"/>
+      <c r="B109" s="4"/>
+      <c r="E109" s="4"/>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B110" s="5"/>
-      <c r="E110" s="3"/>
+      <c r="B110" s="4"/>
+      <c r="E110" s="4"/>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B111" s="5"/>
-      <c r="E111" s="3"/>
+      <c r="B111" s="4"/>
+      <c r="E111" s="4"/>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B112" s="5"/>
-      <c r="E112" s="3"/>
+      <c r="B112" s="4"/>
+      <c r="E112" s="4"/>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B113" s="5"/>
-      <c r="E113" s="3"/>
+      <c r="B113" s="4"/>
+      <c r="E113" s="4"/>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B114" s="5"/>
-      <c r="E114" s="3"/>
+      <c r="B114" s="4"/>
+      <c r="E114" s="4"/>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B115" s="5"/>
-      <c r="E115" s="3"/>
+      <c r="B115" s="4"/>
+      <c r="E115" s="4"/>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B116" s="5"/>
-      <c r="E116" s="3"/>
+      <c r="B116" s="4"/>
+      <c r="E116" s="4"/>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B117" s="5"/>
-      <c r="E117" s="3"/>
+      <c r="B117" s="4"/>
+      <c r="E117" s="4"/>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B118" s="5"/>
-      <c r="E118" s="3"/>
+      <c r="B118" s="4"/>
+      <c r="E118" s="4"/>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B119" s="5"/>
-      <c r="E119" s="3"/>
+      <c r="B119" s="4"/>
+      <c r="E119" s="4"/>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B120" s="5"/>
-      <c r="E120" s="3"/>
+      <c r="B120" s="4"/>
+      <c r="E120" s="4"/>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B121" s="5"/>
-      <c r="E121" s="3"/>
+      <c r="B121" s="4"/>
+      <c r="E121" s="4"/>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B122" s="5"/>
-      <c r="E122" s="3"/>
+      <c r="B122" s="4"/>
+      <c r="E122" s="4"/>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B123" s="5"/>
-      <c r="E123" s="3"/>
+      <c r="B123" s="4"/>
+      <c r="E123" s="4"/>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B124" s="5"/>
-      <c r="E124" s="3"/>
+      <c r="B124" s="4"/>
+      <c r="E124" s="4"/>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B125" s="5"/>
-      <c r="E125" s="3"/>
+      <c r="B125" s="4"/>
+      <c r="E125" s="4"/>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B126" s="5"/>
-      <c r="E126" s="3"/>
+      <c r="B126" s="4"/>
+      <c r="E126" s="4"/>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B127" s="5"/>
-      <c r="E127" s="3"/>
+      <c r="B127" s="4"/>
+      <c r="E127" s="4"/>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B128" s="5"/>
-      <c r="E128" s="3"/>
+      <c r="B128" s="4"/>
+      <c r="E128" s="4"/>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B129" s="5"/>
-      <c r="E129" s="3"/>
+      <c r="B129" s="4"/>
+      <c r="E129" s="4"/>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B130" s="5"/>
-      <c r="E130" s="3"/>
+      <c r="B130" s="4"/>
+      <c r="E130" s="4"/>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B131" s="5"/>
-      <c r="E131" s="3"/>
+      <c r="B131" s="4"/>
+      <c r="E131" s="4"/>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B132" s="5"/>
-      <c r="E132" s="3"/>
+      <c r="B132" s="4"/>
+      <c r="E132" s="4"/>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B133" s="5"/>
-      <c r="E133" s="3"/>
+      <c r="B133" s="4"/>
+      <c r="E133" s="4"/>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B134" s="5"/>
-      <c r="E134" s="3"/>
+      <c r="B134" s="4"/>
+      <c r="E134" s="4"/>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B135" s="5"/>
-      <c r="E135" s="3"/>
+      <c r="B135" s="4"/>
+      <c r="E135" s="4"/>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B136" s="5"/>
-      <c r="E136" s="3"/>
+      <c r="B136" s="4"/>
+      <c r="E136" s="4"/>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B137" s="5"/>
-      <c r="E137" s="3"/>
+      <c r="B137" s="4"/>
+      <c r="E137" s="4"/>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B138" s="5"/>
-      <c r="E138" s="3"/>
+      <c r="B138" s="4"/>
+      <c r="E138" s="4"/>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B139" s="5"/>
-      <c r="E139" s="3"/>
+      <c r="B139" s="4"/>
+      <c r="E139" s="4"/>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B140" s="5"/>
-      <c r="E140" s="3"/>
+      <c r="B140" s="4"/>
+      <c r="E140" s="4"/>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B141" s="5"/>
-      <c r="E141" s="3"/>
+      <c r="B141" s="4"/>
+      <c r="E141" s="4"/>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B142" s="5"/>
-      <c r="E142" s="3"/>
+      <c r="B142" s="4"/>
+      <c r="E142" s="4"/>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B143" s="5"/>
-      <c r="E143" s="3"/>
+      <c r="B143" s="4"/>
+      <c r="E143" s="4"/>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B144" s="5"/>
-      <c r="E144" s="3"/>
+      <c r="B144" s="4"/>
+      <c r="E144" s="4"/>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B145" s="5"/>
-      <c r="E145" s="3"/>
+      <c r="B145" s="4"/>
+      <c r="E145" s="4"/>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B146" s="5"/>
-      <c r="E146" s="3"/>
+      <c r="B146" s="4"/>
+      <c r="E146" s="4"/>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B147" s="5"/>
-      <c r="E147" s="3"/>
+      <c r="B147" s="4"/>
+      <c r="E147" s="4"/>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B148" s="5"/>
-      <c r="E148" s="3"/>
+      <c r="B148" s="4"/>
+      <c r="E148" s="4"/>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B149" s="5"/>
-      <c r="E149" s="3"/>
+      <c r="B149" s="4"/>
+      <c r="E149" s="4"/>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B150" s="5"/>
-      <c r="E150" s="3"/>
+      <c r="B150" s="4"/>
+      <c r="E150" s="4"/>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B151" s="5"/>
-      <c r="E151" s="3"/>
+      <c r="B151" s="4"/>
+      <c r="E151" s="4"/>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B152" s="5"/>
-      <c r="E152" s="3"/>
+      <c r="B152" s="4"/>
+      <c r="E152" s="4"/>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B153" s="5"/>
-      <c r="E153" s="3"/>
+      <c r="B153" s="4"/>
+      <c r="E153" s="4"/>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B154" s="5"/>
-      <c r="E154" s="3"/>
+      <c r="B154" s="4"/>
+      <c r="E154" s="4"/>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B155" s="5"/>
-      <c r="E155" s="3"/>
+      <c r="B155" s="4"/>
+      <c r="E155" s="4"/>
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B156" s="5"/>
-      <c r="E156" s="3"/>
+      <c r="B156" s="4"/>
+      <c r="E156" s="4"/>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B157" s="5"/>
-      <c r="E157" s="3"/>
+      <c r="B157" s="4"/>
+      <c r="E157" s="4"/>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B158" s="5"/>
-      <c r="E158" s="3"/>
+      <c r="B158" s="4"/>
+      <c r="E158" s="4"/>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B159" s="5"/>
-      <c r="E159" s="3"/>
+      <c r="B159" s="4"/>
+      <c r="E159" s="4"/>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B160" s="5"/>
-      <c r="E160" s="3"/>
+      <c r="B160" s="4"/>
+      <c r="E160" s="4"/>
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B161" s="5"/>
-      <c r="E161" s="3"/>
+      <c r="B161" s="4"/>
+      <c r="E161" s="4"/>
     </row>
     <row r="162" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B162" s="5"/>
-      <c r="E162" s="3"/>
+      <c r="B162" s="4"/>
+      <c r="E162" s="4"/>
     </row>
     <row r="163" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B163" s="5"/>
-      <c r="E163" s="3"/>
+      <c r="B163" s="4"/>
+      <c r="E163" s="4"/>
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B164" s="5"/>
-      <c r="E164" s="3"/>
+      <c r="B164" s="4"/>
+      <c r="E164" s="4"/>
     </row>
     <row r="165" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B165" s="5"/>
-      <c r="E165" s="3"/>
+      <c r="B165" s="4"/>
+      <c r="E165" s="4"/>
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B166" s="5"/>
-      <c r="E166" s="3"/>
+      <c r="B166" s="4"/>
+      <c r="E166" s="4"/>
     </row>
     <row r="167" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B167" s="5"/>
-      <c r="E167" s="3"/>
+      <c r="B167" s="4"/>
+      <c r="E167" s="4"/>
     </row>
     <row r="168" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B168" s="5"/>
-      <c r="E168" s="3"/>
+      <c r="B168" s="4"/>
+      <c r="E168" s="4"/>
     </row>
     <row r="169" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B169" s="5"/>
-      <c r="E169" s="3"/>
+      <c r="B169" s="4"/>
+      <c r="E169" s="4"/>
     </row>
     <row r="170" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B170" s="5"/>
-      <c r="E170" s="3"/>
+      <c r="B170" s="4"/>
+      <c r="E170" s="4"/>
     </row>
     <row r="171" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B171" s="5"/>
-      <c r="E171" s="3"/>
+      <c r="B171" s="4"/>
+      <c r="E171" s="4"/>
     </row>
     <row r="172" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B172" s="5"/>
-      <c r="E172" s="3"/>
+      <c r="B172" s="4"/>
+      <c r="E172" s="4"/>
     </row>
     <row r="173" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B173" s="5"/>
-      <c r="E173" s="3"/>
+      <c r="B173" s="4"/>
+      <c r="E173" s="4"/>
     </row>
     <row r="174" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B174" s="5"/>
-      <c r="E174" s="3"/>
+      <c r="B174" s="4"/>
+      <c r="E174" s="4"/>
     </row>
     <row r="175" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B175" s="5"/>
-      <c r="E175" s="3"/>
+      <c r="B175" s="4"/>
+      <c r="E175" s="4"/>
     </row>
     <row r="176" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B176" s="5"/>
-      <c r="E176" s="3"/>
+      <c r="B176" s="4"/>
+      <c r="E176" s="4"/>
     </row>
     <row r="177" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B177" s="5"/>
-      <c r="E177" s="3"/>
+      <c r="B177" s="4"/>
+      <c r="E177" s="4"/>
     </row>
     <row r="178" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B178" s="5"/>
-      <c r="E178" s="3"/>
+      <c r="B178" s="4"/>
+      <c r="E178" s="4"/>
     </row>
     <row r="179" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B179" s="5"/>
-      <c r="E179" s="3"/>
+      <c r="B179" s="4"/>
+      <c r="E179" s="4"/>
     </row>
     <row r="180" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B180" s="5"/>
-      <c r="E180" s="3"/>
+      <c r="B180" s="4"/>
+      <c r="E180" s="4"/>
     </row>
     <row r="181" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B181" s="5"/>
-      <c r="E181" s="3"/>
+      <c r="B181" s="4"/>
+      <c r="E181" s="4"/>
     </row>
     <row r="182" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B182" s="5"/>
-      <c r="E182" s="3"/>
+      <c r="B182" s="4"/>
+      <c r="E182" s="4"/>
     </row>
     <row r="183" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B183" s="5"/>
-      <c r="E183" s="3"/>
+      <c r="B183" s="4"/>
+      <c r="E183" s="4"/>
     </row>
     <row r="184" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B184" s="5"/>
-      <c r="E184" s="3"/>
+      <c r="B184" s="4"/>
+      <c r="E184" s="4"/>
     </row>
     <row r="185" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B185" s="5"/>
-      <c r="E185" s="3"/>
+      <c r="B185" s="4"/>
+      <c r="E185" s="4"/>
     </row>
     <row r="186" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B186" s="5"/>
-      <c r="E186" s="3"/>
+      <c r="B186" s="4"/>
+      <c r="E186" s="4"/>
     </row>
     <row r="187" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B187" s="5"/>
-      <c r="E187" s="3"/>
+      <c r="B187" s="4"/>
+      <c r="E187" s="4"/>
     </row>
     <row r="188" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B188" s="5"/>
-      <c r="E188" s="3"/>
+      <c r="B188" s="4"/>
+      <c r="E188" s="4"/>
     </row>
     <row r="189" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B189" s="5"/>
-      <c r="E189" s="3"/>
+      <c r="B189" s="4"/>
+      <c r="E189" s="4"/>
     </row>
     <row r="190" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B190" s="5"/>
-      <c r="E190" s="3"/>
+      <c r="B190" s="4"/>
+      <c r="E190" s="4"/>
     </row>
     <row r="191" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B191" s="5"/>
-      <c r="E191" s="3"/>
+      <c r="B191" s="4"/>
+      <c r="E191" s="4"/>
     </row>
     <row r="192" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B192" s="5"/>
-      <c r="E192" s="3"/>
+      <c r="B192" s="4"/>
+      <c r="E192" s="4"/>
     </row>
     <row r="193" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B193" s="5"/>
-      <c r="E193" s="3"/>
+      <c r="B193" s="4"/>
+      <c r="E193" s="4"/>
     </row>
     <row r="194" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B194" s="5"/>
-      <c r="E194" s="3"/>
+      <c r="B194" s="4"/>
+      <c r="E194" s="4"/>
     </row>
     <row r="195" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B195" s="5"/>
-      <c r="E195" s="3"/>
+      <c r="B195" s="4"/>
+      <c r="E195" s="4"/>
     </row>
     <row r="196" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B196" s="5"/>
-      <c r="E196" s="3"/>
+      <c r="B196" s="4"/>
+      <c r="E196" s="4"/>
     </row>
     <row r="197" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B197" s="5"/>
-      <c r="E197" s="3"/>
+      <c r="B197" s="4"/>
+      <c r="E197" s="4"/>
     </row>
     <row r="198" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B198" s="5"/>
-      <c r="E198" s="3"/>
+      <c r="B198" s="4"/>
+      <c r="E198" s="4"/>
     </row>
     <row r="199" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B199" s="5"/>
-      <c r="E199" s="3"/>
+      <c r="B199" s="4"/>
+      <c r="E199" s="4"/>
     </row>
     <row r="200" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B200" s="5"/>
-      <c r="E200" s="3"/>
+      <c r="B200" s="4"/>
+      <c r="E200" s="4"/>
     </row>
     <row r="201" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B201" s="5"/>
-      <c r="E201" s="3"/>
+      <c r="B201" s="4"/>
+      <c r="E201" s="4"/>
     </row>
     <row r="202" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B202" s="5"/>
-      <c r="E202" s="3"/>
+      <c r="B202" s="4"/>
+      <c r="E202" s="4"/>
     </row>
     <row r="203" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B203" s="5"/>
-      <c r="E203" s="3"/>
+      <c r="B203" s="4"/>
+      <c r="E203" s="4"/>
     </row>
     <row r="204" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B204" s="5"/>
-      <c r="E204" s="3"/>
+      <c r="B204" s="4"/>
+      <c r="E204" s="4"/>
     </row>
     <row r="205" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B205" s="5"/>
-      <c r="E205" s="3"/>
+      <c r="B205" s="4"/>
+      <c r="E205" s="4"/>
     </row>
     <row r="206" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B206" s="5"/>
-      <c r="E206" s="3"/>
+      <c r="B206" s="4"/>
+      <c r="E206" s="4"/>
     </row>
     <row r="207" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B207" s="5"/>
-      <c r="E207" s="3"/>
+      <c r="B207" s="4"/>
+      <c r="E207" s="4"/>
     </row>
     <row r="208" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B208" s="5"/>
-      <c r="E208" s="3"/>
+      <c r="B208" s="4"/>
+      <c r="E208" s="4"/>
     </row>
     <row r="209" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B209" s="5"/>
-      <c r="E209" s="3"/>
+      <c r="B209" s="4"/>
+      <c r="E209" s="4"/>
     </row>
     <row r="210" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B210" s="5"/>
-      <c r="E210" s="3"/>
+      <c r="B210" s="4"/>
+      <c r="E210" s="4"/>
     </row>
     <row r="211" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B211" s="5"/>
-      <c r="E211" s="3"/>
+      <c r="B211" s="4"/>
+      <c r="E211" s="4"/>
     </row>
     <row r="212" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B212" s="5"/>
-      <c r="E212" s="3"/>
+      <c r="B212" s="4"/>
+      <c r="E212" s="4"/>
     </row>
     <row r="213" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B213" s="5"/>
-      <c r="E213" s="3"/>
+      <c r="B213" s="4"/>
+      <c r="E213" s="4"/>
     </row>
     <row r="214" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B214" s="5"/>
-      <c r="E214" s="3"/>
+      <c r="B214" s="4"/>
+      <c r="E214" s="4"/>
     </row>
     <row r="215" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B215" s="5"/>
-      <c r="E215" s="3"/>
+      <c r="B215" s="4"/>
+      <c r="E215" s="4"/>
     </row>
     <row r="216" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B216" s="5"/>
-      <c r="E216" s="3"/>
+      <c r="B216" s="4"/>
+      <c r="E216" s="4"/>
     </row>
     <row r="217" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B217" s="5"/>
-      <c r="E217" s="3"/>
+      <c r="B217" s="4"/>
+      <c r="E217" s="4"/>
     </row>
     <row r="218" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B218" s="5"/>
-      <c r="E218" s="3"/>
+      <c r="B218" s="4"/>
+      <c r="E218" s="4"/>
     </row>
     <row r="219" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B219" s="5"/>
-      <c r="E219" s="3"/>
+      <c r="B219" s="4"/>
+      <c r="E219" s="4"/>
     </row>
     <row r="220" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B220" s="5"/>
-      <c r="E220" s="3"/>
+      <c r="B220" s="4"/>
+      <c r="E220" s="4"/>
     </row>
     <row r="221" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B221" s="5"/>
-      <c r="E221" s="3"/>
+      <c r="B221" s="4"/>
+      <c r="E221" s="4"/>
     </row>
     <row r="222" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B222" s="5"/>
-      <c r="E222" s="3"/>
+      <c r="B222" s="4"/>
+      <c r="E222" s="4"/>
     </row>
     <row r="223" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B223" s="5"/>
-      <c r="E223" s="3"/>
+      <c r="B223" s="4"/>
+      <c r="E223" s="4"/>
     </row>
     <row r="224" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B224" s="5"/>
-      <c r="E224" s="3"/>
+      <c r="B224" s="4"/>
+      <c r="E224" s="4"/>
     </row>
     <row r="225" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B225" s="5"/>
-      <c r="E225" s="3"/>
+      <c r="B225" s="4"/>
+      <c r="E225" s="4"/>
     </row>
     <row r="226" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B226" s="5"/>
-      <c r="E226" s="3"/>
+      <c r="B226" s="4"/>
+      <c r="E226" s="4"/>
     </row>
     <row r="227" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B227" s="5"/>
-      <c r="E227" s="3"/>
+      <c r="B227" s="4"/>
+      <c r="E227" s="4"/>
     </row>
     <row r="228" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B228" s="5"/>
-      <c r="E228" s="3"/>
+      <c r="B228" s="4"/>
+      <c r="E228" s="4"/>
     </row>
     <row r="229" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B229" s="5"/>
-      <c r="E229" s="3"/>
+      <c r="B229" s="4"/>
+      <c r="E229" s="4"/>
     </row>
     <row r="230" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B230" s="5"/>
-      <c r="E230" s="3"/>
+      <c r="B230" s="4"/>
+      <c r="E230" s="4"/>
     </row>
     <row r="231" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B231" s="5"/>
-      <c r="E231" s="3"/>
+      <c r="B231" s="4"/>
+      <c r="E231" s="4"/>
     </row>
     <row r="232" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B232" s="5"/>
-      <c r="E232" s="3"/>
+      <c r="B232" s="4"/>
+      <c r="E232" s="4"/>
     </row>
     <row r="233" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B233" s="5"/>
-      <c r="E233" s="3"/>
+      <c r="B233" s="4"/>
+      <c r="E233" s="4"/>
     </row>
     <row r="234" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B234" s="5"/>
-      <c r="E234" s="3"/>
+      <c r="B234" s="4"/>
+      <c r="E234" s="4"/>
     </row>
     <row r="235" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B235" s="5"/>
-      <c r="E235" s="3"/>
+      <c r="B235" s="4"/>
+      <c r="E235" s="4"/>
     </row>
     <row r="236" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B236" s="5"/>
-      <c r="E236" s="3"/>
+      <c r="B236" s="4"/>
+      <c r="E236" s="4"/>
     </row>
     <row r="237" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B237" s="5"/>
-      <c r="E237" s="3"/>
+      <c r="B237" s="4"/>
+      <c r="E237" s="4"/>
     </row>
     <row r="238" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B238" s="5"/>
-      <c r="E238" s="3"/>
+      <c r="B238" s="4"/>
+      <c r="E238" s="4"/>
     </row>
     <row r="239" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B239" s="5"/>
-      <c r="E239" s="3"/>
+      <c r="B239" s="4"/>
+      <c r="E239" s="4"/>
     </row>
     <row r="240" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B240" s="5"/>
-      <c r="E240" s="3"/>
+      <c r="B240" s="4"/>
+      <c r="E240" s="4"/>
     </row>
     <row r="241" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B241" s="5"/>
-      <c r="E241" s="3"/>
+      <c r="B241" s="4"/>
+      <c r="E241" s="4"/>
     </row>
     <row r="242" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B242" s="5"/>
-      <c r="E242" s="3"/>
+      <c r="B242" s="4"/>
+      <c r="E242" s="4"/>
     </row>
     <row r="243" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B243" s="5"/>
-      <c r="E243" s="3"/>
+      <c r="B243" s="4"/>
+      <c r="E243" s="4"/>
     </row>
     <row r="244" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B244" s="5"/>
-      <c r="E244" s="3"/>
+      <c r="B244" s="4"/>
+      <c r="E244" s="4"/>
     </row>
     <row r="245" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B245" s="5"/>
-      <c r="E245" s="3"/>
+      <c r="B245" s="4"/>
+      <c r="E245" s="4"/>
     </row>
     <row r="246" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B246" s="5"/>
-      <c r="E246" s="3"/>
+      <c r="B246" s="4"/>
+      <c r="E246" s="4"/>
     </row>
     <row r="247" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B247" s="5"/>
-      <c r="E247" s="3"/>
+      <c r="B247" s="4"/>
+      <c r="E247" s="4"/>
     </row>
     <row r="248" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B248" s="5"/>
-      <c r="E248" s="3"/>
+      <c r="B248" s="4"/>
+      <c r="E248" s="4"/>
     </row>
     <row r="249" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B249" s="5"/>
-      <c r="E249" s="3"/>
+      <c r="B249" s="4"/>
+      <c r="E249" s="4"/>
     </row>
     <row r="250" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B250" s="5"/>
-      <c r="E250" s="3"/>
+      <c r="B250" s="4"/>
+      <c r="E250" s="4"/>
     </row>
     <row r="251" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B251" s="5"/>
-      <c r="E251" s="3"/>
+      <c r="B251" s="4"/>
+      <c r="E251" s="4"/>
     </row>
     <row r="252" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B252" s="5"/>
-      <c r="E252" s="3"/>
+      <c r="B252" s="4"/>
+      <c r="E252" s="4"/>
     </row>
     <row r="253" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B253" s="5"/>
-      <c r="E253" s="3"/>
+      <c r="B253" s="4"/>
+      <c r="E253" s="4"/>
     </row>
     <row r="254" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B254" s="5"/>
-      <c r="E254" s="3"/>
+      <c r="B254" s="4"/>
+      <c r="E254" s="4"/>
     </row>
     <row r="255" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B255" s="5"/>
-      <c r="E255" s="3"/>
+      <c r="B255" s="4"/>
+      <c r="E255" s="4"/>
     </row>
     <row r="256" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B256" s="5"/>
-      <c r="E256" s="3"/>
+      <c r="B256" s="4"/>
+      <c r="E256" s="4"/>
     </row>
     <row r="257" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B257" s="5"/>
-      <c r="E257" s="3"/>
+      <c r="B257" s="4"/>
+      <c r="E257" s="4"/>
     </row>
     <row r="258" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B258" s="5"/>
-      <c r="E258" s="3"/>
+      <c r="B258" s="4"/>
+      <c r="E258" s="4"/>
     </row>
     <row r="259" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B259" s="5"/>
-      <c r="E259" s="3"/>
+      <c r="B259" s="4"/>
+      <c r="E259" s="4"/>
     </row>
     <row r="260" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B260" s="5"/>
-      <c r="E260" s="3"/>
+      <c r="B260" s="4"/>
+      <c r="E260" s="4"/>
     </row>
     <row r="261" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B261" s="5"/>
-      <c r="E261" s="3"/>
+      <c r="B261" s="4"/>
+      <c r="E261" s="4"/>
     </row>
     <row r="262" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B262" s="5"/>
-      <c r="E262" s="3"/>
+      <c r="B262" s="4"/>
+      <c r="E262" s="4"/>
     </row>
     <row r="263" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B263" s="5"/>
-      <c r="E263" s="3"/>
+      <c r="B263" s="4"/>
+      <c r="E263" s="4"/>
     </row>
     <row r="264" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B264" s="5"/>
-      <c r="E264" s="3"/>
+      <c r="B264" s="4"/>
+      <c r="E264" s="4"/>
     </row>
     <row r="265" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B265" s="5"/>
-      <c r="E265" s="3"/>
+      <c r="B265" s="4"/>
+      <c r="E265" s="4"/>
     </row>
     <row r="266" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B266" s="5"/>
-      <c r="E266" s="3"/>
+      <c r="B266" s="4"/>
+      <c r="E266" s="4"/>
     </row>
     <row r="267" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B267" s="5"/>
-      <c r="E267" s="3"/>
+      <c r="B267" s="4"/>
+      <c r="E267" s="4"/>
     </row>
     <row r="268" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B268" s="5"/>
-      <c r="E268" s="3"/>
+      <c r="B268" s="4"/>
+      <c r="E268" s="4"/>
     </row>
     <row r="269" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B269" s="5"/>
-      <c r="E269" s="3"/>
+      <c r="B269" s="4"/>
+      <c r="E269" s="4"/>
     </row>
     <row r="270" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B270" s="5"/>
-      <c r="E270" s="3"/>
+      <c r="B270" s="4"/>
+      <c r="E270" s="4"/>
     </row>
     <row r="271" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B271" s="5"/>
-      <c r="E271" s="3"/>
+      <c r="B271" s="4"/>
+      <c r="E271" s="4"/>
     </row>
     <row r="272" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B272" s="5"/>
-      <c r="E272" s="3"/>
+      <c r="B272" s="4"/>
+      <c r="E272" s="4"/>
     </row>
     <row r="273" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B273" s="5"/>
-      <c r="E273" s="3"/>
+      <c r="B273" s="4"/>
+      <c r="E273" s="4"/>
     </row>
     <row r="274" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B274" s="5"/>
-      <c r="E274" s="3"/>
+      <c r="B274" s="4"/>
+      <c r="E274" s="4"/>
     </row>
     <row r="275" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B275" s="5"/>
-      <c r="E275" s="3"/>
+      <c r="B275" s="4"/>
+      <c r="E275" s="4"/>
     </row>
     <row r="276" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B276" s="5"/>
-      <c r="E276" s="3"/>
+      <c r="B276" s="4"/>
+      <c r="E276" s="4"/>
     </row>
     <row r="277" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B277" s="5"/>
-      <c r="E277" s="3"/>
+      <c r="B277" s="4"/>
+      <c r="E277" s="4"/>
     </row>
     <row r="278" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B278" s="5"/>
-      <c r="E278" s="3"/>
+      <c r="B278" s="4"/>
+      <c r="E278" s="4"/>
     </row>
     <row r="279" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B279" s="5"/>
-      <c r="E279" s="3"/>
+      <c r="B279" s="4"/>
+      <c r="E279" s="4"/>
     </row>
     <row r="280" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B280" s="5"/>
-      <c r="E280" s="3"/>
+      <c r="B280" s="4"/>
+      <c r="E280" s="4"/>
     </row>
     <row r="281" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B281" s="5"/>
-      <c r="E281" s="3"/>
+      <c r="B281" s="4"/>
+      <c r="E281" s="4"/>
     </row>
     <row r="282" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B282" s="5"/>
-      <c r="E282" s="3"/>
+      <c r="B282" s="4"/>
+      <c r="E282" s="4"/>
     </row>
     <row r="283" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B283" s="5"/>
-      <c r="E283" s="3"/>
+      <c r="B283" s="4"/>
+      <c r="E283" s="4"/>
     </row>
     <row r="284" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B284" s="5"/>
-      <c r="E284" s="3"/>
+      <c r="B284" s="4"/>
+      <c r="E284" s="4"/>
     </row>
     <row r="285" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B285" s="5"/>
-      <c r="E285" s="3"/>
+      <c r="B285" s="4"/>
+      <c r="E285" s="4"/>
     </row>
     <row r="286" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B286" s="5"/>
-      <c r="E286" s="3"/>
+      <c r="B286" s="4"/>
+      <c r="E286" s="4"/>
     </row>
     <row r="287" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B287" s="5"/>
-      <c r="E287" s="3"/>
+      <c r="B287" s="4"/>
+      <c r="E287" s="4"/>
     </row>
     <row r="288" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B288" s="5"/>
-      <c r="E288" s="3"/>
+      <c r="B288" s="4"/>
+      <c r="E288" s="4"/>
     </row>
     <row r="289" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B289" s="5"/>
-      <c r="E289" s="3"/>
+      <c r="B289" s="4"/>
+      <c r="E289" s="4"/>
     </row>
     <row r="290" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B290" s="5"/>
-      <c r="E290" s="3"/>
+      <c r="B290" s="4"/>
+      <c r="E290" s="4"/>
     </row>
     <row r="291" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B291" s="5"/>
-      <c r="E291" s="3"/>
+      <c r="B291" s="4"/>
+      <c r="E291" s="4"/>
     </row>
     <row r="292" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B292" s="5"/>
-      <c r="E292" s="3"/>
+      <c r="B292" s="4"/>
+      <c r="E292" s="4"/>
     </row>
     <row r="293" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B293" s="5"/>
-      <c r="E293" s="3"/>
+      <c r="B293" s="4"/>
+      <c r="E293" s="4"/>
     </row>
     <row r="294" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B294" s="5"/>
-      <c r="E294" s="3"/>
+      <c r="B294" s="4"/>
+      <c r="E294" s="4"/>
     </row>
     <row r="295" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B295" s="5"/>
-      <c r="E295" s="3"/>
+      <c r="B295" s="4"/>
+      <c r="E295" s="4"/>
     </row>
     <row r="296" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B296" s="5"/>
-      <c r="E296" s="3"/>
+      <c r="B296" s="4"/>
+      <c r="E296" s="4"/>
     </row>
     <row r="297" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B297" s="5"/>
-      <c r="E297" s="3"/>
+      <c r="B297" s="4"/>
+      <c r="E297" s="4"/>
     </row>
     <row r="298" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B298" s="5"/>
-      <c r="E298" s="3"/>
+      <c r="B298" s="4"/>
+      <c r="E298" s="4"/>
     </row>
     <row r="299" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B299" s="5"/>
-      <c r="E299" s="3"/>
+      <c r="B299" s="4"/>
+      <c r="E299" s="4"/>
     </row>
     <row r="300" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B300" s="5"/>
-      <c r="E300" s="3"/>
+      <c r="B300" s="4"/>
+      <c r="E300" s="4"/>
     </row>
     <row r="301" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B301" s="5"/>
-      <c r="E301" s="3"/>
+      <c r="B301" s="4"/>
+      <c r="E301" s="4"/>
     </row>
     <row r="302" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B302" s="5"/>
-      <c r="E302" s="3"/>
+      <c r="B302" s="4"/>
+      <c r="E302" s="4"/>
     </row>
     <row r="303" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B303" s="5"/>
-      <c r="E303" s="3"/>
+      <c r="B303" s="4"/>
+      <c r="E303" s="4"/>
     </row>
     <row r="304" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B304" s="5"/>
-      <c r="E304" s="3"/>
+      <c r="B304" s="4"/>
+      <c r="E304" s="4"/>
     </row>
     <row r="305" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B305" s="5"/>
-      <c r="E305" s="3"/>
+      <c r="B305" s="4"/>
+      <c r="E305" s="4"/>
     </row>
     <row r="306" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B306" s="5"/>
-      <c r="E306" s="3"/>
+      <c r="B306" s="4"/>
+      <c r="E306" s="4"/>
     </row>
     <row r="307" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B307" s="5"/>
-      <c r="E307" s="3"/>
+      <c r="B307" s="4"/>
+      <c r="E307" s="4"/>
     </row>
     <row r="308" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B308" s="5"/>
-      <c r="E308" s="3"/>
+      <c r="B308" s="4"/>
+      <c r="E308" s="4"/>
     </row>
     <row r="309" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B309" s="5"/>
-      <c r="E309" s="3"/>
+      <c r="B309" s="4"/>
+      <c r="E309" s="4"/>
     </row>
     <row r="310" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B310" s="5"/>
-      <c r="E310" s="3"/>
+      <c r="B310" s="4"/>
+      <c r="E310" s="4"/>
     </row>
     <row r="311" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B311" s="5"/>
-      <c r="E311" s="3"/>
+      <c r="B311" s="4"/>
+      <c r="E311" s="4"/>
     </row>
     <row r="312" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B312" s="5"/>
-      <c r="E312" s="3"/>
+      <c r="B312" s="4"/>
+      <c r="E312" s="4"/>
     </row>
     <row r="313" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B313" s="5"/>
-      <c r="E313" s="3"/>
+      <c r="B313" s="4"/>
+      <c r="E313" s="4"/>
     </row>
     <row r="314" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B314" s="5"/>
-      <c r="E314" s="3"/>
+      <c r="B314" s="4"/>
+      <c r="E314" s="4"/>
     </row>
     <row r="315" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B315" s="5"/>
-      <c r="E315" s="3"/>
+      <c r="B315" s="4"/>
+      <c r="E315" s="4"/>
     </row>
     <row r="316" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B316" s="5"/>
-      <c r="E316" s="3"/>
+      <c r="B316" s="4"/>
+      <c r="E316" s="4"/>
     </row>
     <row r="317" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B317" s="5"/>
-      <c r="E317" s="3"/>
+      <c r="B317" s="4"/>
+      <c r="E317" s="4"/>
     </row>
     <row r="318" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B318" s="5"/>
-      <c r="E318" s="3"/>
+      <c r="B318" s="4"/>
+      <c r="E318" s="4"/>
     </row>
     <row r="319" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B319" s="5"/>
-      <c r="E319" s="3"/>
+      <c r="B319" s="4"/>
+      <c r="E319" s="4"/>
     </row>
     <row r="320" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B320" s="5"/>
-      <c r="E320" s="3"/>
+      <c r="B320" s="4"/>
+      <c r="E320" s="4"/>
     </row>
     <row r="321" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B321" s="5"/>
-      <c r="E321" s="3"/>
+      <c r="B321" s="4"/>
+      <c r="E321" s="4"/>
     </row>
     <row r="322" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B322" s="5"/>
-      <c r="E322" s="3"/>
+      <c r="B322" s="4"/>
+      <c r="E322" s="4"/>
     </row>
     <row r="323" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B323" s="5"/>
-      <c r="E323" s="3"/>
+      <c r="B323" s="4"/>
+      <c r="E323" s="4"/>
     </row>
     <row r="324" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B324" s="5"/>
-      <c r="E324" s="3"/>
+      <c r="B324" s="4"/>
+      <c r="E324" s="4"/>
     </row>
     <row r="325" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B325" s="5"/>
-      <c r="E325" s="3"/>
+      <c r="B325" s="4"/>
+      <c r="E325" s="4"/>
     </row>
     <row r="326" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B326" s="5"/>
-      <c r="E326" s="3"/>
+      <c r="B326" s="4"/>
+      <c r="E326" s="4"/>
     </row>
     <row r="327" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B327" s="5"/>
-      <c r="E327" s="3"/>
+      <c r="B327" s="4"/>
+      <c r="E327" s="4"/>
     </row>
     <row r="328" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B328" s="5"/>
-      <c r="E328" s="3"/>
+      <c r="B328" s="4"/>
+      <c r="E328" s="4"/>
     </row>
     <row r="329" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B329" s="5"/>
-      <c r="E329" s="3"/>
+      <c r="B329" s="4"/>
+      <c r="E329" s="4"/>
     </row>
     <row r="330" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B330" s="5"/>
-      <c r="E330" s="3"/>
+      <c r="B330" s="4"/>
+      <c r="E330" s="4"/>
     </row>
     <row r="331" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B331" s="5"/>
-      <c r="E331" s="3"/>
+      <c r="B331" s="4"/>
+      <c r="E331" s="4"/>
     </row>
     <row r="332" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B332" s="5"/>
-      <c r="E332" s="3"/>
+      <c r="B332" s="4"/>
+      <c r="E332" s="4"/>
     </row>
     <row r="333" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B333" s="5"/>
-      <c r="E333" s="3"/>
+      <c r="B333" s="4"/>
+      <c r="E333" s="4"/>
     </row>
     <row r="334" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B334" s="5"/>
-      <c r="E334" s="3"/>
+      <c r="B334" s="4"/>
+      <c r="E334" s="4"/>
     </row>
     <row r="335" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B335" s="5"/>
-      <c r="E335" s="3"/>
+      <c r="B335" s="4"/>
+      <c r="E335" s="4"/>
     </row>
     <row r="336" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B336" s="5"/>
-      <c r="E336" s="3"/>
+      <c r="B336" s="4"/>
+      <c r="E336" s="4"/>
     </row>
     <row r="337" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B337" s="5"/>
-      <c r="E337" s="3"/>
+      <c r="B337" s="4"/>
+      <c r="E337" s="4"/>
     </row>
     <row r="338" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B338" s="5"/>
-      <c r="E338" s="3"/>
+      <c r="B338" s="4"/>
+      <c r="E338" s="4"/>
     </row>
     <row r="339" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B339" s="5"/>
-      <c r="E339" s="3"/>
+      <c r="B339" s="4"/>
+      <c r="E339" s="4"/>
     </row>
     <row r="340" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B340" s="5"/>
-      <c r="E340" s="3"/>
+      <c r="B340" s="4"/>
+      <c r="E340" s="4"/>
     </row>
     <row r="341" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B341" s="5"/>
-      <c r="E341" s="3"/>
+      <c r="B341" s="4"/>
+      <c r="E341" s="4"/>
     </row>
     <row r="342" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B342" s="5"/>
-      <c r="E342" s="3"/>
+      <c r="B342" s="4"/>
+      <c r="E342" s="4"/>
     </row>
     <row r="343" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B343" s="5"/>
-      <c r="E343" s="3"/>
+      <c r="B343" s="4"/>
+      <c r="E343" s="4"/>
     </row>
     <row r="344" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B344" s="5"/>
-      <c r="E344" s="3"/>
+      <c r="B344" s="4"/>
+      <c r="E344" s="4"/>
     </row>
     <row r="345" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B345" s="5"/>
-      <c r="E345" s="3"/>
+      <c r="B345" s="4"/>
+      <c r="E345" s="4"/>
     </row>
     <row r="346" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B346" s="5"/>
-      <c r="E346" s="3"/>
+      <c r="B346" s="4"/>
+      <c r="E346" s="4"/>
     </row>
     <row r="347" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B347" s="5"/>
-      <c r="E347" s="3"/>
+      <c r="B347" s="4"/>
+      <c r="E347" s="4"/>
     </row>
     <row r="348" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B348" s="5"/>
-      <c r="E348" s="3"/>
+      <c r="B348" s="4"/>
+      <c r="E348" s="4"/>
     </row>
     <row r="349" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B349" s="5"/>
-      <c r="E349" s="3"/>
+      <c r="B349" s="4"/>
+      <c r="E349" s="4"/>
     </row>
     <row r="350" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B350" s="5"/>
-      <c r="E350" s="3"/>
+      <c r="B350" s="4"/>
+      <c r="E350" s="4"/>
     </row>
     <row r="351" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B351" s="5"/>
-      <c r="E351" s="3"/>
+      <c r="B351" s="4"/>
+      <c r="E351" s="4"/>
     </row>
     <row r="352" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B352" s="5"/>
-      <c r="E352" s="3"/>
+      <c r="B352" s="4"/>
+      <c r="E352" s="4"/>
     </row>
     <row r="353" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B353" s="5"/>
-      <c r="E353" s="3"/>
+      <c r="B353" s="4"/>
+      <c r="E353" s="4"/>
     </row>
     <row r="354" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B354" s="5"/>
-      <c r="E354" s="3"/>
+      <c r="B354" s="4"/>
+      <c r="E354" s="4"/>
     </row>
     <row r="355" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B355" s="5"/>
-      <c r="E355" s="3"/>
+      <c r="B355" s="4"/>
+      <c r="E355" s="4"/>
     </row>
     <row r="356" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B356" s="5"/>
-      <c r="E356" s="3"/>
+      <c r="B356" s="4"/>
+      <c r="E356" s="4"/>
     </row>
     <row r="357" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B357" s="5"/>
-      <c r="E357" s="3"/>
+      <c r="B357" s="4"/>
+      <c r="E357" s="4"/>
     </row>
     <row r="358" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B358" s="5"/>
-      <c r="E358" s="3"/>
+      <c r="B358" s="4"/>
+      <c r="E358" s="4"/>
     </row>
     <row r="359" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B359" s="5"/>
-      <c r="E359" s="3"/>
+      <c r="B359" s="4"/>
+      <c r="E359" s="4"/>
     </row>
     <row r="360" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B360" s="5"/>
-      <c r="E360" s="3"/>
+      <c r="B360" s="4"/>
+      <c r="E360" s="4"/>
     </row>
     <row r="361" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B361" s="5"/>
-      <c r="E361" s="3"/>
+      <c r="B361" s="4"/>
+      <c r="E361" s="4"/>
     </row>
     <row r="362" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B362" s="5"/>
-      <c r="E362" s="3"/>
+      <c r="B362" s="4"/>
+      <c r="E362" s="4"/>
     </row>
     <row r="363" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B363" s="5"/>
-      <c r="E363" s="3"/>
+      <c r="B363" s="4"/>
+      <c r="E363" s="4"/>
     </row>
     <row r="364" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B364" s="5"/>
-      <c r="E364" s="3"/>
+      <c r="B364" s="4"/>
+      <c r="E364" s="4"/>
     </row>
     <row r="365" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B365" s="5"/>
-      <c r="E365" s="3"/>
+      <c r="B365" s="4"/>
+      <c r="E365" s="4"/>
     </row>
     <row r="366" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B366" s="5"/>
-      <c r="E366" s="3"/>
+      <c r="B366" s="4"/>
+      <c r="E366" s="4"/>
     </row>
     <row r="367" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B367" s="5"/>
-      <c r="E367" s="3"/>
+      <c r="B367" s="4"/>
+      <c r="E367" s="4"/>
     </row>
     <row r="368" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B368" s="5"/>
-      <c r="E368" s="3"/>
+      <c r="B368" s="4"/>
+      <c r="E368" s="4"/>
     </row>
     <row r="369" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B369" s="5"/>
-      <c r="E369" s="3"/>
+      <c r="B369" s="4"/>
+      <c r="E369" s="4"/>
     </row>
     <row r="370" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B370" s="5"/>
-      <c r="E370" s="3"/>
+      <c r="B370" s="4"/>
+      <c r="E370" s="4"/>
     </row>
     <row r="371" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B371" s="5"/>
-      <c r="E371" s="3"/>
+      <c r="B371" s="4"/>
+      <c r="E371" s="4"/>
     </row>
     <row r="372" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B372" s="5"/>
-      <c r="E372" s="3"/>
+      <c r="B372" s="4"/>
+      <c r="E372" s="4"/>
     </row>
     <row r="373" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B373" s="5"/>
-      <c r="E373" s="3"/>
+      <c r="B373" s="4"/>
+      <c r="E373" s="4"/>
     </row>
     <row r="374" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B374" s="5"/>
-      <c r="E374" s="3"/>
+      <c r="B374" s="4"/>
+      <c r="E374" s="4"/>
     </row>
     <row r="375" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B375" s="5"/>
-      <c r="E375" s="3"/>
+      <c r="B375" s="4"/>
+      <c r="E375" s="4"/>
     </row>
     <row r="376" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B376" s="5"/>
-      <c r="E376" s="3"/>
+      <c r="B376" s="4"/>
+      <c r="E376" s="4"/>
     </row>
     <row r="377" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B377" s="5"/>
-      <c r="E377" s="3"/>
+      <c r="B377" s="4"/>
+      <c r="E377" s="4"/>
     </row>
     <row r="378" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B378" s="5"/>
-      <c r="E378" s="3"/>
+      <c r="B378" s="4"/>
+      <c r="E378" s="4"/>
     </row>
     <row r="379" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B379" s="5"/>
-      <c r="E379" s="3"/>
+      <c r="B379" s="4"/>
+      <c r="E379" s="4"/>
     </row>
     <row r="380" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B380" s="5"/>
-      <c r="E380" s="3"/>
+      <c r="B380" s="4"/>
+      <c r="E380" s="4"/>
     </row>
     <row r="381" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B381" s="5"/>
-      <c r="E381" s="3"/>
+      <c r="B381" s="4"/>
+      <c r="E381" s="4"/>
     </row>
     <row r="382" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B382" s="5"/>
-      <c r="E382" s="3"/>
+      <c r="B382" s="4"/>
+      <c r="E382" s="4"/>
     </row>
     <row r="383" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B383" s="5"/>
-      <c r="E383" s="3"/>
+      <c r="B383" s="4"/>
+      <c r="E383" s="4"/>
     </row>
     <row r="384" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B384" s="5"/>
-      <c r="E384" s="3"/>
+      <c r="B384" s="4"/>
+      <c r="E384" s="4"/>
     </row>
     <row r="385" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B385" s="5"/>
-      <c r="E385" s="3"/>
+      <c r="B385" s="4"/>
+      <c r="E385" s="4"/>
     </row>
     <row r="386" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B386" s="5"/>
-      <c r="E386" s="3"/>
+      <c r="B386" s="4"/>
+      <c r="E386" s="4"/>
     </row>
     <row r="387" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B387" s="5"/>
-      <c r="E387" s="3"/>
+      <c r="B387" s="4"/>
+      <c r="E387" s="4"/>
     </row>
     <row r="388" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B388" s="5"/>
-      <c r="E388" s="3"/>
+      <c r="B388" s="4"/>
+      <c r="E388" s="4"/>
     </row>
     <row r="389" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B389" s="5"/>
-      <c r="E389" s="3"/>
+      <c r="B389" s="4"/>
+      <c r="E389" s="4"/>
     </row>
     <row r="390" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B390" s="5"/>
-      <c r="E390" s="3"/>
+      <c r="B390" s="4"/>
+      <c r="E390" s="4"/>
     </row>
     <row r="391" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B391" s="5"/>
-      <c r="E391" s="3"/>
+      <c r="B391" s="4"/>
+      <c r="E391" s="4"/>
     </row>
     <row r="392" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B392" s="5"/>
-      <c r="E392" s="3"/>
+      <c r="B392" s="4"/>
+      <c r="E392" s="4"/>
     </row>
     <row r="393" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B393" s="5"/>
-      <c r="E393" s="3"/>
+      <c r="B393" s="4"/>
+      <c r="E393" s="4"/>
     </row>
     <row r="394" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B394" s="5"/>
-      <c r="E394" s="3"/>
+      <c r="B394" s="4"/>
+      <c r="E394" s="4"/>
     </row>
     <row r="395" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B395" s="5"/>
-      <c r="E395" s="3"/>
+      <c r="B395" s="4"/>
+      <c r="E395" s="4"/>
     </row>
     <row r="396" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B396" s="5"/>
-      <c r="E396" s="3"/>
+      <c r="B396" s="4"/>
+      <c r="E396" s="4"/>
     </row>
     <row r="397" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B397" s="5"/>
-      <c r="E397" s="3"/>
+      <c r="B397" s="4"/>
+      <c r="E397" s="4"/>
     </row>
     <row r="398" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B398" s="5"/>
-      <c r="E398" s="3"/>
+      <c r="B398" s="4"/>
+      <c r="E398" s="4"/>
     </row>
     <row r="399" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B399" s="5"/>
-      <c r="E399" s="3"/>
+      <c r="B399" s="4"/>
+      <c r="E399" s="4"/>
     </row>
     <row r="400" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B400" s="5"/>
-      <c r="E400" s="3"/>
+      <c r="B400" s="4"/>
+      <c r="E400" s="4"/>
     </row>
     <row r="401" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B401" s="5"/>
-      <c r="E401" s="3"/>
+      <c r="B401" s="4"/>
+      <c r="E401" s="4"/>
     </row>
     <row r="402" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B402" s="5"/>
-      <c r="E402" s="3"/>
+      <c r="B402" s="4"/>
+      <c r="E402" s="4"/>
     </row>
     <row r="403" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B403" s="5"/>
-      <c r="E403" s="3"/>
+      <c r="B403" s="4"/>
+      <c r="E403" s="4"/>
     </row>
     <row r="404" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B404" s="5"/>
-      <c r="E404" s="3"/>
+      <c r="B404" s="4"/>
+      <c r="E404" s="4"/>
     </row>
     <row r="405" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B405" s="5"/>
-      <c r="E405" s="3"/>
+      <c r="B405" s="4"/>
+      <c r="E405" s="4"/>
     </row>
     <row r="406" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B406" s="5"/>
-      <c r="E406" s="3"/>
+      <c r="B406" s="4"/>
+      <c r="E406" s="4"/>
     </row>
     <row r="407" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B407" s="5"/>
-      <c r="E407" s="3"/>
+      <c r="B407" s="4"/>
+      <c r="E407" s="4"/>
     </row>
     <row r="408" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B408" s="5"/>
-      <c r="E408" s="3"/>
+      <c r="B408" s="4"/>
+      <c r="E408" s="4"/>
     </row>
     <row r="409" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B409" s="5"/>
-      <c r="E409" s="3"/>
+      <c r="B409" s="4"/>
+      <c r="E409" s="4"/>
     </row>
     <row r="410" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B410" s="5"/>
-      <c r="E410" s="3"/>
+      <c r="B410" s="4"/>
+      <c r="E410" s="4"/>
     </row>
     <row r="411" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B411" s="5"/>
-      <c r="E411" s="3"/>
+      <c r="B411" s="4"/>
+      <c r="E411" s="4"/>
     </row>
     <row r="412" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B412" s="5"/>
-      <c r="E412" s="3"/>
+      <c r="B412" s="4"/>
+      <c r="E412" s="4"/>
     </row>
     <row r="413" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B413" s="5"/>
-      <c r="E413" s="3"/>
+      <c r="B413" s="4"/>
+      <c r="E413" s="4"/>
     </row>
     <row r="414" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B414" s="5"/>
-      <c r="E414" s="3"/>
+      <c r="B414" s="4"/>
+      <c r="E414" s="4"/>
     </row>
     <row r="415" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B415" s="5"/>
-      <c r="E415" s="3"/>
+      <c r="B415" s="4"/>
+      <c r="E415" s="4"/>
     </row>
     <row r="416" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B416" s="5"/>
-      <c r="E416" s="3"/>
+      <c r="B416" s="4"/>
+      <c r="E416" s="4"/>
     </row>
     <row r="417" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B417" s="5"/>
-      <c r="E417" s="3"/>
+      <c r="B417" s="4"/>
+      <c r="E417" s="4"/>
     </row>
     <row r="418" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B418" s="5"/>
-      <c r="E418" s="3"/>
+      <c r="B418" s="4"/>
+      <c r="E418" s="4"/>
     </row>
     <row r="419" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B419" s="5"/>
-      <c r="E419" s="3"/>
+      <c r="B419" s="4"/>
+      <c r="E419" s="4"/>
     </row>
     <row r="420" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B420" s="5"/>
-      <c r="E420" s="3"/>
+      <c r="B420" s="4"/>
+      <c r="E420" s="4"/>
     </row>
     <row r="421" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B421" s="5"/>
-      <c r="E421" s="3"/>
+      <c r="B421" s="4"/>
+      <c r="E421" s="4"/>
     </row>
     <row r="422" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B422" s="5"/>
-      <c r="E422" s="3"/>
+      <c r="B422" s="4"/>
+      <c r="E422" s="4"/>
     </row>
     <row r="423" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B423" s="5"/>
-      <c r="E423" s="3"/>
+      <c r="B423" s="4"/>
+      <c r="E423" s="4"/>
     </row>
     <row r="424" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B424" s="5"/>
-      <c r="E424" s="3"/>
+      <c r="B424" s="4"/>
+      <c r="E424" s="4"/>
     </row>
     <row r="425" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B425" s="5"/>
-      <c r="E425" s="3"/>
+      <c r="B425" s="4"/>
+      <c r="E425" s="4"/>
     </row>
     <row r="426" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B426" s="5"/>
-      <c r="E426" s="3"/>
+      <c r="B426" s="4"/>
+      <c r="E426" s="4"/>
     </row>
     <row r="427" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B427" s="5"/>
-      <c r="E427" s="3"/>
+      <c r="B427" s="4"/>
+      <c r="E427" s="4"/>
     </row>
     <row r="428" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B428" s="5"/>
-      <c r="E428" s="3"/>
+      <c r="B428" s="4"/>
+      <c r="E428" s="4"/>
     </row>
     <row r="429" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B429" s="5"/>
-      <c r="E429" s="3"/>
+      <c r="B429" s="4"/>
+      <c r="E429" s="4"/>
     </row>
     <row r="430" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B430" s="5"/>
-      <c r="E430" s="3"/>
+      <c r="B430" s="4"/>
+      <c r="E430" s="4"/>
     </row>
     <row r="431" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B431" s="5"/>
-      <c r="E431" s="3"/>
+      <c r="B431" s="4"/>
+      <c r="E431" s="4"/>
     </row>
     <row r="432" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B432" s="5"/>
-      <c r="E432" s="3"/>
+      <c r="B432" s="4"/>
+      <c r="E432" s="4"/>
     </row>
     <row r="433" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B433" s="5"/>
-      <c r="E433" s="3"/>
+      <c r="B433" s="4"/>
+      <c r="E433" s="4"/>
     </row>
     <row r="434" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B434" s="5"/>
-      <c r="E434" s="3"/>
+      <c r="B434" s="4"/>
+      <c r="E434" s="4"/>
     </row>
     <row r="435" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B435" s="5"/>
-      <c r="E435" s="3"/>
+      <c r="B435" s="4"/>
+      <c r="E435" s="4"/>
     </row>
     <row r="436" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B436" s="5"/>
-      <c r="E436" s="3"/>
+      <c r="B436" s="4"/>
+      <c r="E436" s="4"/>
     </row>
     <row r="437" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B437" s="5"/>
-      <c r="E437" s="3"/>
+      <c r="B437" s="4"/>
+      <c r="E437" s="4"/>
     </row>
     <row r="438" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B438" s="5"/>
-      <c r="E438" s="3"/>
+      <c r="B438" s="4"/>
+      <c r="E438" s="4"/>
     </row>
     <row r="439" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B439" s="5"/>
-      <c r="E439" s="3"/>
+      <c r="B439" s="4"/>
+      <c r="E439" s="4"/>
     </row>
     <row r="440" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B440" s="5"/>
-      <c r="E440" s="3"/>
+      <c r="B440" s="4"/>
+      <c r="E440" s="4"/>
     </row>
     <row r="441" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B441" s="5"/>
-      <c r="E441" s="3"/>
+      <c r="B441" s="4"/>
+      <c r="E441" s="4"/>
     </row>
     <row r="442" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B442" s="5"/>
-      <c r="E442" s="3"/>
+      <c r="B442" s="4"/>
+      <c r="E442" s="4"/>
     </row>
     <row r="443" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B443" s="5"/>
-      <c r="E443" s="3"/>
+      <c r="B443" s="4"/>
+      <c r="E443" s="4"/>
     </row>
     <row r="444" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B444" s="5"/>
-      <c r="E444" s="3"/>
+      <c r="B444" s="4"/>
+      <c r="E444" s="4"/>
     </row>
     <row r="445" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B445" s="5"/>
-      <c r="E445" s="3"/>
+      <c r="B445" s="4"/>
+      <c r="E445" s="4"/>
     </row>
     <row r="446" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B446" s="5"/>
-      <c r="E446" s="3"/>
+      <c r="B446" s="4"/>
+      <c r="E446" s="4"/>
     </row>
     <row r="447" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B447" s="5"/>
-      <c r="E447" s="3"/>
+      <c r="B447" s="4"/>
+      <c r="E447" s="4"/>
     </row>
     <row r="448" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B448" s="5"/>
-      <c r="E448" s="3"/>
+      <c r="B448" s="4"/>
+      <c r="E448" s="4"/>
     </row>
     <row r="449" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B449" s="5"/>
-      <c r="E449" s="3"/>
+      <c r="B449" s="4"/>
+      <c r="E449" s="4"/>
     </row>
     <row r="450" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B450" s="5"/>
-      <c r="E450" s="3"/>
+      <c r="B450" s="4"/>
+      <c r="E450" s="4"/>
     </row>
     <row r="451" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B451" s="5"/>
-      <c r="E451" s="3"/>
+      <c r="B451" s="4"/>
+      <c r="E451" s="4"/>
     </row>
     <row r="452" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B452" s="5"/>
-      <c r="E452" s="3"/>
+      <c r="B452" s="4"/>
+      <c r="E452" s="4"/>
     </row>
     <row r="453" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B453" s="5"/>
-      <c r="E453" s="3"/>
+      <c r="B453" s="4"/>
+      <c r="E453" s="4"/>
     </row>
     <row r="454" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B454" s="5"/>
-      <c r="E454" s="3"/>
+      <c r="B454" s="4"/>
+      <c r="E454" s="4"/>
     </row>
     <row r="455" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B455" s="5"/>
-      <c r="E455" s="3"/>
+      <c r="B455" s="4"/>
+      <c r="E455" s="4"/>
     </row>
     <row r="456" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B456" s="5"/>
-      <c r="E456" s="3"/>
+      <c r="B456" s="4"/>
+      <c r="E456" s="4"/>
     </row>
     <row r="457" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B457" s="5"/>
-      <c r="E457" s="3"/>
+      <c r="B457" s="4"/>
+      <c r="E457" s="4"/>
     </row>
     <row r="458" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B458" s="5"/>
-      <c r="E458" s="3"/>
+      <c r="B458" s="4"/>
+      <c r="E458" s="4"/>
     </row>
     <row r="459" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B459" s="5"/>
-      <c r="E459" s="3"/>
+      <c r="B459" s="4"/>
+      <c r="E459" s="4"/>
     </row>
     <row r="460" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B460" s="5"/>
-      <c r="E460" s="3"/>
+      <c r="B460" s="4"/>
+      <c r="E460" s="4"/>
     </row>
     <row r="461" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B461" s="5"/>
-      <c r="E461" s="3"/>
+      <c r="B461" s="4"/>
+      <c r="E461" s="4"/>
     </row>
     <row r="462" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B462" s="5"/>
-      <c r="E462" s="3"/>
+      <c r="B462" s="4"/>
+      <c r="E462" s="4"/>
     </row>
     <row r="463" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B463" s="5"/>
-      <c r="E463" s="3"/>
+      <c r="B463" s="4"/>
+      <c r="E463" s="4"/>
     </row>
     <row r="464" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B464" s="5"/>
-      <c r="E464" s="3"/>
+      <c r="B464" s="4"/>
+      <c r="E464" s="4"/>
     </row>
     <row r="465" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B465" s="5"/>
-      <c r="E465" s="3"/>
+      <c r="B465" s="4"/>
+      <c r="E465" s="4"/>
     </row>
     <row r="466" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B466" s="5"/>
-      <c r="E466" s="3"/>
+      <c r="B466" s="4"/>
+      <c r="E466" s="4"/>
     </row>
     <row r="467" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B467" s="5"/>
-      <c r="E467" s="3"/>
+      <c r="B467" s="4"/>
+      <c r="E467" s="4"/>
     </row>
     <row r="468" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B468" s="5"/>
-      <c r="E468" s="3"/>
+      <c r="B468" s="4"/>
+      <c r="E468" s="4"/>
     </row>
     <row r="469" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B469" s="5"/>
-      <c r="E469" s="3"/>
+      <c r="B469" s="4"/>
+      <c r="E469" s="4"/>
     </row>
     <row r="470" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B470" s="5"/>
-      <c r="E470" s="3"/>
+      <c r="B470" s="4"/>
+      <c r="E470" s="4"/>
     </row>
     <row r="471" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B471" s="5"/>
-      <c r="E471" s="3"/>
+      <c r="B471" s="4"/>
+      <c r="E471" s="4"/>
     </row>
     <row r="472" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B472" s="5"/>
-      <c r="E472" s="3"/>
+      <c r="B472" s="4"/>
+      <c r="E472" s="4"/>
     </row>
     <row r="473" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B473" s="5"/>
-      <c r="E473" s="3"/>
+      <c r="B473" s="4"/>
+      <c r="E473" s="4"/>
     </row>
     <row r="474" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B474" s="5"/>
-      <c r="E474" s="3"/>
+      <c r="B474" s="4"/>
+      <c r="E474" s="4"/>
     </row>
     <row r="475" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B475" s="5"/>
-      <c r="E475" s="3"/>
+      <c r="B475" s="4"/>
+      <c r="E475" s="4"/>
     </row>
     <row r="476" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B476" s="5"/>
-      <c r="E476" s="3"/>
+      <c r="B476" s="4"/>
+      <c r="E476" s="4"/>
     </row>
     <row r="477" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B477" s="5"/>
-      <c r="E477" s="3"/>
+      <c r="B477" s="4"/>
+      <c r="E477" s="4"/>
     </row>
     <row r="478" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B478" s="5"/>
-      <c r="E478" s="3"/>
+      <c r="B478" s="4"/>
+      <c r="E478" s="4"/>
     </row>
     <row r="479" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B479" s="5"/>
-      <c r="E479" s="3"/>
+      <c r="B479" s="4"/>
+      <c r="E479" s="4"/>
     </row>
     <row r="480" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B480" s="5"/>
-      <c r="E480" s="3"/>
+      <c r="B480" s="4"/>
+      <c r="E480" s="4"/>
     </row>
     <row r="481" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B481" s="5"/>
-      <c r="E481" s="3"/>
+      <c r="B481" s="4"/>
+      <c r="E481" s="4"/>
     </row>
     <row r="482" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B482" s="5"/>
-      <c r="E482" s="3"/>
+      <c r="B482" s="4"/>
+      <c r="E482" s="4"/>
     </row>
     <row r="483" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B483" s="5"/>
-      <c r="E483" s="3"/>
+      <c r="B483" s="4"/>
+      <c r="E483" s="4"/>
     </row>
     <row r="484" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B484" s="5"/>
-      <c r="E484" s="3"/>
+      <c r="B484" s="4"/>
+      <c r="E484" s="4"/>
     </row>
     <row r="485" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B485" s="5"/>
-      <c r="E485" s="3"/>
+      <c r="B485" s="4"/>
+      <c r="E485" s="4"/>
     </row>
     <row r="486" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B486" s="5"/>
-      <c r="E486" s="3"/>
+      <c r="B486" s="4"/>
+      <c r="E486" s="4"/>
     </row>
     <row r="487" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B487" s="5"/>
-      <c r="E487" s="3"/>
+      <c r="B487" s="4"/>
+      <c r="E487" s="4"/>
     </row>
     <row r="488" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B488" s="5"/>
-      <c r="E488" s="3"/>
+      <c r="B488" s="4"/>
+      <c r="E488" s="4"/>
     </row>
     <row r="489" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B489" s="5"/>
-      <c r="E489" s="3"/>
+      <c r="B489" s="4"/>
+      <c r="E489" s="4"/>
     </row>
     <row r="490" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B490" s="5"/>
-      <c r="E490" s="3"/>
+      <c r="B490" s="4"/>
+      <c r="E490" s="4"/>
     </row>
     <row r="491" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B491" s="5"/>
-      <c r="E491" s="3"/>
+      <c r="B491" s="4"/>
+      <c r="E491" s="4"/>
     </row>
     <row r="492" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B492" s="5"/>
-      <c r="E492" s="3"/>
+      <c r="B492" s="4"/>
+      <c r="E492" s="4"/>
     </row>
     <row r="493" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B493" s="5"/>
-      <c r="E493" s="3"/>
+      <c r="B493" s="4"/>
+      <c r="E493" s="4"/>
     </row>
     <row r="494" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B494" s="5"/>
-      <c r="E494" s="3"/>
+      <c r="B494" s="4"/>
+      <c r="E494" s="4"/>
     </row>
     <row r="495" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B495" s="5"/>
-      <c r="E495" s="3"/>
+      <c r="B495" s="4"/>
+      <c r="E495" s="4"/>
     </row>
     <row r="496" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B496" s="5"/>
-      <c r="E496" s="3"/>
+      <c r="B496" s="4"/>
+      <c r="E496" s="4"/>
     </row>
     <row r="497" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B497" s="5"/>
-      <c r="E497" s="3"/>
+      <c r="B497" s="4"/>
+      <c r="E497" s="4"/>
     </row>
     <row r="498" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B498" s="5"/>
-      <c r="E498" s="3"/>
+      <c r="B498" s="4"/>
+      <c r="E498" s="4"/>
     </row>
     <row r="499" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B499" s="5"/>
-      <c r="E499" s="3"/>
+      <c r="B499" s="4"/>
+      <c r="E499" s="4"/>
     </row>
     <row r="500" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B500" s="5"/>
-      <c r="E500" s="3"/>
+      <c r="B500" s="4"/>
+      <c r="E500" s="4"/>
     </row>
     <row r="501" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B501" s="5"/>
-      <c r="E501" s="3"/>
+      <c r="B501" s="4"/>
+      <c r="E501" s="4"/>
     </row>
     <row r="502" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B502" s="5"/>
-      <c r="E502" s="3"/>
+      <c r="B502" s="4"/>
+      <c r="E502" s="4"/>
     </row>
     <row r="503" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B503" s="5"/>
-      <c r="E503" s="3"/>
+      <c r="B503" s="4"/>
+      <c r="E503" s="4"/>
     </row>
     <row r="504" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B504" s="5"/>
-      <c r="E504" s="3"/>
+      <c r="B504" s="4"/>
+      <c r="E504" s="4"/>
     </row>
     <row r="505" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B505" s="5"/>
-      <c r="E505" s="3"/>
+      <c r="B505" s="4"/>
+      <c r="E505" s="4"/>
     </row>
     <row r="506" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B506" s="5"/>
-      <c r="E506" s="3"/>
+      <c r="B506" s="4"/>
+      <c r="E506" s="4"/>
     </row>
     <row r="507" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B507" s="5"/>
-      <c r="E507" s="3"/>
+      <c r="B507" s="4"/>
+      <c r="E507" s="4"/>
     </row>
     <row r="508" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B508" s="5"/>
-      <c r="E508" s="3"/>
+      <c r="B508" s="4"/>
+      <c r="E508" s="4"/>
     </row>
     <row r="509" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B509" s="5"/>
-      <c r="E509" s="3"/>
+      <c r="B509" s="4"/>
+      <c r="E509" s="4"/>
     </row>
     <row r="510" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B510" s="5"/>
-      <c r="E510" s="3"/>
+      <c r="B510" s="4"/>
+      <c r="E510" s="4"/>
     </row>
     <row r="511" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B511" s="5"/>
-      <c r="E511" s="3"/>
+      <c r="B511" s="4"/>
+      <c r="E511" s="4"/>
     </row>
     <row r="512" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B512" s="5"/>
-      <c r="E512" s="3"/>
+      <c r="B512" s="4"/>
+      <c r="E512" s="4"/>
     </row>
     <row r="513" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B513" s="5"/>
-      <c r="E513" s="3"/>
+      <c r="B513" s="4"/>
+      <c r="E513" s="4"/>
     </row>
     <row r="514" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B514" s="5"/>
-      <c r="E514" s="3"/>
+      <c r="B514" s="4"/>
+      <c r="E514" s="4"/>
     </row>
     <row r="515" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B515" s="5"/>
-      <c r="E515" s="3"/>
+      <c r="B515" s="4"/>
+      <c r="E515" s="4"/>
     </row>
     <row r="516" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B516" s="5"/>
-      <c r="E516" s="3"/>
+      <c r="B516" s="4"/>
+      <c r="E516" s="4"/>
     </row>
     <row r="517" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B517" s="5"/>
-      <c r="E517" s="3"/>
+      <c r="B517" s="4"/>
+      <c r="E517" s="4"/>
     </row>
     <row r="518" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B518" s="5"/>
-      <c r="E518" s="3"/>
+      <c r="B518" s="4"/>
+      <c r="E518" s="4"/>
     </row>
     <row r="519" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B519" s="5"/>
-      <c r="E519" s="3"/>
+      <c r="B519" s="4"/>
+      <c r="E519" s="4"/>
     </row>
     <row r="520" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B520" s="5"/>
-      <c r="E520" s="3"/>
+      <c r="B520" s="4"/>
+      <c r="E520" s="4"/>
     </row>
     <row r="521" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B521" s="5"/>
-      <c r="E521" s="3"/>
+      <c r="B521" s="4"/>
+      <c r="E521" s="4"/>
     </row>
     <row r="522" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B522" s="5"/>
-      <c r="E522" s="3"/>
+      <c r="B522" s="4"/>
+      <c r="E522" s="4"/>
     </row>
     <row r="523" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B523" s="5"/>
-      <c r="E523" s="3"/>
+      <c r="B523" s="4"/>
+      <c r="E523" s="4"/>
     </row>
     <row r="524" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B524" s="5"/>
-      <c r="E524" s="3"/>
+      <c r="B524" s="4"/>
+      <c r="E524" s="4"/>
     </row>
     <row r="525" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B525" s="5"/>
-      <c r="E525" s="3"/>
+      <c r="B525" s="4"/>
+      <c r="E525" s="4"/>
     </row>
     <row r="526" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B526" s="5"/>
-      <c r="E526" s="3"/>
+      <c r="B526" s="4"/>
+      <c r="E526" s="4"/>
     </row>
     <row r="527" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B527" s="5"/>
-      <c r="E527" s="3"/>
+      <c r="B527" s="4"/>
+      <c r="E527" s="4"/>
     </row>
     <row r="528" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B528" s="5"/>
-      <c r="E528" s="3"/>
+      <c r="B528" s="4"/>
+      <c r="E528" s="4"/>
     </row>
     <row r="529" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B529" s="5"/>
-      <c r="E529" s="3"/>
+      <c r="B529" s="4"/>
+      <c r="E529" s="4"/>
     </row>
     <row r="530" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B530" s="5"/>
-      <c r="E530" s="3"/>
+      <c r="B530" s="4"/>
+      <c r="E530" s="4"/>
     </row>
     <row r="531" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B531" s="5"/>
-      <c r="E531" s="3"/>
+      <c r="B531" s="4"/>
+      <c r="E531" s="4"/>
     </row>
     <row r="532" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B532" s="5"/>
-      <c r="E532" s="3"/>
+      <c r="B532" s="4"/>
+      <c r="E532" s="4"/>
     </row>
     <row r="533" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B533" s="5"/>
-      <c r="E533" s="3"/>
+      <c r="B533" s="4"/>
+      <c r="E533" s="4"/>
     </row>
     <row r="534" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B534" s="5"/>
-      <c r="E534" s="3"/>
+      <c r="B534" s="4"/>
+      <c r="E534" s="4"/>
     </row>
     <row r="535" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B535" s="5"/>
-      <c r="E535" s="3"/>
+      <c r="B535" s="4"/>
+      <c r="E535" s="4"/>
     </row>
     <row r="536" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B536" s="5"/>
-      <c r="E536" s="3"/>
+      <c r="B536" s="4"/>
+      <c r="E536" s="4"/>
     </row>
     <row r="537" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B537" s="5"/>
-      <c r="E537" s="3"/>
+      <c r="B537" s="4"/>
+      <c r="E537" s="4"/>
     </row>
     <row r="538" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B538" s="5"/>
-      <c r="E538" s="3"/>
+      <c r="B538" s="4"/>
+      <c r="E538" s="4"/>
     </row>
     <row r="539" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B539" s="5"/>
-      <c r="E539" s="3"/>
+      <c r="B539" s="4"/>
+      <c r="E539" s="4"/>
     </row>
     <row r="540" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B540" s="5"/>
-      <c r="E540" s="3"/>
+      <c r="B540" s="4"/>
+      <c r="E540" s="4"/>
     </row>
     <row r="541" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B541" s="5"/>
-      <c r="E541" s="3"/>
+      <c r="B541" s="4"/>
+      <c r="E541" s="4"/>
     </row>
     <row r="542" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B542" s="5"/>
-      <c r="E542" s="3"/>
+      <c r="B542" s="4"/>
+      <c r="E542" s="4"/>
     </row>
     <row r="543" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B543" s="5"/>
-      <c r="E543" s="3"/>
+      <c r="B543" s="4"/>
+      <c r="E543" s="4"/>
     </row>
     <row r="544" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B544" s="5"/>
-      <c r="E544" s="3"/>
+      <c r="B544" s="4"/>
+      <c r="E544" s="4"/>
     </row>
     <row r="545" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B545" s="5"/>
-      <c r="E545" s="3"/>
+      <c r="B545" s="4"/>
+      <c r="E545" s="4"/>
     </row>
     <row r="546" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B546" s="5"/>
-      <c r="E546" s="3"/>
+      <c r="B546" s="4"/>
+      <c r="E546" s="4"/>
     </row>
     <row r="547" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B547" s="5"/>
-      <c r="E547" s="3"/>
+      <c r="B547" s="4"/>
+      <c r="E547" s="4"/>
     </row>
     <row r="548" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B548" s="5"/>
-      <c r="E548" s="3"/>
+      <c r="B548" s="4"/>
+      <c r="E548" s="4"/>
     </row>
     <row r="549" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B549" s="5"/>
-      <c r="E549" s="3"/>
+      <c r="B549" s="4"/>
+      <c r="E549" s="4"/>
     </row>
     <row r="550" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B550" s="5"/>
-      <c r="E550" s="3"/>
+      <c r="B550" s="4"/>
+      <c r="E550" s="4"/>
     </row>
     <row r="551" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B551" s="5"/>
-      <c r="E551" s="3"/>
+      <c r="B551" s="4"/>
+      <c r="E551" s="4"/>
     </row>
     <row r="552" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B552" s="5"/>
-      <c r="E552" s="3"/>
+      <c r="B552" s="4"/>
+      <c r="E552" s="4"/>
     </row>
     <row r="553" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B553" s="5"/>
-      <c r="E553" s="3"/>
+      <c r="B553" s="4"/>
+      <c r="E553" s="4"/>
     </row>
     <row r="554" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B554" s="5"/>
-      <c r="E554" s="3"/>
+      <c r="B554" s="4"/>
+      <c r="E554" s="4"/>
     </row>
     <row r="555" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B555" s="5"/>
-      <c r="E555" s="3"/>
+      <c r="B555" s="4"/>
+      <c r="E555" s="4"/>
     </row>
     <row r="556" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B556" s="5"/>
-      <c r="E556" s="3"/>
+      <c r="B556" s="4"/>
+      <c r="E556" s="4"/>
     </row>
     <row r="557" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B557" s="5"/>
-      <c r="E557" s="3"/>
+      <c r="B557" s="4"/>
+      <c r="E557" s="4"/>
     </row>
     <row r="558" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B558" s="5"/>
-      <c r="E558" s="3"/>
+      <c r="B558" s="4"/>
+      <c r="E558" s="4"/>
     </row>
     <row r="559" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B559" s="5"/>
-      <c r="E559" s="3"/>
+      <c r="B559" s="4"/>
+      <c r="E559" s="4"/>
     </row>
     <row r="560" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B560" s="5"/>
-      <c r="E560" s="3"/>
+      <c r="B560" s="4"/>
+      <c r="E560" s="4"/>
     </row>
     <row r="561" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B561" s="5"/>
-      <c r="E561" s="3"/>
+      <c r="B561" s="4"/>
+      <c r="E561" s="4"/>
     </row>
     <row r="562" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B562" s="5"/>
-      <c r="E562" s="3"/>
+      <c r="B562" s="4"/>
+      <c r="E562" s="4"/>
     </row>
     <row r="563" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B563" s="5"/>
-      <c r="E563" s="3"/>
+      <c r="B563" s="4"/>
+      <c r="E563" s="4"/>
     </row>
     <row r="564" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B564" s="5"/>
-      <c r="E564" s="3"/>
+      <c r="B564" s="4"/>
+      <c r="E564" s="4"/>
     </row>
     <row r="565" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B565" s="5"/>
-      <c r="E565" s="3"/>
+      <c r="B565" s="4"/>
+      <c r="E565" s="4"/>
     </row>
     <row r="566" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B566" s="5"/>
-      <c r="E566" s="3"/>
+      <c r="B566" s="4"/>
+      <c r="E566" s="4"/>
     </row>
     <row r="567" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B567" s="5"/>
-      <c r="E567" s="3"/>
+      <c r="B567" s="4"/>
+      <c r="E567" s="4"/>
     </row>
     <row r="568" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B568" s="5"/>
-      <c r="E568" s="3"/>
+      <c r="B568" s="4"/>
+      <c r="E568" s="4"/>
     </row>
     <row r="569" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B569" s="5"/>
-      <c r="E569" s="3"/>
+      <c r="B569" s="4"/>
+      <c r="E569" s="4"/>
     </row>
     <row r="570" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B570" s="5"/>
-      <c r="E570" s="3"/>
+      <c r="B570" s="4"/>
+      <c r="E570" s="4"/>
     </row>
     <row r="571" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B571" s="5"/>
-      <c r="E571" s="3"/>
+      <c r="B571" s="4"/>
+      <c r="E571" s="4"/>
     </row>
     <row r="572" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B572" s="5"/>
-      <c r="E572" s="3"/>
+      <c r="B572" s="4"/>
+      <c r="E572" s="4"/>
     </row>
     <row r="573" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B573" s="5"/>
-      <c r="E573" s="3"/>
+      <c r="B573" s="4"/>
+      <c r="E573" s="4"/>
     </row>
     <row r="574" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B574" s="5"/>
-      <c r="E574" s="3"/>
+      <c r="B574" s="4"/>
+      <c r="E574" s="4"/>
     </row>
     <row r="575" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B575" s="5"/>
-      <c r="E575" s="3"/>
+      <c r="B575" s="4"/>
+      <c r="E575" s="4"/>
     </row>
     <row r="576" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B576" s="5"/>
-      <c r="E576" s="3"/>
+      <c r="B576" s="4"/>
+      <c r="E576" s="4"/>
     </row>
     <row r="577" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B577" s="5"/>
-      <c r="E577" s="3"/>
+      <c r="B577" s="4"/>
+      <c r="E577" s="4"/>
     </row>
     <row r="578" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B578" s="5"/>
-      <c r="E578" s="3"/>
+      <c r="B578" s="4"/>
+      <c r="E578" s="4"/>
     </row>
     <row r="579" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B579" s="5"/>
-      <c r="E579" s="3"/>
+      <c r="B579" s="4"/>
+      <c r="E579" s="4"/>
     </row>
     <row r="580" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B580" s="5"/>
-      <c r="E580" s="3"/>
+      <c r="B580" s="4"/>
+      <c r="E580" s="4"/>
     </row>
     <row r="581" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B581" s="5"/>
-      <c r="E581" s="3"/>
+      <c r="B581" s="4"/>
+      <c r="E581" s="4"/>
     </row>
     <row r="582" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B582" s="5"/>
-      <c r="E582" s="3"/>
+      <c r="B582" s="4"/>
+      <c r="E582" s="4"/>
     </row>
     <row r="583" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B583" s="5"/>
-      <c r="E583" s="3"/>
+      <c r="B583" s="4"/>
+      <c r="E583" s="4"/>
     </row>
     <row r="584" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B584" s="5"/>
-      <c r="E584" s="3"/>
+      <c r="B584" s="4"/>
+      <c r="E584" s="4"/>
     </row>
     <row r="585" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B585" s="5"/>
-      <c r="E585" s="3"/>
+      <c r="B585" s="4"/>
+      <c r="E585" s="4"/>
     </row>
     <row r="586" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B586" s="5"/>
-      <c r="E586" s="3"/>
+      <c r="B586" s="4"/>
+      <c r="E586" s="4"/>
     </row>
     <row r="587" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B587" s="5"/>
-      <c r="E587" s="3"/>
+      <c r="B587" s="4"/>
+      <c r="E587" s="4"/>
     </row>
     <row r="588" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B588" s="5"/>
-      <c r="E588" s="3"/>
+      <c r="B588" s="4"/>
+      <c r="E588" s="4"/>
     </row>
     <row r="589" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B589" s="5"/>
-      <c r="E589" s="3"/>
+      <c r="B589" s="4"/>
+      <c r="E589" s="4"/>
     </row>
     <row r="590" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B590" s="5"/>
-      <c r="E590" s="3"/>
+      <c r="B590" s="4"/>
+      <c r="E590" s="4"/>
     </row>
     <row r="591" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B591" s="5"/>
-      <c r="E591" s="3"/>
+      <c r="B591" s="4"/>
+      <c r="E591" s="4"/>
     </row>
     <row r="592" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B592" s="5"/>
-      <c r="E592" s="3"/>
+      <c r="B592" s="4"/>
+      <c r="E592" s="4"/>
     </row>
     <row r="593" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B593" s="5"/>
-      <c r="E593" s="3"/>
+      <c r="B593" s="4"/>
+      <c r="E593" s="4"/>
     </row>
     <row r="594" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B594" s="5"/>
-      <c r="E594" s="3"/>
+      <c r="B594" s="4"/>
+      <c r="E594" s="4"/>
     </row>
     <row r="595" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B595" s="5"/>
-      <c r="E595" s="3"/>
+      <c r="B595" s="4"/>
+      <c r="E595" s="4"/>
     </row>
     <row r="596" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B596" s="5"/>
-      <c r="E596" s="3"/>
+      <c r="B596" s="4"/>
+      <c r="E596" s="4"/>
     </row>
     <row r="597" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B597" s="5"/>
-      <c r="E597" s="3"/>
+      <c r="B597" s="4"/>
+      <c r="E597" s="4"/>
     </row>
     <row r="598" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B598" s="5"/>
-      <c r="E598" s="3"/>
+      <c r="B598" s="4"/>
+      <c r="E598" s="4"/>
     </row>
     <row r="599" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B599" s="5"/>
-      <c r="E599" s="3"/>
+      <c r="B599" s="4"/>
+      <c r="E599" s="4"/>
     </row>
     <row r="600" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B600" s="5"/>
-      <c r="E600" s="3"/>
+      <c r="B600" s="4"/>
+      <c r="E600" s="4"/>
     </row>
     <row r="601" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B601" s="5"/>
-      <c r="E601" s="3"/>
+      <c r="B601" s="4"/>
+      <c r="E601" s="4"/>
     </row>
     <row r="602" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B602" s="5"/>
-      <c r="E602" s="3"/>
+      <c r="B602" s="4"/>
+      <c r="E602" s="4"/>
     </row>
     <row r="603" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B603" s="5"/>
-      <c r="E603" s="3"/>
+      <c r="B603" s="4"/>
+      <c r="E603" s="4"/>
     </row>
     <row r="604" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B604" s="5"/>
-      <c r="E604" s="3"/>
+      <c r="B604" s="4"/>
+      <c r="E604" s="4"/>
     </row>
     <row r="605" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B605" s="5"/>
-      <c r="E605" s="3"/>
+      <c r="B605" s="4"/>
+      <c r="E605" s="4"/>
     </row>
     <row r="606" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B606" s="5"/>
-      <c r="E606" s="3"/>
+      <c r="B606" s="4"/>
+      <c r="E606" s="4"/>
     </row>
     <row r="607" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B607" s="5"/>
-      <c r="E607" s="3"/>
+      <c r="B607" s="4"/>
+      <c r="E607" s="4"/>
     </row>
     <row r="608" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B608" s="5"/>
-      <c r="E608" s="3"/>
+      <c r="B608" s="4"/>
+      <c r="E608" s="4"/>
     </row>
     <row r="609" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B609" s="5"/>
-      <c r="E609" s="3"/>
+      <c r="B609" s="4"/>
+      <c r="E609" s="4"/>
     </row>
     <row r="610" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B610" s="5"/>
-      <c r="E610" s="3"/>
+      <c r="B610" s="4"/>
+      <c r="E610" s="4"/>
     </row>
     <row r="611" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B611" s="5"/>
-      <c r="E611" s="3"/>
+      <c r="B611" s="4"/>
+      <c r="E611" s="4"/>
     </row>
     <row r="612" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B612" s="5"/>
-      <c r="E612" s="3"/>
+      <c r="B612" s="4"/>
+      <c r="E612" s="4"/>
     </row>
     <row r="613" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B613" s="5"/>
-      <c r="E613" s="3"/>
+      <c r="B613" s="4"/>
+      <c r="E613" s="4"/>
     </row>
     <row r="614" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B614" s="5"/>
-      <c r="E614" s="3"/>
+      <c r="B614" s="4"/>
+      <c r="E614" s="4"/>
     </row>
     <row r="615" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B615" s="5"/>
-      <c r="E615" s="3"/>
+      <c r="B615" s="4"/>
+      <c r="E615" s="4"/>
     </row>
     <row r="616" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B616" s="5"/>
-      <c r="E616" s="3"/>
+      <c r="B616" s="4"/>
+      <c r="E616" s="4"/>
     </row>
     <row r="617" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B617" s="5"/>
-      <c r="E617" s="3"/>
+      <c r="B617" s="4"/>
+      <c r="E617" s="4"/>
     </row>
     <row r="618" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B618" s="5"/>
-      <c r="E618" s="3"/>
+      <c r="B618" s="4"/>
+      <c r="E618" s="4"/>
     </row>
     <row r="619" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B619" s="5"/>
-      <c r="E619" s="3"/>
+      <c r="B619" s="4"/>
+      <c r="E619" s="4"/>
     </row>
     <row r="620" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B620" s="5"/>
-      <c r="E620" s="3"/>
+      <c r="B620" s="4"/>
+      <c r="E620" s="4"/>
     </row>
     <row r="621" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B621" s="5"/>
-      <c r="E621" s="3"/>
+      <c r="B621" s="4"/>
+      <c r="E621" s="4"/>
     </row>
     <row r="622" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B622" s="5"/>
-      <c r="E622" s="3"/>
+      <c r="B622" s="4"/>
+      <c r="E622" s="4"/>
     </row>
     <row r="623" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B623" s="5"/>
-      <c r="E623" s="3"/>
+      <c r="B623" s="4"/>
+      <c r="E623" s="4"/>
     </row>
     <row r="624" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B624" s="5"/>
-      <c r="E624" s="3"/>
+      <c r="B624" s="4"/>
+      <c r="E624" s="4"/>
     </row>
     <row r="625" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B625" s="5"/>
-      <c r="E625" s="3"/>
+      <c r="B625" s="4"/>
+      <c r="E625" s="4"/>
     </row>
     <row r="626" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B626" s="5"/>
-      <c r="E626" s="3"/>
+      <c r="B626" s="4"/>
+      <c r="E626" s="4"/>
     </row>
     <row r="627" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B627" s="5"/>
-      <c r="E627" s="3"/>
+      <c r="B627" s="4"/>
+      <c r="E627" s="4"/>
     </row>
     <row r="628" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B628" s="5"/>
-      <c r="E628" s="3"/>
+      <c r="B628" s="4"/>
+      <c r="E628" s="4"/>
     </row>
     <row r="629" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B629" s="5"/>
-      <c r="E629" s="3"/>
+      <c r="B629" s="4"/>
+      <c r="E629" s="4"/>
     </row>
     <row r="630" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B630" s="5"/>
-      <c r="E630" s="3"/>
+      <c r="B630" s="4"/>
+      <c r="E630" s="4"/>
     </row>
     <row r="631" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B631" s="5"/>
-      <c r="E631" s="3"/>
+      <c r="B631" s="4"/>
+      <c r="E631" s="4"/>
     </row>
     <row r="632" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B632" s="5"/>
-      <c r="E632" s="3"/>
+      <c r="B632" s="4"/>
+      <c r="E632" s="4"/>
     </row>
     <row r="633" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B633" s="5"/>
-      <c r="E633" s="3"/>
+      <c r="B633" s="4"/>
+      <c r="E633" s="4"/>
     </row>
     <row r="634" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B634" s="5"/>
-      <c r="E634" s="3"/>
+      <c r="B634" s="4"/>
+      <c r="E634" s="4"/>
     </row>
     <row r="635" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B635" s="5"/>
-      <c r="E635" s="3"/>
+      <c r="B635" s="4"/>
+      <c r="E635" s="4"/>
     </row>
     <row r="636" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B636" s="5"/>
-      <c r="E636" s="3"/>
+      <c r="B636" s="4"/>
+      <c r="E636" s="4"/>
     </row>
     <row r="637" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B637" s="5"/>
-      <c r="E637" s="3"/>
+      <c r="B637" s="4"/>
+      <c r="E637" s="4"/>
     </row>
     <row r="638" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B638" s="5"/>
-      <c r="E638" s="3"/>
+      <c r="B638" s="4"/>
+      <c r="E638" s="4"/>
     </row>
     <row r="639" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B639" s="5"/>
-      <c r="E639" s="3"/>
+      <c r="B639" s="4"/>
+      <c r="E639" s="4"/>
     </row>
     <row r="640" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B640" s="5"/>
-      <c r="E640" s="3"/>
+      <c r="B640" s="4"/>
+      <c r="E640" s="4"/>
     </row>
     <row r="641" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B641" s="5"/>
-      <c r="E641" s="3"/>
+      <c r="B641" s="4"/>
+      <c r="E641" s="4"/>
     </row>
     <row r="642" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B642" s="5"/>
-      <c r="E642" s="3"/>
+      <c r="B642" s="4"/>
+      <c r="E642" s="4"/>
     </row>
     <row r="643" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B643" s="5"/>
-      <c r="E643" s="3"/>
+      <c r="B643" s="4"/>
+      <c r="E643" s="4"/>
     </row>
     <row r="644" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B644" s="5"/>
-      <c r="E644" s="3"/>
+      <c r="B644" s="4"/>
+      <c r="E644" s="4"/>
     </row>
     <row r="645" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B645" s="5"/>
-      <c r="E645" s="3"/>
+      <c r="B645" s="4"/>
+      <c r="E645" s="4"/>
     </row>
     <row r="646" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B646" s="5"/>
-      <c r="E646" s="3"/>
+      <c r="B646" s="4"/>
+      <c r="E646" s="4"/>
     </row>
     <row r="647" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B647" s="5"/>
-      <c r="E647" s="3"/>
+      <c r="B647" s="4"/>
+      <c r="E647" s="4"/>
     </row>
     <row r="648" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B648" s="5"/>
-      <c r="E648" s="3"/>
+      <c r="B648" s="4"/>
+      <c r="E648" s="4"/>
     </row>
     <row r="649" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B649" s="5"/>
-      <c r="E649" s="3"/>
+      <c r="B649" s="4"/>
+      <c r="E649" s="4"/>
     </row>
     <row r="650" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B650" s="5"/>
-      <c r="E650" s="3"/>
+      <c r="B650" s="4"/>
+      <c r="E650" s="4"/>
     </row>
     <row r="651" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B651" s="5"/>
-      <c r="E651" s="3"/>
+      <c r="B651" s="4"/>
+      <c r="E651" s="4"/>
     </row>
     <row r="652" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B652" s="5"/>
-      <c r="E652" s="3"/>
+      <c r="B652" s="4"/>
+      <c r="E652" s="4"/>
     </row>
     <row r="653" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B653" s="5"/>
-      <c r="E653" s="3"/>
+      <c r="B653" s="4"/>
+      <c r="E653" s="4"/>
     </row>
     <row r="654" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B654" s="5"/>
-      <c r="E654" s="3"/>
+      <c r="B654" s="4"/>
+      <c r="E654" s="4"/>
     </row>
     <row r="655" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B655" s="5"/>
-      <c r="E655" s="3"/>
+      <c r="B655" s="4"/>
+      <c r="E655" s="4"/>
     </row>
     <row r="656" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B656" s="5"/>
-      <c r="E656" s="3"/>
+      <c r="B656" s="4"/>
+      <c r="E656" s="4"/>
     </row>
     <row r="657" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B657" s="5"/>
-      <c r="E657" s="3"/>
+      <c r="B657" s="4"/>
+      <c r="E657" s="4"/>
     </row>
     <row r="658" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B658" s="5"/>
-      <c r="E658" s="3"/>
+      <c r="B658" s="4"/>
+      <c r="E658" s="4"/>
     </row>
     <row r="659" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B659" s="5"/>
-      <c r="E659" s="3"/>
+      <c r="B659" s="4"/>
+      <c r="E659" s="4"/>
     </row>
     <row r="660" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B660" s="5"/>
-      <c r="E660" s="3"/>
+      <c r="B660" s="4"/>
+      <c r="E660" s="4"/>
     </row>
     <row r="661" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B661" s="5"/>
-      <c r="E661" s="3"/>
+      <c r="B661" s="4"/>
+      <c r="E661" s="4"/>
     </row>
     <row r="662" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B662" s="5"/>
-      <c r="E662" s="3"/>
+      <c r="B662" s="4"/>
+      <c r="E662" s="4"/>
     </row>
     <row r="663" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B663" s="5"/>
-      <c r="E663" s="3"/>
+      <c r="B663" s="4"/>
+      <c r="E663" s="4"/>
     </row>
     <row r="664" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B664" s="5"/>
-      <c r="E664" s="3"/>
+      <c r="B664" s="4"/>
+      <c r="E664" s="4"/>
     </row>
     <row r="665" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B665" s="5"/>
-      <c r="E665" s="3"/>
+      <c r="B665" s="4"/>
+      <c r="E665" s="4"/>
     </row>
     <row r="666" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B666" s="5"/>
-      <c r="E666" s="3"/>
+      <c r="B666" s="4"/>
+      <c r="E666" s="4"/>
     </row>
     <row r="667" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B667" s="5"/>
-      <c r="E667" s="3"/>
+      <c r="B667" s="4"/>
+      <c r="E667" s="4"/>
     </row>
     <row r="668" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B668" s="5"/>
-      <c r="E668" s="3"/>
+      <c r="B668" s="4"/>
+      <c r="E668" s="4"/>
     </row>
     <row r="669" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B669" s="5"/>
-      <c r="E669" s="3"/>
+      <c r="B669" s="4"/>
+      <c r="E669" s="4"/>
     </row>
     <row r="670" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B670" s="5"/>
-      <c r="E670" s="3"/>
+      <c r="B670" s="4"/>
+      <c r="E670" s="4"/>
     </row>
     <row r="671" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B671" s="5"/>
-      <c r="E671" s="3"/>
+      <c r="B671" s="4"/>
+      <c r="E671" s="4"/>
     </row>
     <row r="672" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B672" s="5"/>
-      <c r="E672" s="3"/>
+      <c r="B672" s="4"/>
+      <c r="E672" s="4"/>
     </row>
     <row r="673" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B673" s="5"/>
-      <c r="E673" s="3"/>
+      <c r="B673" s="4"/>
+      <c r="E673" s="4"/>
     </row>
     <row r="674" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B674" s="5"/>
-      <c r="E674" s="3"/>
+      <c r="B674" s="4"/>
+      <c r="E674" s="4"/>
     </row>
     <row r="675" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B675" s="5"/>
-      <c r="E675" s="3"/>
+      <c r="B675" s="4"/>
+      <c r="E675" s="4"/>
     </row>
     <row r="676" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B676" s="5"/>
-      <c r="E676" s="3"/>
+      <c r="B676" s="4"/>
+      <c r="E676" s="4"/>
     </row>
     <row r="677" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B677" s="5"/>
-      <c r="E677" s="3"/>
+      <c r="B677" s="4"/>
+      <c r="E677" s="4"/>
     </row>
     <row r="678" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B678" s="5"/>
-      <c r="E678" s="3"/>
+      <c r="B678" s="4"/>
+      <c r="E678" s="4"/>
     </row>
     <row r="679" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B679" s="5"/>
-      <c r="E679" s="3"/>
+      <c r="B679" s="4"/>
+      <c r="E679" s="4"/>
     </row>
     <row r="680" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B680" s="5"/>
-      <c r="E680" s="3"/>
+      <c r="B680" s="4"/>
+      <c r="E680" s="4"/>
     </row>
     <row r="681" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B681" s="5"/>
-      <c r="E681" s="3"/>
+      <c r="B681" s="4"/>
+      <c r="E681" s="4"/>
     </row>
     <row r="682" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B682" s="5"/>
-      <c r="E682" s="3"/>
+      <c r="B682" s="4"/>
+      <c r="E682" s="4"/>
     </row>
     <row r="683" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B683" s="5"/>
-      <c r="E683" s="3"/>
+      <c r="B683" s="4"/>
+      <c r="E683" s="4"/>
     </row>
     <row r="684" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B684" s="5"/>
-      <c r="E684" s="3"/>
+      <c r="B684" s="4"/>
+      <c r="E684" s="4"/>
     </row>
     <row r="685" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B685" s="5"/>
-      <c r="E685" s="3"/>
+      <c r="B685" s="4"/>
+      <c r="E685" s="4"/>
     </row>
     <row r="686" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B686" s="5"/>
-      <c r="E686" s="3"/>
+      <c r="B686" s="4"/>
+      <c r="E686" s="4"/>
     </row>
     <row r="687" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B687" s="5"/>
-      <c r="E687" s="3"/>
+      <c r="B687" s="4"/>
+      <c r="E687" s="4"/>
     </row>
     <row r="688" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B688" s="5"/>
-      <c r="E688" s="3"/>
+      <c r="B688" s="4"/>
+      <c r="E688" s="4"/>
     </row>
     <row r="689" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B689" s="5"/>
-      <c r="E689" s="3"/>
+      <c r="B689" s="4"/>
+      <c r="E689" s="4"/>
     </row>
     <row r="690" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B690" s="5"/>
-      <c r="E690" s="3"/>
+      <c r="B690" s="4"/>
+      <c r="E690" s="4"/>
     </row>
     <row r="691" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B691" s="5"/>
-      <c r="E691" s="3"/>
+      <c r="B691" s="4"/>
+      <c r="E691" s="4"/>
     </row>
     <row r="692" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B692" s="5"/>
-      <c r="E692" s="3"/>
+      <c r="B692" s="4"/>
+      <c r="E692" s="4"/>
     </row>
     <row r="693" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B693" s="5"/>
-      <c r="E693" s="3"/>
+      <c r="B693" s="4"/>
+      <c r="E693" s="4"/>
     </row>
     <row r="694" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B694" s="5"/>
-      <c r="E694" s="3"/>
+      <c r="B694" s="4"/>
+      <c r="E694" s="4"/>
     </row>
     <row r="695" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B695" s="5"/>
-      <c r="E695" s="3"/>
+      <c r="B695" s="4"/>
+      <c r="E695" s="4"/>
     </row>
     <row r="696" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B696" s="5"/>
-      <c r="E696" s="3"/>
+      <c r="B696" s="4"/>
+      <c r="E696" s="4"/>
     </row>
     <row r="697" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B697" s="5"/>
-      <c r="E697" s="3"/>
+      <c r="B697" s="4"/>
+      <c r="E697" s="4"/>
     </row>
     <row r="698" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B698" s="5"/>
-      <c r="E698" s="3"/>
+      <c r="B698" s="4"/>
+      <c r="E698" s="4"/>
     </row>
     <row r="699" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B699" s="5"/>
-      <c r="E699" s="3"/>
+      <c r="B699" s="4"/>
+      <c r="E699" s="4"/>
     </row>
     <row r="700" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B700" s="5"/>
-      <c r="E700" s="3"/>
+      <c r="B700" s="4"/>
+      <c r="E700" s="4"/>
     </row>
     <row r="701" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B701" s="5"/>
-      <c r="E701" s="3"/>
+      <c r="B701" s="4"/>
+      <c r="E701" s="4"/>
     </row>
     <row r="702" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B702" s="5"/>
-      <c r="E702" s="3"/>
+      <c r="B702" s="4"/>
+      <c r="E702" s="4"/>
     </row>
     <row r="703" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B703" s="5"/>
-      <c r="E703" s="3"/>
+      <c r="B703" s="4"/>
+      <c r="E703" s="4"/>
     </row>
     <row r="704" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B704" s="5"/>
-      <c r="E704" s="3"/>
+      <c r="B704" s="4"/>
+      <c r="E704" s="4"/>
     </row>
     <row r="705" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B705" s="5"/>
-      <c r="E705" s="3"/>
+      <c r="B705" s="4"/>
+      <c r="E705" s="4"/>
     </row>
     <row r="706" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B706" s="5"/>
-      <c r="E706" s="3"/>
+      <c r="B706" s="4"/>
+      <c r="E706" s="4"/>
     </row>
     <row r="707" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B707" s="5"/>
-      <c r="E707" s="3"/>
+      <c r="B707" s="4"/>
+      <c r="E707" s="4"/>
     </row>
     <row r="708" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B708" s="5"/>
-      <c r="E708" s="3"/>
+      <c r="B708" s="4"/>
+      <c r="E708" s="4"/>
     </row>
     <row r="709" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B709" s="5"/>
-      <c r="E709" s="3"/>
+      <c r="B709" s="4"/>
+      <c r="E709" s="4"/>
     </row>
     <row r="710" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B710" s="5"/>
-      <c r="E710" s="3"/>
+      <c r="B710" s="4"/>
+      <c r="E710" s="4"/>
     </row>
     <row r="711" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B711" s="5"/>
-      <c r="E711" s="3"/>
+      <c r="B711" s="4"/>
+      <c r="E711" s="4"/>
     </row>
     <row r="712" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B712" s="5"/>
-      <c r="E712" s="3"/>
+      <c r="B712" s="4"/>
+      <c r="E712" s="4"/>
     </row>
     <row r="713" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B713" s="5"/>
-      <c r="E713" s="3"/>
+      <c r="B713" s="4"/>
+      <c r="E713" s="4"/>
     </row>
     <row r="714" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B714" s="5"/>
-      <c r="E714" s="3"/>
+      <c r="B714" s="4"/>
+      <c r="E714" s="4"/>
     </row>
     <row r="715" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B715" s="5"/>
-      <c r="E715" s="3"/>
+      <c r="B715" s="4"/>
+      <c r="E715" s="4"/>
     </row>
     <row r="716" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B716" s="5"/>
-      <c r="E716" s="3"/>
+      <c r="B716" s="4"/>
+      <c r="E716" s="4"/>
     </row>
     <row r="717" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B717" s="5"/>
-      <c r="E717" s="3"/>
+      <c r="B717" s="4"/>
+      <c r="E717" s="4"/>
     </row>
     <row r="718" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B718" s="5"/>
-      <c r="E718" s="3"/>
+      <c r="B718" s="4"/>
+      <c r="E718" s="4"/>
     </row>
     <row r="719" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B719" s="5"/>
-      <c r="E719" s="3"/>
+      <c r="B719" s="4"/>
+      <c r="E719" s="4"/>
     </row>
     <row r="720" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B720" s="5"/>
-      <c r="E720" s="3"/>
+      <c r="B720" s="4"/>
+      <c r="E720" s="4"/>
     </row>
     <row r="721" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B721" s="5"/>
-      <c r="E721" s="3"/>
+      <c r="B721" s="4"/>
+      <c r="E721" s="4"/>
     </row>
     <row r="722" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B722" s="5"/>
-      <c r="E722" s="3"/>
+      <c r="B722" s="4"/>
+      <c r="E722" s="4"/>
     </row>
     <row r="723" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B723" s="5"/>
-      <c r="E723" s="3"/>
+      <c r="B723" s="4"/>
+      <c r="E723" s="4"/>
     </row>
     <row r="724" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B724" s="5"/>
-      <c r="E724" s="3"/>
+      <c r="B724" s="4"/>
+      <c r="E724" s="4"/>
     </row>
     <row r="725" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B725" s="5"/>
-      <c r="E725" s="3"/>
+      <c r="B725" s="4"/>
+      <c r="E725" s="4"/>
     </row>
     <row r="726" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B726" s="5"/>
-      <c r="E726" s="3"/>
+      <c r="B726" s="4"/>
+      <c r="E726" s="4"/>
     </row>
     <row r="727" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B727" s="5"/>
-      <c r="E727" s="3"/>
+      <c r="B727" s="4"/>
+      <c r="E727" s="4"/>
     </row>
     <row r="728" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B728" s="5"/>
-      <c r="E728" s="3"/>
+      <c r="B728" s="4"/>
+      <c r="E728" s="4"/>
     </row>
     <row r="729" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B729" s="5"/>
-      <c r="E729" s="3"/>
+      <c r="B729" s="4"/>
+      <c r="E729" s="4"/>
     </row>
     <row r="730" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B730" s="5"/>
-      <c r="E730" s="3"/>
+      <c r="B730" s="4"/>
+      <c r="E730" s="4"/>
     </row>
     <row r="731" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B731" s="5"/>
-      <c r="E731" s="3"/>
+      <c r="B731" s="4"/>
+      <c r="E731" s="4"/>
     </row>
     <row r="732" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B732" s="5"/>
-      <c r="E732" s="3"/>
+      <c r="B732" s="4"/>
+      <c r="E732" s="4"/>
     </row>
     <row r="733" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B733" s="5"/>
-      <c r="E733" s="3"/>
+      <c r="B733" s="4"/>
+      <c r="E733" s="4"/>
     </row>
     <row r="734" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B734" s="5"/>
-      <c r="E734" s="3"/>
+      <c r="B734" s="4"/>
+      <c r="E734" s="4"/>
     </row>
     <row r="735" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B735" s="5"/>
-      <c r="E735" s="3"/>
+      <c r="B735" s="4"/>
+      <c r="E735" s="4"/>
     </row>
     <row r="736" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B736" s="5"/>
-      <c r="E736" s="3"/>
+      <c r="B736" s="4"/>
+      <c r="E736" s="4"/>
     </row>
     <row r="737" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B737" s="5"/>
-      <c r="E737" s="3"/>
+      <c r="B737" s="4"/>
+      <c r="E737" s="4"/>
     </row>
     <row r="738" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B738" s="5"/>
-      <c r="E738" s="3"/>
+      <c r="B738" s="4"/>
+      <c r="E738" s="4"/>
     </row>
     <row r="739" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B739" s="5"/>
-      <c r="E739" s="3"/>
+      <c r="B739" s="4"/>
+      <c r="E739" s="4"/>
     </row>
     <row r="740" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B740" s="5"/>
-      <c r="E740" s="3"/>
+      <c r="B740" s="4"/>
+      <c r="E740" s="4"/>
     </row>
     <row r="741" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B741" s="5"/>
-      <c r="E741" s="3"/>
+      <c r="B741" s="4"/>
+      <c r="E741" s="4"/>
     </row>
     <row r="742" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B742" s="5"/>
-      <c r="E742" s="3"/>
+      <c r="B742" s="4"/>
+      <c r="E742" s="4"/>
     </row>
     <row r="743" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B743" s="5"/>
-      <c r="E743" s="3"/>
+      <c r="B743" s="4"/>
+      <c r="E743" s="4"/>
     </row>
     <row r="744" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B744" s="5"/>
-      <c r="E744" s="3"/>
+      <c r="B744" s="4"/>
+      <c r="E744" s="4"/>
     </row>
     <row r="745" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B745" s="5"/>
-      <c r="E745" s="3"/>
+      <c r="B745" s="4"/>
+      <c r="E745" s="4"/>
     </row>
     <row r="746" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B746" s="5"/>
-      <c r="E746" s="3"/>
+      <c r="B746" s="4"/>
+      <c r="E746" s="4"/>
     </row>
     <row r="747" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B747" s="5"/>
-      <c r="E747" s="3"/>
+      <c r="B747" s="4"/>
+      <c r="E747" s="4"/>
     </row>
     <row r="748" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B748" s="5"/>
-      <c r="E748" s="3"/>
+      <c r="B748" s="4"/>
+      <c r="E748" s="4"/>
     </row>
     <row r="749" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B749" s="5"/>
-      <c r="E749" s="3"/>
+      <c r="B749" s="4"/>
+      <c r="E749" s="4"/>
     </row>
     <row r="750" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B750" s="5"/>
-      <c r="E750" s="3"/>
+      <c r="B750" s="4"/>
+      <c r="E750" s="4"/>
     </row>
     <row r="751" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B751" s="5"/>
-      <c r="E751" s="3"/>
+      <c r="B751" s="4"/>
+      <c r="E751" s="4"/>
     </row>
     <row r="752" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B752" s="5"/>
-      <c r="E752" s="3"/>
+      <c r="B752" s="4"/>
+      <c r="E752" s="4"/>
     </row>
     <row r="753" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B753" s="5"/>
-      <c r="E753" s="3"/>
+      <c r="B753" s="4"/>
+      <c r="E753" s="4"/>
     </row>
     <row r="754" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B754" s="5"/>
-      <c r="E754" s="3"/>
+      <c r="B754" s="4"/>
+      <c r="E754" s="4"/>
     </row>
     <row r="755" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B755" s="5"/>
-      <c r="E755" s="3"/>
+      <c r="B755" s="4"/>
+      <c r="E755" s="4"/>
     </row>
     <row r="756" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B756" s="5"/>
-      <c r="E756" s="3"/>
+      <c r="B756" s="4"/>
+      <c r="E756" s="4"/>
     </row>
     <row r="757" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B757" s="5"/>
-      <c r="E757" s="3"/>
+      <c r="B757" s="4"/>
+      <c r="E757" s="4"/>
     </row>
     <row r="758" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B758" s="5"/>
-      <c r="E758" s="3"/>
+      <c r="B758" s="4"/>
+      <c r="E758" s="4"/>
     </row>
     <row r="759" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B759" s="5"/>
-      <c r="E759" s="3"/>
+      <c r="B759" s="4"/>
+      <c r="E759" s="4"/>
     </row>
     <row r="760" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B760" s="5"/>
-      <c r="E760" s="3"/>
+      <c r="B760" s="4"/>
+      <c r="E760" s="4"/>
     </row>
     <row r="761" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B761" s="5"/>
-      <c r="E761" s="3"/>
+      <c r="B761" s="4"/>
+      <c r="E761" s="4"/>
     </row>
     <row r="762" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B762" s="5"/>
-      <c r="E762" s="3"/>
+      <c r="B762" s="4"/>
+      <c r="E762" s="4"/>
     </row>
     <row r="763" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B763" s="5"/>
-      <c r="E763" s="3"/>
+      <c r="B763" s="4"/>
+      <c r="E763" s="4"/>
     </row>
     <row r="764" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B764" s="5"/>
-      <c r="E764" s="3"/>
+      <c r="B764" s="4"/>
+      <c r="E764" s="4"/>
     </row>
     <row r="765" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B765" s="5"/>
-      <c r="E765" s="3"/>
+      <c r="B765" s="4"/>
+      <c r="E765" s="4"/>
     </row>
     <row r="766" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B766" s="5"/>
-      <c r="E766" s="3"/>
+      <c r="B766" s="4"/>
+      <c r="E766" s="4"/>
     </row>
     <row r="767" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B767" s="5"/>
-      <c r="E767" s="3"/>
+      <c r="B767" s="4"/>
+      <c r="E767" s="4"/>
     </row>
     <row r="768" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B768" s="5"/>
-      <c r="E768" s="3"/>
+      <c r="B768" s="4"/>
+      <c r="E768" s="4"/>
     </row>
     <row r="769" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B769" s="5"/>
-      <c r="E769" s="3"/>
+      <c r="B769" s="4"/>
+      <c r="E769" s="4"/>
     </row>
     <row r="770" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B770" s="5"/>
-      <c r="E770" s="3"/>
+      <c r="B770" s="4"/>
+      <c r="E770" s="4"/>
     </row>
     <row r="771" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B771" s="5"/>
-      <c r="E771" s="3"/>
+      <c r="B771" s="4"/>
+      <c r="E771" s="4"/>
     </row>
     <row r="772" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B772" s="5"/>
-      <c r="E772" s="3"/>
+      <c r="B772" s="4"/>
+      <c r="E772" s="4"/>
     </row>
     <row r="773" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B773" s="5"/>
-      <c r="E773" s="3"/>
+      <c r="B773" s="4"/>
+      <c r="E773" s="4"/>
     </row>
     <row r="774" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B774" s="5"/>
-      <c r="E774" s="3"/>
+      <c r="B774" s="4"/>
+      <c r="E774" s="4"/>
     </row>
     <row r="775" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B775" s="5"/>
-      <c r="E775" s="3"/>
+      <c r="B775" s="4"/>
+      <c r="E775" s="4"/>
     </row>
     <row r="776" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B776" s="5"/>
-      <c r="E776" s="3"/>
+      <c r="B776" s="4"/>
+      <c r="E776" s="4"/>
     </row>
     <row r="777" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B777" s="5"/>
-      <c r="E777" s="3"/>
+      <c r="B777" s="4"/>
+      <c r="E777" s="4"/>
     </row>
     <row r="778" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B778" s="5"/>
-      <c r="E778" s="3"/>
+      <c r="B778" s="4"/>
+      <c r="E778" s="4"/>
     </row>
     <row r="779" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B779" s="5"/>
-      <c r="E779" s="3"/>
+      <c r="B779" s="4"/>
+      <c r="E779" s="4"/>
     </row>
     <row r="780" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B780" s="5"/>
-      <c r="E780" s="3"/>
+      <c r="B780" s="4"/>
+      <c r="E780" s="4"/>
     </row>
     <row r="781" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B781" s="5"/>
-      <c r="E781" s="3"/>
+      <c r="B781" s="4"/>
+      <c r="E781" s="4"/>
     </row>
     <row r="782" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B782" s="5"/>
-      <c r="E782" s="3"/>
+      <c r="B782" s="4"/>
+      <c r="E782" s="4"/>
     </row>
     <row r="783" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B783" s="5"/>
-      <c r="E783" s="3"/>
+      <c r="B783" s="4"/>
+      <c r="E783" s="4"/>
     </row>
     <row r="784" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B784" s="5"/>
-      <c r="E784" s="3"/>
+      <c r="B784" s="4"/>
+      <c r="E784" s="4"/>
     </row>
     <row r="785" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B785" s="5"/>
-      <c r="E785" s="3"/>
+      <c r="B785" s="4"/>
+      <c r="E785" s="4"/>
     </row>
     <row r="786" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B786" s="5"/>
-      <c r="E786" s="3"/>
+      <c r="B786" s="4"/>
+      <c r="E786" s="4"/>
     </row>
     <row r="787" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B787" s="5"/>
-      <c r="E787" s="3"/>
+      <c r="B787" s="4"/>
+      <c r="E787" s="4"/>
     </row>
     <row r="788" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B788" s="5"/>
-      <c r="E788" s="3"/>
+      <c r="B788" s="4"/>
+      <c r="E788" s="4"/>
     </row>
     <row r="789" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B789" s="5"/>
-      <c r="E789" s="3"/>
+      <c r="B789" s="4"/>
+      <c r="E789" s="4"/>
     </row>
     <row r="790" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B790" s="5"/>
-      <c r="E790" s="3"/>
+      <c r="B790" s="4"/>
+      <c r="E790" s="4"/>
     </row>
     <row r="791" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B791" s="5"/>
-      <c r="E791" s="3"/>
+      <c r="B791" s="4"/>
+      <c r="E791" s="4"/>
     </row>
     <row r="792" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B792" s="5"/>
-      <c r="E792" s="3"/>
+      <c r="B792" s="4"/>
+      <c r="E792" s="4"/>
     </row>
     <row r="793" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B793" s="5"/>
-      <c r="E793" s="3"/>
+      <c r="B793" s="4"/>
+      <c r="E793" s="4"/>
     </row>
     <row r="794" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B794" s="5"/>
-      <c r="E794" s="3"/>
+      <c r="B794" s="4"/>
+      <c r="E794" s="4"/>
     </row>
     <row r="795" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B795" s="5"/>
-      <c r="E795" s="3"/>
+      <c r="B795" s="4"/>
+      <c r="E795" s="4"/>
     </row>
     <row r="796" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B796" s="5"/>
-      <c r="E796" s="3"/>
+      <c r="B796" s="4"/>
+      <c r="E796" s="4"/>
     </row>
     <row r="797" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B797" s="5"/>
-      <c r="E797" s="3"/>
+      <c r="B797" s="4"/>
+      <c r="E797" s="4"/>
     </row>
     <row r="798" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B798" s="5"/>
-      <c r="E798" s="3"/>
+      <c r="B798" s="4"/>
+      <c r="E798" s="4"/>
     </row>
     <row r="799" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B799" s="5"/>
-      <c r="E799" s="3"/>
+      <c r="B799" s="4"/>
+      <c r="E799" s="4"/>
     </row>
     <row r="800" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B800" s="5"/>
-      <c r="E800" s="3"/>
+      <c r="B800" s="4"/>
+      <c r="E800" s="4"/>
     </row>
     <row r="801" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B801" s="5"/>
-      <c r="E801" s="3"/>
+      <c r="B801" s="4"/>
+      <c r="E801" s="4"/>
     </row>
     <row r="802" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B802" s="5"/>
-      <c r="E802" s="3"/>
+      <c r="B802" s="4"/>
+      <c r="E802" s="4"/>
     </row>
     <row r="803" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B803" s="5"/>
-      <c r="E803" s="3"/>
+      <c r="B803" s="4"/>
+      <c r="E803" s="4"/>
     </row>
     <row r="804" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B804" s="5"/>
-      <c r="E804" s="3"/>
+      <c r="B804" s="4"/>
+      <c r="E804" s="4"/>
     </row>
     <row r="805" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B805" s="5"/>
-      <c r="E805" s="3"/>
+      <c r="B805" s="4"/>
+      <c r="E805" s="4"/>
     </row>
     <row r="806" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B806" s="5"/>
-      <c r="E806" s="3"/>
+      <c r="B806" s="4"/>
+      <c r="E806" s="4"/>
     </row>
     <row r="807" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B807" s="5"/>
-      <c r="E807" s="3"/>
+      <c r="B807" s="4"/>
+      <c r="E807" s="4"/>
     </row>
     <row r="808" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B808" s="5"/>
-      <c r="E808" s="3"/>
+      <c r="B808" s="4"/>
+      <c r="E808" s="4"/>
     </row>
     <row r="809" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B809" s="5"/>
-      <c r="E809" s="3"/>
+      <c r="B809" s="4"/>
+      <c r="E809" s="4"/>
     </row>
     <row r="810" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B810" s="5"/>
-      <c r="E810" s="3"/>
+      <c r="B810" s="4"/>
+      <c r="E810" s="4"/>
     </row>
     <row r="811" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B811" s="5"/>
-      <c r="E811" s="3"/>
+      <c r="B811" s="4"/>
+      <c r="E811" s="4"/>
     </row>
     <row r="812" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B812" s="5"/>
-      <c r="E812" s="3"/>
+      <c r="B812" s="4"/>
+      <c r="E812" s="4"/>
     </row>
     <row r="813" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B813" s="5"/>
-      <c r="E813" s="3"/>
+      <c r="B813" s="4"/>
+      <c r="E813" s="4"/>
     </row>
     <row r="814" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B814" s="5"/>
-      <c r="E814" s="3"/>
+      <c r="B814" s="4"/>
+      <c r="E814" s="4"/>
     </row>
     <row r="815" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B815" s="5"/>
-      <c r="E815" s="3"/>
+      <c r="B815" s="4"/>
+      <c r="E815" s="4"/>
     </row>
     <row r="816" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B816" s="5"/>
-      <c r="E816" s="3"/>
+      <c r="B816" s="4"/>
+      <c r="E816" s="4"/>
     </row>
     <row r="817" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B817" s="5"/>
-      <c r="E817" s="3"/>
+      <c r="B817" s="4"/>
+      <c r="E817" s="4"/>
     </row>
     <row r="818" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B818" s="5"/>
-      <c r="E818" s="3"/>
+      <c r="B818" s="4"/>
+      <c r="E818" s="4"/>
     </row>
     <row r="819" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B819" s="5"/>
-      <c r="E819" s="3"/>
+      <c r="B819" s="4"/>
+      <c r="E819" s="4"/>
     </row>
     <row r="820" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B820" s="5"/>
-      <c r="E820" s="3"/>
+      <c r="B820" s="4"/>
+      <c r="E820" s="4"/>
     </row>
     <row r="821" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B821" s="5"/>
-      <c r="E821" s="3"/>
+      <c r="B821" s="4"/>
+      <c r="E821" s="4"/>
     </row>
     <row r="822" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B822" s="5"/>
-      <c r="E822" s="3"/>
+      <c r="B822" s="4"/>
+      <c r="E822" s="4"/>
     </row>
     <row r="823" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B823" s="5"/>
-      <c r="E823" s="3"/>
+      <c r="B823" s="4"/>
+      <c r="E823" s="4"/>
     </row>
     <row r="824" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B824" s="5"/>
-      <c r="E824" s="3"/>
+      <c r="B824" s="4"/>
+      <c r="E824" s="4"/>
     </row>
     <row r="825" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B825" s="5"/>
-      <c r="E825" s="3"/>
+      <c r="B825" s="4"/>
+      <c r="E825" s="4"/>
     </row>
     <row r="826" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B826" s="5"/>
-      <c r="E826" s="3"/>
+      <c r="B826" s="4"/>
+      <c r="E826" s="4"/>
     </row>
     <row r="827" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B827" s="5"/>
-      <c r="E827" s="3"/>
+      <c r="B827" s="4"/>
+      <c r="E827" s="4"/>
     </row>
     <row r="828" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B828" s="5"/>
-      <c r="E828" s="3"/>
+      <c r="B828" s="4"/>
+      <c r="E828" s="4"/>
     </row>
     <row r="829" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B829" s="5"/>
-      <c r="E829" s="3"/>
+      <c r="B829" s="4"/>
+      <c r="E829" s="4"/>
     </row>
     <row r="830" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B830" s="5"/>
-      <c r="E830" s="3"/>
+      <c r="B830" s="4"/>
+      <c r="E830" s="4"/>
     </row>
     <row r="831" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B831" s="5"/>
-      <c r="E831" s="3"/>
+      <c r="B831" s="4"/>
+      <c r="E831" s="4"/>
     </row>
     <row r="832" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B832" s="5"/>
-      <c r="E832" s="3"/>
+      <c r="B832" s="4"/>
+      <c r="E832" s="4"/>
     </row>
     <row r="833" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B833" s="5"/>
-      <c r="E833" s="3"/>
+      <c r="B833" s="4"/>
+      <c r="E833" s="4"/>
     </row>
     <row r="834" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B834" s="5"/>
-      <c r="E834" s="3"/>
+      <c r="B834" s="4"/>
+      <c r="E834" s="4"/>
     </row>
     <row r="835" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B835" s="5"/>
-      <c r="E835" s="3"/>
+      <c r="B835" s="4"/>
+      <c r="E835" s="4"/>
     </row>
     <row r="836" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B836" s="5"/>
-      <c r="E836" s="3"/>
+      <c r="B836" s="4"/>
+      <c r="E836" s="4"/>
     </row>
     <row r="837" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B837" s="5"/>
-      <c r="E837" s="3"/>
+      <c r="B837" s="4"/>
+      <c r="E837" s="4"/>
     </row>
     <row r="838" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B838" s="5"/>
-      <c r="E838" s="3"/>
+      <c r="B838" s="4"/>
+      <c r="E838" s="4"/>
     </row>
     <row r="839" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B839" s="5"/>
-      <c r="E839" s="3"/>
+      <c r="B839" s="4"/>
+      <c r="E839" s="4"/>
     </row>
     <row r="840" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B840" s="5"/>
-      <c r="E840" s="3"/>
+      <c r="B840" s="4"/>
+      <c r="E840" s="4"/>
     </row>
     <row r="841" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B841" s="5"/>
-      <c r="E841" s="3"/>
+      <c r="B841" s="4"/>
+      <c r="E841" s="4"/>
     </row>
     <row r="842" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B842" s="5"/>
-      <c r="E842" s="3"/>
+      <c r="B842" s="4"/>
+      <c r="E842" s="4"/>
     </row>
     <row r="843" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B843" s="5"/>
-      <c r="E843" s="3"/>
+      <c r="B843" s="4"/>
+      <c r="E843" s="4"/>
     </row>
     <row r="844" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B844" s="5"/>
-      <c r="E844" s="3"/>
+      <c r="B844" s="4"/>
+      <c r="E844" s="4"/>
     </row>
     <row r="845" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B845" s="5"/>
-      <c r="E845" s="3"/>
+      <c r="B845" s="4"/>
+      <c r="E845" s="4"/>
     </row>
     <row r="846" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B846" s="5"/>
-      <c r="E846" s="3"/>
+      <c r="B846" s="4"/>
+      <c r="E846" s="4"/>
     </row>
     <row r="847" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B847" s="5"/>
-      <c r="E847" s="3"/>
+      <c r="B847" s="4"/>
+      <c r="E847" s="4"/>
     </row>
     <row r="848" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B848" s="5"/>
-      <c r="E848" s="3"/>
+      <c r="B848" s="4"/>
+      <c r="E848" s="4"/>
     </row>
     <row r="849" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B849" s="5"/>
-      <c r="E849" s="3"/>
+      <c r="B849" s="4"/>
+      <c r="E849" s="4"/>
     </row>
     <row r="850" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B850" s="5"/>
-      <c r="E850" s="3"/>
+      <c r="B850" s="4"/>
+      <c r="E850" s="4"/>
     </row>
     <row r="851" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B851" s="5"/>
-      <c r="E851" s="3"/>
+      <c r="B851" s="4"/>
+      <c r="E851" s="4"/>
     </row>
     <row r="852" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B852" s="5"/>
-      <c r="E852" s="3"/>
+      <c r="B852" s="4"/>
+      <c r="E852" s="4"/>
     </row>
     <row r="853" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B853" s="5"/>
-      <c r="E853" s="3"/>
+      <c r="B853" s="4"/>
+      <c r="E853" s="4"/>
     </row>
     <row r="854" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B854" s="5"/>
-      <c r="E854" s="3"/>
+      <c r="B854" s="4"/>
+      <c r="E854" s="4"/>
     </row>
     <row r="855" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B855" s="5"/>
-      <c r="E855" s="3"/>
+      <c r="B855" s="4"/>
+      <c r="E855" s="4"/>
     </row>
     <row r="856" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B856" s="5"/>
-      <c r="E856" s="3"/>
+      <c r="B856" s="4"/>
+      <c r="E856" s="4"/>
     </row>
     <row r="857" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B857" s="5"/>
-      <c r="E857" s="3"/>
+      <c r="B857" s="4"/>
+      <c r="E857" s="4"/>
     </row>
     <row r="858" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B858" s="5"/>
-      <c r="E858" s="3"/>
+      <c r="B858" s="4"/>
+      <c r="E858" s="4"/>
     </row>
     <row r="859" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B859" s="5"/>
-      <c r="E859" s="3"/>
+      <c r="B859" s="4"/>
+      <c r="E859" s="4"/>
     </row>
     <row r="860" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B860" s="5"/>
-      <c r="E860" s="3"/>
+      <c r="B860" s="4"/>
+      <c r="E860" s="4"/>
     </row>
     <row r="861" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B861" s="5"/>
-      <c r="E861" s="3"/>
+      <c r="B861" s="4"/>
+      <c r="E861" s="4"/>
     </row>
     <row r="862" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B862" s="5"/>
-      <c r="E862" s="3"/>
+      <c r="B862" s="4"/>
+      <c r="E862" s="4"/>
     </row>
     <row r="863" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B863" s="5"/>
-      <c r="E863" s="3"/>
+      <c r="B863" s="4"/>
+      <c r="E863" s="4"/>
     </row>
     <row r="864" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B864" s="5"/>
-      <c r="E864" s="3"/>
+      <c r="B864" s="4"/>
+      <c r="E864" s="4"/>
     </row>
     <row r="865" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B865" s="5"/>
-      <c r="E865" s="3"/>
+      <c r="B865" s="4"/>
+      <c r="E865" s="4"/>
     </row>
     <row r="866" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B866" s="5"/>
-      <c r="E866" s="3"/>
+      <c r="B866" s="4"/>
+      <c r="E866" s="4"/>
     </row>
     <row r="867" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B867" s="5"/>
-      <c r="E867" s="3"/>
+      <c r="B867" s="4"/>
+      <c r="E867" s="4"/>
     </row>
     <row r="868" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B868" s="5"/>
-      <c r="E868" s="3"/>
+      <c r="B868" s="4"/>
+      <c r="E868" s="4"/>
     </row>
     <row r="869" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B869" s="5"/>
-      <c r="E869" s="3"/>
+      <c r="B869" s="4"/>
+      <c r="E869" s="4"/>
     </row>
     <row r="870" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B870" s="5"/>
-      <c r="E870" s="3"/>
+      <c r="B870" s="4"/>
+      <c r="E870" s="4"/>
     </row>
     <row r="871" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B871" s="5"/>
-      <c r="E871" s="3"/>
+      <c r="B871" s="4"/>
+      <c r="E871" s="4"/>
     </row>
     <row r="872" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B872" s="5"/>
-      <c r="E872" s="3"/>
+      <c r="B872" s="4"/>
+      <c r="E872" s="4"/>
     </row>
     <row r="873" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B873" s="5"/>
-      <c r="E873" s="3"/>
+      <c r="B873" s="4"/>
+      <c r="E873" s="4"/>
     </row>
     <row r="874" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B874" s="5"/>
-      <c r="E874" s="3"/>
+      <c r="B874" s="4"/>
+      <c r="E874" s="4"/>
     </row>
     <row r="875" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B875" s="5"/>
-      <c r="E875" s="3"/>
+      <c r="B875" s="4"/>
+      <c r="E875" s="4"/>
     </row>
     <row r="876" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B876" s="5"/>
-      <c r="E876" s="3"/>
+      <c r="B876" s="4"/>
+      <c r="E876" s="4"/>
     </row>
     <row r="877" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B877" s="5"/>
-      <c r="E877" s="3"/>
+      <c r="B877" s="4"/>
+      <c r="E877" s="4"/>
     </row>
     <row r="878" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B878" s="5"/>
-      <c r="E878" s="3"/>
+      <c r="B878" s="4"/>
+      <c r="E878" s="4"/>
     </row>
     <row r="879" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B879" s="5"/>
-      <c r="E879" s="3"/>
+      <c r="B879" s="4"/>
+      <c r="E879" s="4"/>
     </row>
     <row r="880" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B880" s="5"/>
-      <c r="E880" s="3"/>
+      <c r="B880" s="4"/>
+      <c r="E880" s="4"/>
     </row>
     <row r="881" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B881" s="5"/>
-      <c r="E881" s="3"/>
+      <c r="B881" s="4"/>
+      <c r="E881" s="4"/>
     </row>
     <row r="882" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B882" s="5"/>
-      <c r="E882" s="3"/>
+      <c r="B882" s="4"/>
+      <c r="E882" s="4"/>
     </row>
     <row r="883" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B883" s="5"/>
-      <c r="E883" s="3"/>
+      <c r="B883" s="4"/>
+      <c r="E883" s="4"/>
     </row>
     <row r="884" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B884" s="5"/>
-      <c r="E884" s="3"/>
+      <c r="B884" s="4"/>
+      <c r="E884" s="4"/>
     </row>
     <row r="885" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B885" s="5"/>
-      <c r="E885" s="3"/>
+      <c r="B885" s="4"/>
+      <c r="E885" s="4"/>
     </row>
     <row r="886" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B886" s="5"/>
-      <c r="E886" s="3"/>
+      <c r="B886" s="4"/>
+      <c r="E886" s="4"/>
     </row>
     <row r="887" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B887" s="5"/>
-      <c r="E887" s="3"/>
+      <c r="B887" s="4"/>
+      <c r="E887" s="4"/>
     </row>
     <row r="888" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B888" s="5"/>
-      <c r="E888" s="3"/>
+      <c r="B888" s="4"/>
+      <c r="E888" s="4"/>
     </row>
     <row r="889" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B889" s="5"/>
-      <c r="E889" s="3"/>
+      <c r="B889" s="4"/>
+      <c r="E889" s="4"/>
     </row>
     <row r="890" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B890" s="5"/>
-      <c r="E890" s="3"/>
+      <c r="B890" s="4"/>
+      <c r="E890" s="4"/>
     </row>
     <row r="891" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B891" s="5"/>
-      <c r="E891" s="3"/>
+      <c r="B891" s="4"/>
+      <c r="E891" s="4"/>
     </row>
     <row r="892" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B892" s="5"/>
-      <c r="E892" s="3"/>
+      <c r="B892" s="4"/>
+      <c r="E892" s="4"/>
     </row>
     <row r="893" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B893" s="5"/>
-      <c r="E893" s="3"/>
+      <c r="B893" s="4"/>
+      <c r="E893" s="4"/>
     </row>
     <row r="894" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B894" s="5"/>
-      <c r="E894" s="3"/>
+      <c r="B894" s="4"/>
+      <c r="E894" s="4"/>
     </row>
     <row r="895" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B895" s="5"/>
-      <c r="E895" s="3"/>
+      <c r="B895" s="4"/>
+      <c r="E895" s="4"/>
     </row>
     <row r="896" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B896" s="5"/>
-      <c r="E896" s="3"/>
+      <c r="B896" s="4"/>
+      <c r="E896" s="4"/>
     </row>
     <row r="897" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B897" s="5"/>
-      <c r="E897" s="3"/>
+      <c r="B897" s="4"/>
+      <c r="E897" s="4"/>
     </row>
     <row r="898" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B898" s="5"/>
-      <c r="E898" s="3"/>
+      <c r="B898" s="4"/>
+      <c r="E898" s="4"/>
     </row>
     <row r="899" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B899" s="5"/>
-      <c r="E899" s="3"/>
+      <c r="B899" s="4"/>
+      <c r="E899" s="4"/>
     </row>
     <row r="900" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B900" s="5"/>
-      <c r="E900" s="3"/>
+      <c r="B900" s="4"/>
+      <c r="E900" s="4"/>
     </row>
     <row r="901" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B901" s="5"/>
-      <c r="E901" s="3"/>
+      <c r="B901" s="4"/>
+      <c r="E901" s="4"/>
     </row>
     <row r="902" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B902" s="5"/>
-      <c r="E902" s="3"/>
+      <c r="B902" s="4"/>
+      <c r="E902" s="4"/>
     </row>
     <row r="903" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B903" s="5"/>
-      <c r="E903" s="3"/>
+      <c r="B903" s="4"/>
+      <c r="E903" s="4"/>
     </row>
     <row r="904" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B904" s="5"/>
-      <c r="E904" s="3"/>
+      <c r="B904" s="4"/>
+      <c r="E904" s="4"/>
     </row>
     <row r="905" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B905" s="5"/>
-      <c r="E905" s="3"/>
+      <c r="B905" s="4"/>
+      <c r="E905" s="4"/>
     </row>
     <row r="906" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B906" s="5"/>
-      <c r="E906" s="3"/>
+      <c r="B906" s="4"/>
+      <c r="E906" s="4"/>
     </row>
     <row r="907" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B907" s="5"/>
-      <c r="E907" s="3"/>
+      <c r="B907" s="4"/>
+      <c r="E907" s="4"/>
     </row>
     <row r="908" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B908" s="5"/>
-      <c r="E908" s="3"/>
+      <c r="B908" s="4"/>
+      <c r="E908" s="4"/>
     </row>
     <row r="909" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B909" s="5"/>
-      <c r="E909" s="3"/>
+      <c r="B909" s="4"/>
+      <c r="E909" s="4"/>
     </row>
     <row r="910" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B910" s="5"/>
-      <c r="E910" s="3"/>
+      <c r="B910" s="4"/>
+      <c r="E910" s="4"/>
     </row>
     <row r="911" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B911" s="5"/>
-      <c r="E911" s="3"/>
+      <c r="B911" s="4"/>
+      <c r="E911" s="4"/>
     </row>
     <row r="912" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B912" s="5"/>
-      <c r="E912" s="3"/>
+      <c r="B912" s="4"/>
+      <c r="E912" s="4"/>
     </row>
     <row r="913" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B913" s="5"/>
-      <c r="E913" s="3"/>
+      <c r="B913" s="4"/>
+      <c r="E913" s="4"/>
     </row>
     <row r="914" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B914" s="5"/>
-      <c r="E914" s="3"/>
+      <c r="B914" s="4"/>
+      <c r="E914" s="4"/>
     </row>
     <row r="915" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B915" s="5"/>
-      <c r="E915" s="3"/>
+      <c r="B915" s="4"/>
+      <c r="E915" s="4"/>
     </row>
     <row r="916" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B916" s="5"/>
-      <c r="E916" s="3"/>
+      <c r="B916" s="4"/>
+      <c r="E916" s="4"/>
     </row>
     <row r="917" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B917" s="5"/>
-      <c r="E917" s="3"/>
+      <c r="B917" s="4"/>
+      <c r="E917" s="4"/>
     </row>
     <row r="918" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B918" s="5"/>
-      <c r="E918" s="3"/>
+      <c r="B918" s="4"/>
+      <c r="E918" s="4"/>
     </row>
     <row r="919" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B919" s="5"/>
-      <c r="E919" s="3"/>
+      <c r="B919" s="4"/>
+      <c r="E919" s="4"/>
     </row>
     <row r="920" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B920" s="5"/>
-      <c r="E920" s="3"/>
+      <c r="B920" s="4"/>
+      <c r="E920" s="4"/>
     </row>
     <row r="921" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B921" s="5"/>
-      <c r="E921" s="3"/>
+      <c r="B921" s="4"/>
+      <c r="E921" s="4"/>
     </row>
     <row r="922" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B922" s="5"/>
-      <c r="E922" s="3"/>
+      <c r="B922" s="4"/>
+      <c r="E922" s="4"/>
     </row>
     <row r="923" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B923" s="5"/>
-      <c r="E923" s="3"/>
+      <c r="B923" s="4"/>
+      <c r="E923" s="4"/>
     </row>
     <row r="924" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B924" s="5"/>
-      <c r="E924" s="3"/>
+      <c r="B924" s="4"/>
+      <c r="E924" s="4"/>
     </row>
     <row r="925" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B925" s="5"/>
-      <c r="E925" s="3"/>
+      <c r="B925" s="4"/>
+      <c r="E925" s="4"/>
     </row>
     <row r="926" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B926" s="5"/>
-      <c r="E926" s="3"/>
+      <c r="B926" s="4"/>
+      <c r="E926" s="4"/>
     </row>
     <row r="927" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B927" s="5"/>
-      <c r="E927" s="3"/>
+      <c r="B927" s="4"/>
+      <c r="E927" s="4"/>
     </row>
     <row r="928" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B928" s="5"/>
-      <c r="E928" s="3"/>
+      <c r="B928" s="4"/>
+      <c r="E928" s="4"/>
     </row>
     <row r="929" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B929" s="5"/>
-      <c r="E929" s="3"/>
+      <c r="B929" s="4"/>
+      <c r="E929" s="4"/>
     </row>
     <row r="930" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B930" s="5"/>
-      <c r="E930" s="3"/>
+      <c r="B930" s="4"/>
+      <c r="E930" s="4"/>
     </row>
     <row r="931" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B931" s="5"/>
-      <c r="E931" s="3"/>
+      <c r="B931" s="4"/>
+      <c r="E931" s="4"/>
     </row>
     <row r="932" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B932" s="5"/>
-      <c r="E932" s="3"/>
+      <c r="B932" s="4"/>
+      <c r="E932" s="4"/>
     </row>
     <row r="933" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B933" s="5"/>
-      <c r="E933" s="3"/>
+      <c r="B933" s="4"/>
+      <c r="E933" s="4"/>
     </row>
     <row r="934" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B934" s="5"/>
-      <c r="E934" s="3"/>
+      <c r="B934" s="4"/>
+      <c r="E934" s="4"/>
     </row>
     <row r="935" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B935" s="5"/>
-      <c r="E935" s="3"/>
+      <c r="B935" s="4"/>
+      <c r="E935" s="4"/>
     </row>
     <row r="936" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B936" s="5"/>
-      <c r="E936" s="3"/>
+      <c r="B936" s="4"/>
+      <c r="E936" s="4"/>
     </row>
     <row r="937" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B937" s="5"/>
-      <c r="E937" s="3"/>
+      <c r="B937" s="4"/>
+      <c r="E937" s="4"/>
     </row>
     <row r="938" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B938" s="5"/>
-      <c r="E938" s="3"/>
+      <c r="B938" s="4"/>
+      <c r="E938" s="4"/>
     </row>
     <row r="939" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B939" s="5"/>
-      <c r="E939" s="3"/>
+      <c r="B939" s="4"/>
+      <c r="E939" s="4"/>
     </row>
     <row r="940" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B940" s="5"/>
-      <c r="E940" s="3"/>
+      <c r="B940" s="4"/>
+      <c r="E940" s="4"/>
     </row>
     <row r="941" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B941" s="5"/>
-      <c r="E941" s="3"/>
+      <c r="B941" s="4"/>
+      <c r="E941" s="4"/>
     </row>
     <row r="942" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B942" s="5"/>
-      <c r="E942" s="3"/>
+      <c r="B942" s="4"/>
+      <c r="E942" s="4"/>
     </row>
     <row r="943" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B943" s="5"/>
-      <c r="E943" s="3"/>
+      <c r="B943" s="4"/>
+      <c r="E943" s="4"/>
     </row>
     <row r="944" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B944" s="5"/>
-      <c r="E944" s="3"/>
+      <c r="B944" s="4"/>
+      <c r="E944" s="4"/>
     </row>
     <row r="945" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B945" s="5"/>
-      <c r="E945" s="3"/>
+      <c r="B945" s="4"/>
+      <c r="E945" s="4"/>
     </row>
     <row r="946" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B946" s="5"/>
-      <c r="E946" s="3"/>
+      <c r="B946" s="4"/>
+      <c r="E946" s="4"/>
     </row>
     <row r="947" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B947" s="5"/>
-      <c r="E947" s="3"/>
+      <c r="B947" s="4"/>
+      <c r="E947" s="4"/>
     </row>
     <row r="948" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B948" s="5"/>
-      <c r="E948" s="3"/>
+      <c r="B948" s="4"/>
+      <c r="E948" s="4"/>
     </row>
     <row r="949" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B949" s="5"/>
-      <c r="E949" s="3"/>
+      <c r="B949" s="4"/>
+      <c r="E949" s="4"/>
     </row>
     <row r="950" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B950" s="5"/>
-      <c r="E950" s="3"/>
+      <c r="B950" s="4"/>
+      <c r="E950" s="4"/>
     </row>
     <row r="951" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B951" s="5"/>
-      <c r="E951" s="3"/>
+      <c r="B951" s="4"/>
+      <c r="E951" s="4"/>
     </row>
     <row r="952" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B952" s="5"/>
-      <c r="E952" s="3"/>
+      <c r="B952" s="4"/>
+      <c r="E952" s="4"/>
     </row>
     <row r="953" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B953" s="5"/>
-      <c r="E953" s="3"/>
+      <c r="B953" s="4"/>
+      <c r="E953" s="4"/>
     </row>
     <row r="954" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B954" s="5"/>
-      <c r="E954" s="3"/>
+      <c r="B954" s="4"/>
+      <c r="E954" s="4"/>
     </row>
     <row r="955" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B955" s="5"/>
-      <c r="E955" s="3"/>
+      <c r="B955" s="4"/>
+      <c r="E955" s="4"/>
     </row>
     <row r="956" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B956" s="5"/>
-      <c r="E956" s="3"/>
+      <c r="B956" s="4"/>
+      <c r="E956" s="4"/>
     </row>
     <row r="957" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B957" s="5"/>
-      <c r="E957" s="3"/>
+      <c r="B957" s="4"/>
+      <c r="E957" s="4"/>
     </row>
     <row r="958" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B958" s="5"/>
-      <c r="E958" s="3"/>
+      <c r="B958" s="4"/>
+      <c r="E958" s="4"/>
     </row>
     <row r="959" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B959" s="5"/>
-      <c r="E959" s="3"/>
+      <c r="B959" s="4"/>
+      <c r="E959" s="4"/>
     </row>
     <row r="960" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B960" s="5"/>
-      <c r="E960" s="3"/>
+      <c r="B960" s="4"/>
+      <c r="E960" s="4"/>
     </row>
     <row r="961" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B961" s="5"/>
-      <c r="E961" s="3"/>
+      <c r="B961" s="4"/>
+      <c r="E961" s="4"/>
     </row>
     <row r="962" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B962" s="5"/>
-      <c r="E962" s="3"/>
+      <c r="B962" s="4"/>
+      <c r="E962" s="4"/>
     </row>
     <row r="963" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B963" s="5"/>
-      <c r="E963" s="3"/>
+      <c r="B963" s="4"/>
+      <c r="E963" s="4"/>
     </row>
     <row r="964" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B964" s="5"/>
-      <c r="E964" s="3"/>
+      <c r="B964" s="4"/>
+      <c r="E964" s="4"/>
     </row>
     <row r="965" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B965" s="5"/>
-      <c r="E965" s="3"/>
+      <c r="B965" s="4"/>
+      <c r="E965" s="4"/>
     </row>
     <row r="966" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B966" s="5"/>
-      <c r="E966" s="3"/>
+      <c r="B966" s="4"/>
+      <c r="E966" s="4"/>
     </row>
     <row r="967" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B967" s="5"/>
-      <c r="E967" s="3"/>
+      <c r="B967" s="4"/>
+      <c r="E967" s="4"/>
     </row>
     <row r="968" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B968" s="5"/>
-      <c r="E968" s="3"/>
+      <c r="B968" s="4"/>
+      <c r="E968" s="4"/>
     </row>
     <row r="969" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B969" s="5"/>
-      <c r="E969" s="3"/>
+      <c r="B969" s="4"/>
+      <c r="E969" s="4"/>
     </row>
     <row r="970" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B970" s="5"/>
-      <c r="E970" s="3"/>
+      <c r="B970" s="4"/>
+      <c r="E970" s="4"/>
     </row>
     <row r="971" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B971" s="5"/>
-      <c r="E971" s="3"/>
+      <c r="B971" s="4"/>
+      <c r="E971" s="4"/>
     </row>
     <row r="972" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B972" s="5"/>
-      <c r="E972" s="3"/>
+      <c r="B972" s="4"/>
+      <c r="E972" s="4"/>
     </row>
     <row r="973" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B973" s="5"/>
-      <c r="E973" s="3"/>
+      <c r="B973" s="4"/>
+      <c r="E973" s="4"/>
     </row>
     <row r="974" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B974" s="5"/>
-      <c r="E974" s="3"/>
+      <c r="B974" s="4"/>
+      <c r="E974" s="4"/>
     </row>
     <row r="975" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B975" s="5"/>
-      <c r="E975" s="3"/>
+      <c r="B975" s="4"/>
+      <c r="E975" s="4"/>
     </row>
     <row r="976" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B976" s="5"/>
-      <c r="E976" s="3"/>
+      <c r="B976" s="4"/>
+      <c r="E976" s="4"/>
     </row>
     <row r="977" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B977" s="5"/>
-      <c r="E977" s="3"/>
+      <c r="B977" s="4"/>
+      <c r="E977" s="4"/>
     </row>
     <row r="978" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B978" s="5"/>
-      <c r="E978" s="3"/>
+      <c r="B978" s="4"/>
+      <c r="E978" s="4"/>
     </row>
     <row r="979" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B979" s="5"/>
-      <c r="E979" s="3"/>
+      <c r="B979" s="4"/>
+      <c r="E979" s="4"/>
     </row>
     <row r="980" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B980" s="5"/>
-      <c r="E980" s="3"/>
+      <c r="B980" s="4"/>
+      <c r="E980" s="4"/>
     </row>
     <row r="981" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B981" s="5"/>
-      <c r="E981" s="3"/>
+      <c r="B981" s="4"/>
+      <c r="E981" s="4"/>
     </row>
     <row r="982" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B982" s="5"/>
-      <c r="E982" s="3"/>
+      <c r="B982" s="4"/>
+      <c r="E982" s="4"/>
     </row>
     <row r="983" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B983" s="5"/>
-      <c r="E983" s="3"/>
+      <c r="B983" s="4"/>
+      <c r="E983" s="4"/>
     </row>
     <row r="984" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B984" s="5"/>
-      <c r="E984" s="3"/>
+      <c r="B984" s="4"/>
+      <c r="E984" s="4"/>
     </row>
     <row r="985" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B985" s="5"/>
-      <c r="E985" s="3"/>
+      <c r="B985" s="4"/>
+      <c r="E985" s="4"/>
     </row>
     <row r="986" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B986" s="5"/>
-      <c r="E986" s="3"/>
+      <c r="B986" s="4"/>
+      <c r="E986" s="4"/>
     </row>
     <row r="987" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B987" s="5"/>
-      <c r="E987" s="3"/>
+      <c r="B987" s="4"/>
+      <c r="E987" s="4"/>
     </row>
     <row r="988" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B988" s="5"/>
-      <c r="E988" s="3"/>
+      <c r="B988" s="4"/>
+      <c r="E988" s="4"/>
     </row>
     <row r="989" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B989" s="5"/>
-      <c r="E989" s="3"/>
+      <c r="B989" s="4"/>
+      <c r="E989" s="4"/>
     </row>
     <row r="990" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B990" s="5"/>
-      <c r="E990" s="3"/>
+      <c r="B990" s="4"/>
+      <c r="E990" s="4"/>
     </row>
     <row r="991" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B991" s="5"/>
-      <c r="E991" s="3"/>
+      <c r="B991" s="4"/>
+      <c r="E991" s="4"/>
     </row>
     <row r="992" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B992" s="5"/>
-      <c r="E992" s="3"/>
+      <c r="B992" s="4"/>
+      <c r="E992" s="4"/>
     </row>
     <row r="993" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B993" s="5"/>
-      <c r="E993" s="3"/>
+      <c r="B993" s="4"/>
+      <c r="E993" s="4"/>
     </row>
     <row r="994" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B994" s="5"/>
-      <c r="E994" s="3"/>
+      <c r="B994" s="4"/>
+      <c r="E994" s="4"/>
     </row>
     <row r="995" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B995" s="5"/>
-      <c r="E995" s="3"/>
+      <c r="B995" s="4"/>
+      <c r="E995" s="4"/>
     </row>
     <row r="996" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B996" s="5"/>
-      <c r="E996" s="3"/>
+      <c r="B996" s="4"/>
+      <c r="E996" s="4"/>
     </row>
     <row r="997" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B997" s="5"/>
-      <c r="E997" s="3"/>
+      <c r="B997" s="4"/>
+      <c r="E997" s="4"/>
     </row>
     <row r="998" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B998" s="5"/>
-      <c r="E998" s="3"/>
+      <c r="B998" s="4"/>
+      <c r="E998" s="4"/>
     </row>
     <row r="999" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B999" s="5"/>
-      <c r="E999" s="3"/>
+      <c r="B999" s="4"/>
+      <c r="E999" s="4"/>
     </row>
     <row r="1000" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1000" s="5"/>
-      <c r="E1000" s="3"/>
+      <c r="B1000" s="4"/>
+      <c r="E1000" s="4"/>
     </row>
     <row r="1001" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1001" s="5"/>
-      <c r="E1001" s="3"/>
+      <c r="B1001" s="4"/>
+      <c r="E1001" s="4"/>
     </row>
     <row r="1002" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1002" s="5"/>
-      <c r="E1002" s="3"/>
+      <c r="B1002" s="4"/>
+      <c r="E1002" s="4"/>
     </row>
     <row r="1003" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1003" s="5"/>
-      <c r="E1003" s="3"/>
+      <c r="B1003" s="4"/>
+      <c r="E1003" s="4"/>
     </row>
     <row r="1004" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1004" s="5"/>
-      <c r="E1004" s="3"/>
+      <c r="B1004" s="4"/>
+      <c r="E1004" s="4"/>
     </row>
     <row r="1005" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1005" s="5"/>
-      <c r="E1005" s="3"/>
+      <c r="B1005" s="4"/>
+      <c r="E1005" s="4"/>
     </row>
     <row r="1006" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1006" s="5"/>
-      <c r="E1006" s="3"/>
+      <c r="B1006" s="4"/>
+      <c r="E1006" s="4"/>
     </row>
     <row r="1007" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1007" s="5"/>
-      <c r="E1007" s="3"/>
+      <c r="B1007" s="4"/>
+      <c r="E1007" s="4"/>
     </row>
     <row r="1008" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1008" s="5"/>
-      <c r="E1008" s="3"/>
+      <c r="B1008" s="4"/>
+      <c r="E1008" s="4"/>
     </row>
     <row r="1009" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1009" s="5"/>
-      <c r="E1009" s="3"/>
+      <c r="B1009" s="4"/>
+      <c r="E1009" s="4"/>
     </row>
     <row r="1010" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1010" s="5"/>
-      <c r="E1010" s="3"/>
+      <c r="B1010" s="4"/>
+      <c r="E1010" s="4"/>
     </row>
     <row r="1011" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1011" s="5"/>
-      <c r="E1011" s="3"/>
+      <c r="B1011" s="4"/>
+      <c r="E1011" s="4"/>
     </row>
     <row r="1012" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1012" s="5"/>
-      <c r="E1012" s="3"/>
+      <c r="B1012" s="4"/>
+      <c r="E1012" s="4"/>
     </row>
     <row r="1013" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1013" s="5"/>
-      <c r="E1013" s="3"/>
+      <c r="B1013" s="4"/>
+      <c r="E1013" s="4"/>
     </row>
     <row r="1014" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1014" s="5"/>
-      <c r="E1014" s="3"/>
+      <c r="B1014" s="4"/>
+      <c r="E1014" s="4"/>
     </row>
     <row r="1015" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1015" s="5"/>
-      <c r="E1015" s="3"/>
+      <c r="B1015" s="4"/>
+      <c r="E1015" s="4"/>
     </row>
     <row r="1016" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1016" s="5"/>
-      <c r="E1016" s="3"/>
+      <c r="B1016" s="4"/>
+      <c r="E1016" s="4"/>
     </row>
     <row r="1017" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1017" s="5"/>
-      <c r="E1017" s="3"/>
+      <c r="B1017" s="4"/>
+      <c r="E1017" s="4"/>
     </row>
     <row r="1018" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1018" s="5"/>
-      <c r="E1018" s="3"/>
+      <c r="B1018" s="4"/>
+      <c r="E1018" s="4"/>
     </row>
     <row r="1019" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1019" s="5"/>
-      <c r="E1019" s="3"/>
+      <c r="B1019" s="4"/>
+      <c r="E1019" s="4"/>
     </row>
     <row r="1020" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1020" s="5"/>
-      <c r="E1020" s="3"/>
+      <c r="B1020" s="4"/>
+      <c r="E1020" s="4"/>
     </row>
     <row r="1021" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1021" s="5"/>
-      <c r="E1021" s="3"/>
+      <c r="B1021" s="4"/>
+      <c r="E1021" s="4"/>
     </row>
     <row r="1022" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1022" s="5"/>
-      <c r="E1022" s="3"/>
+      <c r="B1022" s="4"/>
+      <c r="E1022" s="4"/>
     </row>
     <row r="1023" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1023" s="5"/>
-      <c r="E1023" s="3"/>
+      <c r="B1023" s="4"/>
+      <c r="E1023" s="4"/>
     </row>
     <row r="1024" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1024" s="5"/>
-      <c r="E1024" s="3"/>
+      <c r="B1024" s="4"/>
+      <c r="E1024" s="4"/>
     </row>
     <row r="1025" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1025" s="5"/>
-      <c r="E1025" s="3"/>
+      <c r="B1025" s="4"/>
+      <c r="E1025" s="4"/>
     </row>
     <row r="1026" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1026" s="5"/>
-      <c r="E1026" s="3"/>
+      <c r="B1026" s="4"/>
+      <c r="E1026" s="4"/>
     </row>
     <row r="1027" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1027" s="5"/>
-      <c r="E1027" s="3"/>
+      <c r="B1027" s="4"/>
+      <c r="E1027" s="4"/>
     </row>
     <row r="1028" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1028" s="5"/>
-      <c r="E1028" s="3"/>
+      <c r="B1028" s="4"/>
+      <c r="E1028" s="4"/>
     </row>
     <row r="1029" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1029" s="5"/>
-      <c r="E1029" s="3"/>
+      <c r="B1029" s="4"/>
+      <c r="E1029" s="4"/>
     </row>
     <row r="1030" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1030" s="5"/>
-      <c r="E1030" s="3"/>
+      <c r="B1030" s="4"/>
+      <c r="E1030" s="4"/>
     </row>
     <row r="1031" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1031" s="5"/>
-      <c r="E1031" s="3"/>
+      <c r="B1031" s="4"/>
+      <c r="E1031" s="4"/>
     </row>
     <row r="1032" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1032" s="5"/>
-      <c r="E1032" s="3"/>
+      <c r="B1032" s="4"/>
+      <c r="E1032" s="4"/>
     </row>
     <row r="1033" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1033" s="5"/>
-      <c r="E1033" s="3"/>
+      <c r="B1033" s="4"/>
+      <c r="E1033" s="4"/>
     </row>
     <row r="1034" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1034" s="5"/>
-      <c r="E1034" s="3"/>
+      <c r="B1034" s="4"/>
+      <c r="E1034" s="4"/>
     </row>
     <row r="1035" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1035" s="5"/>
-      <c r="E1035" s="3"/>
+      <c r="B1035" s="4"/>
+      <c r="E1035" s="4"/>
     </row>
     <row r="1036" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1036" s="5"/>
-      <c r="E1036" s="3"/>
+      <c r="B1036" s="4"/>
+      <c r="E1036" s="4"/>
     </row>
     <row r="1037" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1037" s="5"/>
-      <c r="E1037" s="3"/>
+      <c r="B1037" s="4"/>
+      <c r="E1037" s="4"/>
     </row>
     <row r="1038" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1038" s="5"/>
-      <c r="E1038" s="3"/>
+      <c r="B1038" s="4"/>
+      <c r="E1038" s="4"/>
     </row>
     <row r="1039" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1039" s="5"/>
-      <c r="E1039" s="3"/>
+      <c r="B1039" s="4"/>
+      <c r="E1039" s="4"/>
     </row>
     <row r="1040" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1040" s="5"/>
-      <c r="E1040" s="3"/>
+      <c r="B1040" s="4"/>
+      <c r="E1040" s="4"/>
     </row>
     <row r="1041" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1041" s="5"/>
-      <c r="E1041" s="3"/>
+      <c r="B1041" s="4"/>
+      <c r="E1041" s="4"/>
     </row>
     <row r="1042" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1042" s="5"/>
-      <c r="E1042" s="3"/>
+      <c r="B1042" s="4"/>
+      <c r="E1042" s="4"/>
     </row>
     <row r="1043" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1043" s="5"/>
-      <c r="E1043" s="3"/>
+      <c r="B1043" s="4"/>
+      <c r="E1043" s="4"/>
     </row>
     <row r="1044" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1044" s="5"/>
-      <c r="E1044" s="3"/>
+      <c r="B1044" s="4"/>
+      <c r="E1044" s="4"/>
     </row>
     <row r="1045" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1045" s="5"/>
-      <c r="E1045" s="3"/>
+      <c r="B1045" s="4"/>
+      <c r="E1045" s="4"/>
     </row>
     <row r="1046" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1046" s="5"/>
-      <c r="E1046" s="3"/>
+      <c r="B1046" s="4"/>
+      <c r="E1046" s="4"/>
     </row>
     <row r="1047" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1047" s="5"/>
-      <c r="E1047" s="3"/>
+      <c r="B1047" s="4"/>
+      <c r="E1047" s="4"/>
     </row>
     <row r="1048" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1048" s="5"/>
-      <c r="E1048" s="3"/>
+      <c r="B1048" s="4"/>
+      <c r="E1048" s="4"/>
     </row>
     <row r="1049" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1049" s="5"/>
-      <c r="E1049" s="3"/>
+      <c r="B1049" s="4"/>
+      <c r="E1049" s="4"/>
     </row>
     <row r="1050" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1050" s="5"/>
-      <c r="E1050" s="3"/>
+      <c r="B1050" s="4"/>
+      <c r="E1050" s="4"/>
     </row>
     <row r="1051" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1051" s="5"/>
-      <c r="E1051" s="3"/>
+      <c r="B1051" s="4"/>
+      <c r="E1051" s="4"/>
     </row>
     <row r="1052" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1052" s="5"/>
-      <c r="E1052" s="3"/>
+      <c r="B1052" s="4"/>
+      <c r="E1052" s="4"/>
     </row>
     <row r="1053" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1053" s="5"/>
-      <c r="E1053" s="3"/>
+      <c r="B1053" s="4"/>
+      <c r="E1053" s="4"/>
     </row>
     <row r="1054" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1054" s="5"/>
-      <c r="E1054" s="3"/>
+      <c r="B1054" s="4"/>
+      <c r="E1054" s="4"/>
     </row>
     <row r="1055" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1055" s="5"/>
-      <c r="E1055" s="3"/>
+      <c r="B1055" s="4"/>
+      <c r="E1055" s="4"/>
     </row>
     <row r="1056" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1056" s="5"/>
-      <c r="E1056" s="3"/>
+      <c r="B1056" s="4"/>
+      <c r="E1056" s="4"/>
     </row>
     <row r="1057" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1057" s="5"/>
-      <c r="E1057" s="3"/>
+      <c r="B1057" s="4"/>
+      <c r="E1057" s="4"/>
     </row>
     <row r="1058" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1058" s="5"/>
-      <c r="E1058" s="3"/>
+      <c r="B1058" s="4"/>
+      <c r="E1058" s="4"/>
     </row>
     <row r="1059" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1059" s="5"/>
-      <c r="E1059" s="3"/>
+      <c r="B1059" s="4"/>
+      <c r="E1059" s="4"/>
     </row>
     <row r="1060" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1060" s="5"/>
-      <c r="E1060" s="3"/>
+      <c r="B1060" s="4"/>
+      <c r="E1060" s="4"/>
     </row>
     <row r="1061" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1061" s="5"/>
-      <c r="E1061" s="3"/>
+      <c r="B1061" s="4"/>
+      <c r="E1061" s="4"/>
     </row>
     <row r="1062" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1062" s="5"/>
-      <c r="E1062" s="3"/>
+      <c r="B1062" s="4"/>
+      <c r="E1062" s="4"/>
     </row>
     <row r="1063" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1063" s="5"/>
-      <c r="E1063" s="3"/>
+      <c r="B1063" s="4"/>
+      <c r="E1063" s="4"/>
     </row>
     <row r="1064" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1064" s="5"/>
-      <c r="E1064" s="3"/>
+      <c r="B1064" s="4"/>
+      <c r="E1064" s="4"/>
     </row>
     <row r="1065" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1065" s="5"/>
-      <c r="E1065" s="3"/>
+      <c r="B1065" s="4"/>
+      <c r="E1065" s="4"/>
     </row>
     <row r="1066" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1066" s="5"/>
-      <c r="E1066" s="3"/>
+      <c r="B1066" s="4"/>
+      <c r="E1066" s="4"/>
     </row>
     <row r="1067" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1067" s="5"/>
-      <c r="E1067" s="3"/>
+      <c r="B1067" s="4"/>
+      <c r="E1067" s="4"/>
     </row>
     <row r="1068" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1068" s="5"/>
-      <c r="E1068" s="3"/>
+      <c r="B1068" s="4"/>
+      <c r="E1068" s="4"/>
     </row>
     <row r="1069" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1069" s="5"/>
-      <c r="E1069" s="3"/>
+      <c r="B1069" s="4"/>
+      <c r="E1069" s="4"/>
     </row>
     <row r="1070" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1070" s="5"/>
-      <c r="E1070" s="3"/>
+      <c r="B1070" s="4"/>
+      <c r="E1070" s="4"/>
     </row>
     <row r="1071" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1071" s="5"/>
-      <c r="E1071" s="3"/>
+      <c r="B1071" s="4"/>
+      <c r="E1071" s="4"/>
     </row>
     <row r="1072" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1072" s="5"/>
-      <c r="E1072" s="3"/>
+      <c r="B1072" s="4"/>
+      <c r="E1072" s="4"/>
     </row>
     <row r="1073" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1073" s="5"/>
-      <c r="E1073" s="3"/>
+      <c r="B1073" s="4"/>
+      <c r="E1073" s="4"/>
     </row>
     <row r="1074" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1074" s="5"/>
-      <c r="E1074" s="3"/>
+      <c r="B1074" s="4"/>
+      <c r="E1074" s="4"/>
     </row>
     <row r="1075" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1075" s="5"/>
-      <c r="E1075" s="3"/>
+      <c r="B1075" s="4"/>
+      <c r="E1075" s="4"/>
     </row>
     <row r="1076" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1076" s="5"/>
-      <c r="E1076" s="3"/>
+      <c r="B1076" s="4"/>
+      <c r="E1076" s="4"/>
     </row>
     <row r="1077" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1077" s="5"/>
-      <c r="E1077" s="3"/>
+      <c r="B1077" s="4"/>
+      <c r="E1077" s="4"/>
     </row>
     <row r="1078" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1078" s="5"/>
-      <c r="E1078" s="3"/>
+      <c r="B1078" s="4"/>
+      <c r="E1078" s="4"/>
     </row>
     <row r="1079" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1079" s="5"/>
-      <c r="E1079" s="3"/>
+      <c r="B1079" s="4"/>
+      <c r="E1079" s="4"/>
     </row>
     <row r="1080" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1080" s="5"/>
-      <c r="E1080" s="3"/>
+      <c r="B1080" s="4"/>
+      <c r="E1080" s="4"/>
     </row>
     <row r="1081" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1081" s="5"/>
-      <c r="E1081" s="3"/>
+      <c r="B1081" s="4"/>
+      <c r="E1081" s="4"/>
     </row>
     <row r="1082" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1082" s="5"/>
-      <c r="E1082" s="3"/>
+      <c r="B1082" s="4"/>
+      <c r="E1082" s="4"/>
     </row>
     <row r="1083" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1083" s="5"/>
-      <c r="E1083" s="3"/>
+      <c r="B1083" s="4"/>
+      <c r="E1083" s="4"/>
     </row>
     <row r="1084" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1084" s="5"/>
-      <c r="E1084" s="3"/>
+      <c r="B1084" s="4"/>
+      <c r="E1084" s="4"/>
     </row>
     <row r="1085" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1085" s="5"/>
-      <c r="E1085" s="3"/>
+      <c r="B1085" s="4"/>
+      <c r="E1085" s="4"/>
     </row>
     <row r="1086" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1086" s="5"/>
-      <c r="E1086" s="3"/>
+      <c r="B1086" s="4"/>
+      <c r="E1086" s="4"/>
     </row>
     <row r="1087" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1087" s="5"/>
-      <c r="E1087" s="3"/>
+      <c r="B1087" s="4"/>
+      <c r="E1087" s="4"/>
     </row>
     <row r="1088" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1088" s="5"/>
-      <c r="E1088" s="3"/>
+      <c r="B1088" s="4"/>
+      <c r="E1088" s="4"/>
     </row>
     <row r="1089" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1089" s="5"/>
-      <c r="E1089" s="3"/>
+      <c r="B1089" s="4"/>
+      <c r="E1089" s="4"/>
     </row>
     <row r="1090" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1090" s="5"/>
-      <c r="E1090" s="3"/>
+      <c r="B1090" s="4"/>
+      <c r="E1090" s="4"/>
     </row>
     <row r="1091" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1091" s="5"/>
-      <c r="E1091" s="3"/>
+      <c r="B1091" s="4"/>
+      <c r="E1091" s="4"/>
     </row>
     <row r="1092" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1092" s="5"/>
-      <c r="E1092" s="3"/>
+      <c r="B1092" s="4"/>
+      <c r="E1092" s="4"/>
     </row>
     <row r="1093" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1093" s="5"/>
-      <c r="E1093" s="3"/>
+      <c r="B1093" s="4"/>
+      <c r="E1093" s="4"/>
     </row>
     <row r="1094" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1094" s="5"/>
-      <c r="E1094" s="3"/>
+      <c r="B1094" s="4"/>
+      <c r="E1094" s="4"/>
     </row>
     <row r="1095" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1095" s="5"/>
-      <c r="E1095" s="3"/>
+      <c r="B1095" s="4"/>
+      <c r="E1095" s="4"/>
     </row>
     <row r="1096" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1096" s="5"/>
-      <c r="E1096" s="3"/>
+      <c r="B1096" s="4"/>
+      <c r="E1096" s="4"/>
     </row>
     <row r="1097" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1097" s="5"/>
-      <c r="E1097" s="3"/>
+      <c r="B1097" s="4"/>
+      <c r="E1097" s="4"/>
     </row>
     <row r="1098" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1098" s="5"/>
-      <c r="E1098" s="3"/>
+      <c r="B1098" s="4"/>
+      <c r="E1098" s="4"/>
     </row>
     <row r="1099" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1099" s="5"/>
-      <c r="E1099" s="3"/>
+      <c r="B1099" s="4"/>
+      <c r="E1099" s="4"/>
     </row>
     <row r="1100" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1100" s="5"/>
-      <c r="E1100" s="3"/>
+      <c r="B1100" s="4"/>
+      <c r="E1100" s="4"/>
     </row>
     <row r="1101" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1101" s="5"/>
-      <c r="E1101" s="3"/>
+      <c r="B1101" s="4"/>
+      <c r="E1101" s="4"/>
     </row>
     <row r="1102" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1102" s="5"/>
-      <c r="E1102" s="3"/>
+      <c r="B1102" s="4"/>
+      <c r="E1102" s="4"/>
     </row>
     <row r="1103" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1103" s="5"/>
-      <c r="E1103" s="3"/>
+      <c r="B1103" s="4"/>
+      <c r="E1103" s="4"/>
     </row>
     <row r="1104" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1104" s="5"/>
-      <c r="E1104" s="3"/>
+      <c r="B1104" s="4"/>
+      <c r="E1104" s="4"/>
     </row>
     <row r="1105" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1105" s="5"/>
-      <c r="E1105" s="3"/>
+      <c r="B1105" s="4"/>
+      <c r="E1105" s="4"/>
     </row>
     <row r="1106" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1106" s="5"/>
-      <c r="E1106" s="3"/>
+      <c r="B1106" s="4"/>
+      <c r="E1106" s="4"/>
     </row>
     <row r="1107" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1107" s="5"/>
-      <c r="E1107" s="3"/>
+      <c r="B1107" s="4"/>
+      <c r="E1107" s="4"/>
     </row>
     <row r="1108" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1108" s="5"/>
-      <c r="E1108" s="3"/>
+      <c r="B1108" s="4"/>
+      <c r="E1108" s="4"/>
     </row>
     <row r="1109" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1109" s="5"/>
-      <c r="E1109" s="3"/>
+      <c r="B1109" s="4"/>
+      <c r="E1109" s="4"/>
     </row>
     <row r="1110" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1110" s="5"/>
-      <c r="E1110" s="3"/>
+      <c r="B1110" s="4"/>
+      <c r="E1110" s="4"/>
     </row>
     <row r="1111" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1111" s="5"/>
-      <c r="E1111" s="3"/>
+      <c r="B1111" s="4"/>
+      <c r="E1111" s="4"/>
     </row>
     <row r="1112" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1112" s="5"/>
-      <c r="E1112" s="3"/>
+      <c r="B1112" s="4"/>
+      <c r="E1112" s="4"/>
     </row>
     <row r="1113" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1113" s="5"/>
-      <c r="E1113" s="3"/>
+      <c r="B1113" s="4"/>
+      <c r="E1113" s="4"/>
     </row>
     <row r="1114" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1114" s="5"/>
-      <c r="E1114" s="3"/>
+      <c r="B1114" s="4"/>
+      <c r="E1114" s="4"/>
     </row>
     <row r="1115" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1115" s="5"/>
-      <c r="E1115" s="3"/>
+      <c r="B1115" s="4"/>
+      <c r="E1115" s="4"/>
     </row>
     <row r="1116" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1116" s="5"/>
-      <c r="E1116" s="3"/>
+      <c r="B1116" s="4"/>
+      <c r="E1116" s="4"/>
     </row>
     <row r="1117" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1117" s="5"/>
-      <c r="E1117" s="3"/>
+      <c r="B1117" s="4"/>
+      <c r="E1117" s="4"/>
     </row>
     <row r="1118" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1118" s="5"/>
-      <c r="E1118" s="3"/>
+      <c r="B1118" s="4"/>
+      <c r="E1118" s="4"/>
     </row>
     <row r="1119" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1119" s="5"/>
-      <c r="E1119" s="3"/>
+      <c r="B1119" s="4"/>
+      <c r="E1119" s="4"/>
     </row>
     <row r="1120" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1120" s="5"/>
-      <c r="E1120" s="3"/>
+      <c r="B1120" s="4"/>
+      <c r="E1120" s="4"/>
     </row>
     <row r="1121" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1121" s="5"/>
-      <c r="E1121" s="3"/>
+      <c r="B1121" s="4"/>
+      <c r="E1121" s="4"/>
     </row>
     <row r="1122" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1122" s="5"/>
-      <c r="E1122" s="3"/>
+      <c r="B1122" s="4"/>
+      <c r="E1122" s="4"/>
     </row>
     <row r="1123" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1123" s="5"/>
-      <c r="E1123" s="3"/>
+      <c r="B1123" s="4"/>
+      <c r="E1123" s="4"/>
     </row>
     <row r="1124" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1124" s="5"/>
-      <c r="E1124" s="3"/>
+      <c r="B1124" s="4"/>
+      <c r="E1124" s="4"/>
     </row>
     <row r="1125" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1125" s="5"/>
-      <c r="E1125" s="3"/>
+      <c r="B1125" s="4"/>
+      <c r="E1125" s="4"/>
     </row>
     <row r="1126" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1126" s="5"/>
-      <c r="E1126" s="3"/>
+      <c r="B1126" s="4"/>
+      <c r="E1126" s="4"/>
     </row>
     <row r="1127" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1127" s="5"/>
-      <c r="E1127" s="3"/>
+      <c r="B1127" s="4"/>
+      <c r="E1127" s="4"/>
     </row>
     <row r="1128" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1128" s="5"/>
-      <c r="E1128" s="3"/>
+      <c r="B1128" s="4"/>
+      <c r="E1128" s="4"/>
     </row>
     <row r="1129" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1129" s="5"/>
-      <c r="E1129" s="3"/>
+      <c r="B1129" s="4"/>
+      <c r="E1129" s="4"/>
     </row>
     <row r="1130" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1130" s="5"/>
-      <c r="E1130" s="3"/>
+      <c r="B1130" s="4"/>
+      <c r="E1130" s="4"/>
     </row>
     <row r="1131" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1131" s="5"/>
-      <c r="E1131" s="3"/>
+      <c r="B1131" s="4"/>
+      <c r="E1131" s="4"/>
     </row>
     <row r="1132" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1132" s="5"/>
-      <c r="E1132" s="3"/>
+      <c r="B1132" s="4"/>
+      <c r="E1132" s="4"/>
     </row>
     <row r="1133" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1133" s="5"/>
+      <c r="B1133" s="4"/>
     </row>
     <row r="1134" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1134" s="5"/>
+      <c r="B1134" s="4"/>
     </row>
     <row r="1135" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1135" s="5"/>
+      <c r="B1135" s="4"/>
     </row>
     <row r="1136" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1136" s="5"/>
+      <c r="B1136" s="4"/>
     </row>
     <row r="1137" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1137" s="5"/>
+      <c r="B1137" s="4"/>
     </row>
     <row r="1138" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1138" s="5"/>
+      <c r="B1138" s="4"/>
     </row>
     <row r="1139" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1139" s="5"/>
+      <c r="B1139" s="4"/>
     </row>
     <row r="1140" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1140" s="5"/>
+      <c r="B1140" s="4"/>
     </row>
     <row r="1141" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1141" s="5"/>
+      <c r="B1141" s="4"/>
     </row>
     <row r="1142" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1142" s="5"/>
+      <c r="B1142" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5091,6 +5088,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="7e7b11f4-f136-433a-ae27-5b7057a77e57" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008B02D15825F3B9448D0EC7899A8AB0FD" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="76d0a11b0865898e94d60f899162b25d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7e7b11f4-f136-433a-ae27-5b7057a77e57" xmlns:ns4="27bba83f-6ae7-47c8-b9ca-06fda1d18f5e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87fda86a1ccdd6891de83b9b7438a915" ns3:_="" ns4:_="">
     <xsd:import namespace="7e7b11f4-f136-433a-ae27-5b7057a77e57"/>
@@ -5317,24 +5331,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAF2C0D-9033-40CB-9424-F2C3DB4E4E4E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="7e7b11f4-f136-433a-ae27-5b7057a77e57"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="27bba83f-6ae7-47c8-b9ca-06fda1d18f5e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="7e7b11f4-f136-433a-ae27-5b7057a77e57" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D8FA3B1-15A4-45E1-8391-09EE49E18087}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71701880-739C-45F8-B97A-4352DD1A49F9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5351,29 +5373,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D8FA3B1-15A4-45E1-8391-09EE49E18087}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAF2C0D-9033-40CB-9424-F2C3DB4E4E4E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="7e7b11f4-f136-433a-ae27-5b7057a77e57"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="27bba83f-6ae7-47c8-b9ca-06fda1d18f5e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>